--- a/etf_dfs/EWK.xlsx
+++ b/etf_dfs/EWK.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Open</t>
   </si>
@@ -37,7 +37,10 @@
     <t>Return</t>
   </si>
   <si>
-    <t>Return_12</t>
+    <t>Volatility</t>
+  </si>
+  <si>
+    <t>Trend</t>
   </si>
   <si>
     <t>EWK</t>
@@ -404,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J311"/>
+  <dimension ref="A1:K312"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,8 +441,11 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>35125</v>
       </c>
@@ -462,7 +468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>35156</v>
       </c>
@@ -479,7 +485,7 @@
         <v>15</v>
       </c>
       <c r="F3">
-        <v>4.836248397827148</v>
+        <v>4.83624792098999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -488,7 +494,7 @@
         <v>0.02127659574468077</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>35186</v>
       </c>
@@ -513,8 +519,11 @@
       <c r="H4">
         <v>0.01666666666666661</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4">
+        <v>0.003259712111852864</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>35217</v>
       </c>
@@ -539,8 +548,11 @@
       <c r="H5">
         <v>0.01639344262295084</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5">
+        <v>0.002743819779451197</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>35247</v>
       </c>
@@ -557,7 +569,7 @@
         <v>15.4375</v>
       </c>
       <c r="F6">
-        <v>4.977307319641113</v>
+        <v>4.977306365966797</v>
       </c>
       <c r="G6">
         <v>1700</v>
@@ -565,8 +577,11 @@
       <c r="H6">
         <v>-0.004032258064516125</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6">
+        <v>0.0112966222703555</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>35278</v>
       </c>
@@ -583,7 +598,7 @@
         <v>15.0625</v>
       </c>
       <c r="F7">
-        <v>5.078320503234863</v>
+        <v>5.078321933746338</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -591,8 +606,11 @@
       <c r="H7">
         <v>-0.02429149797570851</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7">
+        <v>0.0191717079391833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>35309</v>
       </c>
@@ -609,7 +627,7 @@
         <v>15.125</v>
       </c>
       <c r="F8">
-        <v>5.099393844604492</v>
+        <v>5.099392890930176</v>
       </c>
       <c r="G8">
         <v>300</v>
@@ -617,8 +635,11 @@
       <c r="H8">
         <v>0.004149377593360981</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8">
+        <v>0.01715308672618123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>35339</v>
       </c>
@@ -635,7 +656,7 @@
         <v>15.25</v>
       </c>
       <c r="F9">
-        <v>5.141537189483643</v>
+        <v>5.141536235809326</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -643,8 +664,11 @@
       <c r="H9">
         <v>0.008264462809917328</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="I9">
+        <v>0.01570629107071607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>35370</v>
       </c>
@@ -661,7 +685,7 @@
         <v>15.8125</v>
       </c>
       <c r="F10">
-        <v>5.331183433532715</v>
+        <v>5.331182956695557</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -669,8 +693,11 @@
       <c r="H10">
         <v>0.03688524590163933</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="I10">
+        <v>0.01829365407870274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>35400</v>
       </c>
@@ -687,7 +714,7 @@
         <v>15.625</v>
       </c>
       <c r="F11">
-        <v>5.272033214569092</v>
+        <v>5.27203369140625</v>
       </c>
       <c r="G11">
         <v>1400</v>
@@ -695,8 +722,11 @@
       <c r="H11">
         <v>-0.01185770750988147</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="I11">
+        <v>0.01852300594176939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>35431</v>
       </c>
@@ -713,7 +743,7 @@
         <v>15.9375</v>
       </c>
       <c r="F12">
-        <v>5.377472877502441</v>
+        <v>5.377472400665283</v>
       </c>
       <c r="G12">
         <v>2300</v>
@@ -721,8 +751,11 @@
       <c r="H12">
         <v>0.02000000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="I12">
+        <v>0.01793734476258</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>35462</v>
       </c>
@@ -739,7 +772,7 @@
         <v>15.875</v>
       </c>
       <c r="F13">
-        <v>5.356385707855225</v>
+        <v>5.356386184692383</v>
       </c>
       <c r="G13">
         <v>400</v>
@@ -747,8 +780,11 @@
       <c r="H13">
         <v>-0.003921568627450966</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="I13">
+        <v>0.01741417359276132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>35490</v>
       </c>
@@ -765,7 +801,7 @@
         <v>16.125</v>
       </c>
       <c r="F14">
-        <v>5.440739154815674</v>
+        <v>5.440737724304199</v>
       </c>
       <c r="G14">
         <v>25200</v>
@@ -774,13 +810,16 @@
         <v>0.01574803149606296</v>
       </c>
       <c r="I14">
-        <v>0.09787234042553195</v>
+        <v>0.01678484423970356</v>
       </c>
       <c r="J14">
         <v>0.09787234042553195</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="K14">
+        <v>0.09787234042553195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>35521</v>
       </c>
@@ -797,7 +836,7 @@
         <v>16.1875</v>
       </c>
       <c r="F15">
-        <v>5.461825847625732</v>
+        <v>5.461827278137207</v>
       </c>
       <c r="G15">
         <v>1200</v>
@@ -806,13 +845,16 @@
         <v>0.003875968992248069</v>
       </c>
       <c r="I15">
-        <v>0.07916666666666661</v>
+        <v>0.01610974682124494</v>
       </c>
       <c r="J15">
         <v>0.07916666666666661</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="K15">
+        <v>0.07916666666666661</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>35551</v>
       </c>
@@ -829,7 +871,7 @@
         <v>16.875</v>
       </c>
       <c r="F16">
-        <v>5.693795680999756</v>
+        <v>5.693795204162598</v>
       </c>
       <c r="G16">
         <v>1200</v>
@@ -838,13 +880,16 @@
         <v>0.04247104247104239</v>
       </c>
       <c r="I16">
-        <v>0.1065573770491803</v>
+        <v>0.01806323079547974</v>
       </c>
       <c r="J16">
         <v>0.1065573770491803</v>
       </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16">
+        <v>0.1065573770491803</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>35582</v>
       </c>
@@ -861,7 +906,7 @@
         <v>17.5</v>
       </c>
       <c r="F17">
-        <v>5.90467643737793</v>
+        <v>5.904675960540771</v>
       </c>
       <c r="G17">
         <v>27700</v>
@@ -870,13 +915,16 @@
         <v>0.03703703703703698</v>
       </c>
       <c r="I17">
-        <v>0.1290322580645162</v>
+        <v>0.01874272511559572</v>
       </c>
       <c r="J17">
         <v>0.1290322580645162</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="K17">
+        <v>0.1290322580645162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>35612</v>
       </c>
@@ -893,7 +941,7 @@
         <v>17.9375</v>
       </c>
       <c r="F18">
-        <v>6.052292823791504</v>
+        <v>6.052295207977295</v>
       </c>
       <c r="G18">
         <v>700</v>
@@ -902,13 +950,16 @@
         <v>0.02499999999999991</v>
       </c>
       <c r="I18">
-        <v>0.1619433198380567</v>
+        <v>0.018400490918665</v>
       </c>
       <c r="J18">
         <v>0.1619433198380567</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0.1619433198380567</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>35643</v>
       </c>
@@ -925,7 +976,7 @@
         <v>15.375</v>
       </c>
       <c r="F19">
-        <v>5.429316997528076</v>
+        <v>5.42931604385376</v>
       </c>
       <c r="G19">
         <v>5800</v>
@@ -934,13 +985,16 @@
         <v>-0.1428571428571429</v>
       </c>
       <c r="I19">
-        <v>0.02074688796680491</v>
+        <v>0.04172962841983289</v>
       </c>
       <c r="J19">
         <v>0.02074688796680491</v>
       </c>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="K19">
+        <v>0.02074688796680491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>35674</v>
       </c>
@@ -957,7 +1011,7 @@
         <v>16.75</v>
       </c>
       <c r="F20">
-        <v>5.914865493774414</v>
+        <v>5.914866924285889</v>
       </c>
       <c r="G20">
         <v>240300</v>
@@ -966,13 +1020,16 @@
         <v>0.08943089430894302</v>
       </c>
       <c r="I20">
-        <v>0.1074380165289257</v>
+        <v>0.04525951304588476</v>
       </c>
       <c r="J20">
         <v>0.1074380165289257</v>
       </c>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="K20">
+        <v>0.1074380165289257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>35704</v>
       </c>
@@ -989,7 +1046,7 @@
         <v>16.3125</v>
       </c>
       <c r="F21">
-        <v>5.760373115539551</v>
+        <v>5.760372161865234</v>
       </c>
       <c r="G21">
         <v>4900</v>
@@ -998,13 +1055,16 @@
         <v>-0.02611940298507465</v>
       </c>
       <c r="I21">
-        <v>0.06967213114754101</v>
+        <v>0.04468941157641405</v>
       </c>
       <c r="J21">
         <v>0.06967213114754101</v>
       </c>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="K21">
+        <v>0.06967213114754101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>35735</v>
       </c>
@@ -1021,7 +1081,7 @@
         <v>16.375</v>
       </c>
       <c r="F22">
-        <v>5.782443523406982</v>
+        <v>5.782444477081299</v>
       </c>
       <c r="G22">
         <v>900</v>
@@ -1030,13 +1090,16 @@
         <v>0.003831417624521105</v>
       </c>
       <c r="I22">
-        <v>0.03557312252964429</v>
+        <v>0.04350167246414566</v>
       </c>
       <c r="J22">
         <v>0.03557312252964429</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="K22">
+        <v>0.03557312252964429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>35765</v>
       </c>
@@ -1053,7 +1116,7 @@
         <v>16.5625</v>
       </c>
       <c r="F23">
-        <v>5.91063928604126</v>
+        <v>5.910637855529785</v>
       </c>
       <c r="G23">
         <v>500</v>
@@ -1062,13 +1125,16 @@
         <v>0.01145038167938939</v>
       </c>
       <c r="I23">
-        <v>0.06000000000000005</v>
+        <v>0.0424145200180758</v>
       </c>
       <c r="J23">
         <v>0.06000000000000005</v>
       </c>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="K23">
+        <v>0.06000000000000005</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>35796</v>
       </c>
@@ -1085,7 +1151,7 @@
         <v>17.0625</v>
       </c>
       <c r="F24">
-        <v>6.089073657989502</v>
+        <v>6.089073181152344</v>
       </c>
       <c r="G24">
         <v>1200</v>
@@ -1094,13 +1160,16 @@
         <v>0.03018867924528301</v>
       </c>
       <c r="I24">
-        <v>0.07058823529411762</v>
+        <v>0.04169575038670151</v>
       </c>
       <c r="J24">
         <v>0.07058823529411762</v>
       </c>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="K24">
+        <v>0.07058823529411762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>35827</v>
       </c>
@@ -1117,7 +1186,7 @@
         <v>17.9375</v>
       </c>
       <c r="F25">
-        <v>6.401332855224609</v>
+        <v>6.401331901550293</v>
       </c>
       <c r="G25">
         <v>8800</v>
@@ -1126,13 +1195,16 @@
         <v>0.05128205128205132</v>
       </c>
       <c r="I25">
-        <v>0.1299212598425197</v>
+        <v>0.04173800409352982</v>
       </c>
       <c r="J25">
         <v>0.1299212598425197</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="K25">
+        <v>0.1299212598425197</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>35855</v>
       </c>
@@ -1149,7 +1221,7 @@
         <v>19.375</v>
       </c>
       <c r="F26">
-        <v>6.914330959320068</v>
+        <v>6.914332389831543</v>
       </c>
       <c r="G26">
         <v>7100</v>
@@ -1158,13 +1230,16 @@
         <v>0.08013937282229966</v>
       </c>
       <c r="I26">
-        <v>0.2015503875968991</v>
+        <v>0.04328540175034761</v>
       </c>
       <c r="J26">
         <v>0.2015503875968991</v>
       </c>
-    </row>
-    <row r="27" spans="1:10">
+      <c r="K26">
+        <v>0.2015503875968991</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>35886</v>
       </c>
@@ -1181,7 +1256,7 @@
         <v>20.5</v>
       </c>
       <c r="F27">
-        <v>7.315808773040771</v>
+        <v>7.31580924987793</v>
       </c>
       <c r="G27">
         <v>1000</v>
@@ -1190,13 +1265,16 @@
         <v>0.0580645161290323</v>
       </c>
       <c r="I27">
-        <v>0.2664092664092663</v>
+        <v>0.04334108633339566</v>
       </c>
       <c r="J27">
         <v>0.2664092664092663</v>
       </c>
-    </row>
-    <row r="28" spans="1:10">
+      <c r="K27">
+        <v>0.2664092664092663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>35916</v>
       </c>
@@ -1213,7 +1291,7 @@
         <v>21.625</v>
       </c>
       <c r="F28">
-        <v>7.717284679412842</v>
+        <v>7.717288017272949</v>
       </c>
       <c r="G28">
         <v>19000</v>
@@ -1222,13 +1300,16 @@
         <v>0.05487804878048785</v>
       </c>
       <c r="I28">
-        <v>0.2814814814814814</v>
+        <v>0.04320237410480741</v>
       </c>
       <c r="J28">
         <v>0.2814814814814814</v>
       </c>
-    </row>
-    <row r="29" spans="1:10">
+      <c r="K28">
+        <v>0.2814814814814814</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>35947</v>
       </c>
@@ -1245,7 +1326,7 @@
         <v>22.3125</v>
       </c>
       <c r="F29">
-        <v>7.962634086608887</v>
+        <v>7.962633609771729</v>
       </c>
       <c r="G29">
         <v>32800</v>
@@ -1254,13 +1335,16 @@
         <v>0.03179190751445082</v>
       </c>
       <c r="I29">
-        <v>0.2749999999999999</v>
+        <v>0.04247337438049068</v>
       </c>
       <c r="J29">
         <v>0.2749999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="K29">
+        <v>0.2749999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>35977</v>
       </c>
@@ -1286,13 +1370,16 @@
         <v>0.05882352941176472</v>
       </c>
       <c r="I30">
-        <v>0.3170731707317074</v>
+        <v>0.04243960429579536</v>
       </c>
       <c r="J30">
         <v>0.3170731707317074</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="K30">
+        <v>0.3170731707317074</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>36008</v>
       </c>
@@ -1309,7 +1396,7 @@
         <v>17.875</v>
       </c>
       <c r="F31">
-        <v>7.574158191680908</v>
+        <v>7.574154376983643</v>
       </c>
       <c r="G31">
         <v>17900</v>
@@ -1318,13 +1405,16 @@
         <v>-0.2433862433862434</v>
       </c>
       <c r="I31">
-        <v>0.1626016260162602</v>
+        <v>0.06397748216241649</v>
       </c>
       <c r="J31">
         <v>0.1626016260162602</v>
       </c>
-    </row>
-    <row r="32" spans="1:10">
+      <c r="K31">
+        <v>0.1626016260162602</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>36039</v>
       </c>
@@ -1341,7 +1431,7 @@
         <v>18.0625</v>
       </c>
       <c r="F32">
-        <v>7.653604984283447</v>
+        <v>7.653603076934814</v>
       </c>
       <c r="G32">
         <v>2300</v>
@@ -1350,13 +1440,16 @@
         <v>0.01048951048951041</v>
       </c>
       <c r="I32">
-        <v>0.07835820895522394</v>
+        <v>0.06286532864832341</v>
       </c>
       <c r="J32">
         <v>0.07835820895522394</v>
       </c>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="K32">
+        <v>0.07835820895522394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>36069</v>
       </c>
@@ -1373,7 +1466,7 @@
         <v>19.1875</v>
       </c>
       <c r="F33">
-        <v>8.130300521850586</v>
+        <v>8.130297660827637</v>
       </c>
       <c r="G33">
         <v>5500</v>
@@ -1382,13 +1475,16 @@
         <v>0.06228373702422152</v>
       </c>
       <c r="I33">
-        <v>0.1762452107279693</v>
+        <v>0.0625436545604813</v>
       </c>
       <c r="J33">
         <v>0.1762452107279693</v>
       </c>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="K33">
+        <v>0.1762452107279693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>36100</v>
       </c>
@@ -1405,7 +1501,7 @@
         <v>19.3125</v>
       </c>
       <c r="F34">
-        <v>8.18326473236084</v>
+        <v>8.183267593383789</v>
       </c>
       <c r="G34">
         <v>11400</v>
@@ -1414,13 +1510,16 @@
         <v>0.006514657980456029</v>
       </c>
       <c r="I34">
-        <v>0.1793893129770991</v>
+        <v>0.06153122122317359</v>
       </c>
       <c r="J34">
         <v>0.1793893129770991</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="K34">
+        <v>0.1793893129770991</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>36130</v>
       </c>
@@ -1437,7 +1536,7 @@
         <v>21.25</v>
       </c>
       <c r="F35">
-        <v>9.328519821166992</v>
+        <v>9.328517913818359</v>
       </c>
       <c r="G35">
         <v>2300</v>
@@ -1446,13 +1545,16 @@
         <v>0.1003236245954693</v>
       </c>
       <c r="I35">
-        <v>0.2830188679245282</v>
+        <v>0.06254206025298177</v>
       </c>
       <c r="J35">
         <v>0.2830188679245282</v>
       </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="K35">
+        <v>0.2830188679245282</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>36161</v>
       </c>
@@ -1478,13 +1580,16 @@
         <v>-0.03529411764705881</v>
       </c>
       <c r="I36">
-        <v>0.2014652014652014</v>
+        <v>0.06214978279135787</v>
       </c>
       <c r="J36">
         <v>0.2014652014652014</v>
       </c>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="K36">
+        <v>0.2014652014652014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>36192</v>
       </c>
@@ -1501,7 +1606,7 @@
         <v>19.5625</v>
       </c>
       <c r="F37">
-        <v>8.587723731994629</v>
+        <v>8.587725639343262</v>
       </c>
       <c r="G37">
         <v>2200</v>
@@ -1510,13 +1615,16 @@
         <v>-0.04573170731707321</v>
       </c>
       <c r="I37">
-        <v>0.09059233449477344</v>
+        <v>0.06199979438896132</v>
       </c>
       <c r="J37">
         <v>0.09059233449477344</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="K37">
+        <v>0.09059233449477344</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>36220</v>
       </c>
@@ -1533,7 +1641,7 @@
         <v>18.25</v>
       </c>
       <c r="F38">
-        <v>8.011549949645996</v>
+        <v>8.011548042297363</v>
       </c>
       <c r="G38">
         <v>900</v>
@@ -1542,13 +1650,16 @@
         <v>-0.06709265175718848</v>
       </c>
       <c r="I38">
-        <v>-0.0580645161290323</v>
+        <v>0.06245346445658275</v>
       </c>
       <c r="J38">
         <v>-0.0580645161290323</v>
       </c>
-    </row>
-    <row r="39" spans="1:10">
+      <c r="K38">
+        <v>-0.0580645161290323</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>36251</v>
       </c>
@@ -1565,7 +1676,7 @@
         <v>18.0625</v>
       </c>
       <c r="F39">
-        <v>7.929239749908447</v>
+        <v>7.929239273071289</v>
       </c>
       <c r="G39">
         <v>8700</v>
@@ -1574,13 +1685,16 @@
         <v>-0.01027397260273977</v>
       </c>
       <c r="I39">
-        <v>-0.1189024390243902</v>
+        <v>0.06165422863328498</v>
       </c>
       <c r="J39">
         <v>-0.1189024390243902</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="K39">
+        <v>-0.1189024390243902</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>36281</v>
       </c>
@@ -1597,7 +1711,7 @@
         <v>17.125</v>
       </c>
       <c r="F40">
-        <v>7.517687320709229</v>
+        <v>7.517685890197754</v>
       </c>
       <c r="G40">
         <v>3200</v>
@@ -1606,13 +1720,16 @@
         <v>-0.05190311418685123</v>
       </c>
       <c r="I40">
-        <v>-0.208092485549133</v>
+        <v>0.0615774599500726</v>
       </c>
       <c r="J40">
         <v>-0.208092485549133</v>
       </c>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="K40">
+        <v>-0.208092485549133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>36312</v>
       </c>
@@ -1629,7 +1746,7 @@
         <v>17.8125</v>
       </c>
       <c r="F41">
-        <v>7.819493293762207</v>
+        <v>7.819493770599365</v>
       </c>
       <c r="G41">
         <v>2400</v>
@@ -1638,13 +1755,16 @@
         <v>0.04014598540145986</v>
       </c>
       <c r="I41">
-        <v>-0.2016806722689075</v>
+        <v>0.0610064002336998</v>
       </c>
       <c r="J41">
         <v>-0.2016806722689075</v>
       </c>
-    </row>
-    <row r="42" spans="1:10">
+      <c r="K41">
+        <v>-0.2016806722689075</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>36342</v>
       </c>
@@ -1661,7 +1781,7 @@
         <v>17.3125</v>
       </c>
       <c r="F42">
-        <v>7.599998950958252</v>
+        <v>7.599998474121094</v>
       </c>
       <c r="G42">
         <v>5800</v>
@@ -1670,13 +1790,16 @@
         <v>-0.02807017543859647</v>
       </c>
       <c r="I42">
-        <v>-0.2671957671957672</v>
+        <v>0.0604730743237181</v>
       </c>
       <c r="J42">
         <v>-0.2671957671957672</v>
       </c>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="K42">
+        <v>-0.2671957671957672</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>36373</v>
       </c>
@@ -1693,7 +1816,7 @@
         <v>16.1875</v>
       </c>
       <c r="F43">
-        <v>8.074110984802246</v>
+        <v>8.074112892150879</v>
       </c>
       <c r="G43">
         <v>1300</v>
@@ -1702,13 +1825,16 @@
         <v>-0.06498194945848379</v>
       </c>
       <c r="I43">
-        <v>-0.09440559440559437</v>
+        <v>0.06073450074216907</v>
       </c>
       <c r="J43">
         <v>-0.09440559440559437</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="K43">
+        <v>-0.09440559440559437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>36404</v>
       </c>
@@ -1725,7 +1851,7 @@
         <v>15.75</v>
       </c>
       <c r="F44">
-        <v>7.855892658233643</v>
+        <v>7.855893611907959</v>
       </c>
       <c r="G44">
         <v>1900</v>
@@ -1734,13 +1860,16 @@
         <v>-0.02702702702702697</v>
       </c>
       <c r="I44">
-        <v>-0.1280276816608996</v>
+        <v>0.06018409337739997</v>
       </c>
       <c r="J44">
         <v>-0.1280276816608996</v>
       </c>
-    </row>
-    <row r="45" spans="1:10">
+      <c r="K44">
+        <v>-0.1280276816608996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>36434</v>
       </c>
@@ -1757,7 +1886,7 @@
         <v>15.5</v>
       </c>
       <c r="F45">
-        <v>7.731197834014893</v>
+        <v>7.731196403503418</v>
       </c>
       <c r="G45">
         <v>10400</v>
@@ -1766,13 +1895,16 @@
         <v>-0.01587301587301593</v>
       </c>
       <c r="I45">
-        <v>-0.1921824104234527</v>
+        <v>0.05953729011144279</v>
       </c>
       <c r="J45">
         <v>-0.1921824104234527</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="K45">
+        <v>-0.1921824104234527</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>36465</v>
       </c>
@@ -1789,7 +1921,7 @@
         <v>15.1875</v>
       </c>
       <c r="F46">
-        <v>7.575325012207031</v>
+        <v>7.575325965881348</v>
       </c>
       <c r="G46">
         <v>2000</v>
@@ -1798,13 +1930,16 @@
         <v>-0.02016129032258063</v>
       </c>
       <c r="I46">
-        <v>-0.2135922330097088</v>
+        <v>0.05894561901805386</v>
       </c>
       <c r="J46">
         <v>-0.2135922330097088</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="K46">
+        <v>-0.2135922330097088</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>36495</v>
       </c>
@@ -1821,7 +1956,7 @@
         <v>16.125</v>
       </c>
       <c r="F47">
-        <v>8.042937278747559</v>
+        <v>8.042939186096191</v>
       </c>
       <c r="G47">
         <v>2300</v>
@@ -1830,13 +1965,16 @@
         <v>0.06172839506172845</v>
       </c>
       <c r="I47">
-        <v>-0.2411764705882353</v>
+        <v>0.05893473420410658</v>
       </c>
       <c r="J47">
         <v>-0.2411764705882353</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="K47">
+        <v>-0.2411764705882353</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>36526</v>
       </c>
@@ -1853,7 +1991,7 @@
         <v>13.0625</v>
       </c>
       <c r="F48">
-        <v>6.515402793884277</v>
+        <v>6.515403747558594</v>
       </c>
       <c r="G48">
         <v>5800</v>
@@ -1862,13 +2000,16 @@
         <v>-0.189922480620155</v>
       </c>
       <c r="I48">
-        <v>-0.3628048780487805</v>
+        <v>0.06490714851593349</v>
       </c>
       <c r="J48">
         <v>-0.3628048780487805</v>
       </c>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="K48">
+        <v>-0.3628048780487805</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>36557</v>
       </c>
@@ -1885,7 +2026,7 @@
         <v>12.8125</v>
       </c>
       <c r="F49">
-        <v>6.390707492828369</v>
+        <v>6.390706062316895</v>
       </c>
       <c r="G49">
         <v>17300</v>
@@ -1894,13 +2035,16 @@
         <v>-0.01913875598086123</v>
       </c>
       <c r="I49">
-        <v>-0.3450479233226837</v>
+        <v>0.06425656192374944</v>
       </c>
       <c r="J49">
         <v>-0.3450479233226837</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="K49">
+        <v>-0.3450479233226837</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>36586</v>
       </c>
@@ -1917,7 +2061,7 @@
         <v>12.875</v>
       </c>
       <c r="F50">
-        <v>6.421881198883057</v>
+        <v>6.42188024520874</v>
       </c>
       <c r="G50">
         <v>100</v>
@@ -1926,13 +2070,16 @@
         <v>0.004878048780487809</v>
       </c>
       <c r="I50">
-        <v>-0.2945205479452054</v>
+        <v>0.0635744007141342</v>
       </c>
       <c r="J50">
         <v>-0.2945205479452054</v>
       </c>
-    </row>
-    <row r="51" spans="1:10">
+      <c r="K50">
+        <v>-0.2945205479452054</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>36617</v>
       </c>
@@ -1949,7 +2096,7 @@
         <v>12.3125</v>
       </c>
       <c r="F51">
-        <v>6.141313076019287</v>
+        <v>6.141313552856445</v>
       </c>
       <c r="G51">
         <v>23500</v>
@@ -1958,13 +2105,16 @@
         <v>-0.0436893203883495</v>
       </c>
       <c r="I51">
-        <v>-0.3183391003460208</v>
+        <v>0.06320938219764015</v>
       </c>
       <c r="J51">
         <v>-0.3183391003460208</v>
       </c>
-    </row>
-    <row r="52" spans="1:10">
+      <c r="K51">
+        <v>-0.3183391003460208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>36647</v>
       </c>
@@ -1981,7 +2131,7 @@
         <v>13.125</v>
       </c>
       <c r="F52">
-        <v>6.546576023101807</v>
+        <v>6.546579360961914</v>
       </c>
       <c r="G52">
         <v>2800</v>
@@ -1990,13 +2140,16 @@
         <v>0.06598984771573613</v>
       </c>
       <c r="I52">
-        <v>-0.2335766423357665</v>
+        <v>0.06328412389958722</v>
       </c>
       <c r="J52">
         <v>-0.2335766423357665</v>
       </c>
-    </row>
-    <row r="53" spans="1:10">
+      <c r="K52">
+        <v>-0.2335766423357665</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>36678</v>
       </c>
@@ -2013,7 +2166,7 @@
         <v>13.5</v>
       </c>
       <c r="F53">
-        <v>6.73362398147583</v>
+        <v>6.733622550964355</v>
       </c>
       <c r="G53">
         <v>1700</v>
@@ -2022,13 +2175,16 @@
         <v>0.02857142857142847</v>
       </c>
       <c r="I53">
-        <v>-0.2421052631578947</v>
+        <v>0.06277671053341612</v>
       </c>
       <c r="J53">
         <v>-0.2421052631578947</v>
       </c>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="K53">
+        <v>-0.2421052631578947</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>36708</v>
       </c>
@@ -2045,7 +2201,7 @@
         <v>14.0625</v>
       </c>
       <c r="F54">
-        <v>7.014188766479492</v>
+        <v>7.014190196990967</v>
       </c>
       <c r="G54">
         <v>5800</v>
@@ -2054,13 +2210,16 @@
         <v>0.04166666666666674</v>
       </c>
       <c r="I54">
-        <v>-0.1877256317689531</v>
+        <v>0.0624204459586023</v>
       </c>
       <c r="J54">
         <v>-0.1877256317689531</v>
       </c>
-    </row>
-    <row r="55" spans="1:10">
+      <c r="K54">
+        <v>-0.1877256317689531</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>36739</v>
       </c>
@@ -2077,7 +2236,7 @@
         <v>13.25</v>
       </c>
       <c r="F55">
-        <v>6.782859802246094</v>
+        <v>6.782858848571777</v>
       </c>
       <c r="G55">
         <v>2100</v>
@@ -2086,13 +2245,16 @@
         <v>-0.05777777777777782</v>
       </c>
       <c r="I55">
-        <v>-0.1814671814671814</v>
+        <v>0.06234667285957337</v>
       </c>
       <c r="J55">
         <v>-0.1814671814671814</v>
       </c>
-    </row>
-    <row r="56" spans="1:10">
+      <c r="K55">
+        <v>-0.1814671814671814</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>36770</v>
       </c>
@@ -2109,7 +2271,7 @@
         <v>12.875</v>
       </c>
       <c r="F56">
-        <v>6.590889930725098</v>
+        <v>6.590888977050781</v>
       </c>
       <c r="G56">
         <v>5600</v>
@@ -2118,13 +2280,16 @@
         <v>-0.02830188679245282</v>
       </c>
       <c r="I56">
-        <v>-0.1825396825396826</v>
+        <v>0.0618767708728166</v>
       </c>
       <c r="J56">
         <v>-0.1825396825396826</v>
       </c>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="K56">
+        <v>-0.1825396825396826</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>36800</v>
       </c>
@@ -2141,7 +2306,7 @@
         <v>12.8125</v>
       </c>
       <c r="F57">
-        <v>6.558896541595459</v>
+        <v>6.558894634246826</v>
       </c>
       <c r="G57">
         <v>5900</v>
@@ -2150,13 +2315,16 @@
         <v>-0.004854368932038833</v>
       </c>
       <c r="I57">
-        <v>-0.1733870967741935</v>
+        <v>0.06130410620173316</v>
       </c>
       <c r="J57">
         <v>-0.1733870967741935</v>
       </c>
-    </row>
-    <row r="58" spans="1:10">
+      <c r="K57">
+        <v>-0.1733870967741935</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>36831</v>
       </c>
@@ -2173,7 +2341,7 @@
         <v>11.8125</v>
       </c>
       <c r="F58">
-        <v>6.046982288360596</v>
+        <v>6.046980857849121</v>
       </c>
       <c r="G58">
         <v>3000</v>
@@ -2182,13 +2350,16 @@
         <v>-0.07804878048780484</v>
       </c>
       <c r="I58">
-        <v>-0.2222222222222222</v>
+        <v>0.06162233083635632</v>
       </c>
       <c r="J58">
         <v>-0.2222222222222222</v>
       </c>
-    </row>
-    <row r="59" spans="1:10">
+      <c r="K58">
+        <v>-0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="2">
         <v>36861</v>
       </c>
@@ -2214,13 +2385,16 @@
         <v>0.07936507936507931</v>
       </c>
       <c r="I59">
-        <v>-0.2093023255813954</v>
+        <v>0.06201015190980232</v>
       </c>
       <c r="J59">
         <v>-0.2093023255813954</v>
       </c>
-    </row>
-    <row r="60" spans="1:10">
+      <c r="K59">
+        <v>-0.2093023255813954</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="2">
         <v>36892</v>
       </c>
@@ -2237,7 +2411,7 @@
         <v>12.80000019073486</v>
       </c>
       <c r="F60">
-        <v>6.572009086608887</v>
+        <v>6.572009563446045</v>
       </c>
       <c r="G60">
         <v>4000</v>
@@ -2246,13 +2420,16 @@
         <v>0.003921583587048083</v>
       </c>
       <c r="I60">
-        <v>-0.02009567917819233</v>
+        <v>0.06146646274415087</v>
       </c>
       <c r="J60">
         <v>-0.02009567917819233</v>
       </c>
-    </row>
-    <row r="61" spans="1:10">
+      <c r="K60">
+        <v>-0.02009567917819233</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="2">
         <v>36923</v>
       </c>
@@ -2278,13 +2455,16 @@
         <v>-0.003906264842953311</v>
       </c>
       <c r="I61">
-        <v>-0.004878048780487809</v>
+        <v>0.06093602115495401</v>
       </c>
       <c r="J61">
         <v>-0.004878048780487809</v>
       </c>
-    </row>
-    <row r="62" spans="1:10">
+      <c r="K61">
+        <v>-0.004878048780487809</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="2">
         <v>36951</v>
       </c>
@@ -2301,7 +2481,7 @@
         <v>11.35000038146973</v>
       </c>
       <c r="F62">
-        <v>5.827522754669189</v>
+        <v>5.827523231506348</v>
       </c>
       <c r="G62">
         <v>1000</v>
@@ -2310,13 +2490,16 @@
         <v>-0.1098038916494332</v>
       </c>
       <c r="I62">
-        <v>-0.1184465723130309</v>
+        <v>0.06204566242259987</v>
       </c>
       <c r="J62">
         <v>-0.1184465723130309</v>
       </c>
-    </row>
-    <row r="63" spans="1:10">
+      <c r="K62">
+        <v>-0.1184465723130309</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="2">
         <v>36982</v>
       </c>
@@ -2342,13 +2525,16 @@
         <v>0.02643164995398006</v>
       </c>
       <c r="I63">
-        <v>-0.05380713758129763</v>
+        <v>0.0616359127041157</v>
       </c>
       <c r="J63">
         <v>-0.05380713758129763</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
+      <c r="K63">
+        <v>-0.05380713758129763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="2">
         <v>37012</v>
       </c>
@@ -2365,7 +2551,7 @@
         <v>10.93000030517578</v>
       </c>
       <c r="F64">
-        <v>5.611878395080566</v>
+        <v>5.611880302429199</v>
       </c>
       <c r="G64">
         <v>0</v>
@@ -2374,13 +2560,16 @@
         <v>-0.06180251819144056</v>
       </c>
       <c r="I64">
-        <v>-0.1672380719866071</v>
+        <v>0.06160212973354418</v>
       </c>
       <c r="J64">
         <v>-0.1672380719866071</v>
       </c>
-    </row>
-    <row r="65" spans="1:10">
+      <c r="K64">
+        <v>-0.1672380719866071</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="2">
         <v>37043</v>
       </c>
@@ -2397,7 +2586,7 @@
         <v>11.05000019073486</v>
       </c>
       <c r="F65">
-        <v>5.673492431640625</v>
+        <v>5.673492908477783</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -2406,13 +2595,16 @@
         <v>0.01097894622219342</v>
       </c>
       <c r="I65">
-        <v>-0.1814814673529731</v>
+        <v>0.06112777607952527</v>
       </c>
       <c r="J65">
         <v>-0.1814814673529731</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="K65">
+        <v>-0.1814814673529731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="2">
         <v>37073</v>
       </c>
@@ -2429,7 +2621,7 @@
         <v>11.75</v>
       </c>
       <c r="F66">
-        <v>6.032900333404541</v>
+        <v>6.032898902893066</v>
       </c>
       <c r="G66">
         <v>200</v>
@@ -2438,13 +2630,16 @@
         <v>0.06334839793505775</v>
       </c>
       <c r="I66">
-        <v>-0.1644444444444444</v>
+        <v>0.0611972138446177</v>
       </c>
       <c r="J66">
         <v>-0.1644444444444444</v>
       </c>
-    </row>
-    <row r="67" spans="1:10">
+      <c r="K66">
+        <v>-0.1644444444444444</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="2">
         <v>37104</v>
       </c>
@@ -2461,7 +2656,7 @@
         <v>11.71000003814697</v>
       </c>
       <c r="F67">
-        <v>6.131908416748047</v>
+        <v>6.131908893585205</v>
       </c>
       <c r="G67">
         <v>1500</v>
@@ -2470,13 +2665,16 @@
         <v>-0.003404252072598091</v>
       </c>
       <c r="I67">
-        <v>-0.1162264122153228</v>
+        <v>0.06071768893444704</v>
       </c>
       <c r="J67">
         <v>-0.1162264122153228</v>
       </c>
-    </row>
-    <row r="68" spans="1:10">
+      <c r="K67">
+        <v>-0.1162264122153228</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="2">
         <v>37135</v>
       </c>
@@ -2502,13 +2700,16 @@
         <v>-0.09052095782780523</v>
       </c>
       <c r="I68">
-        <v>-0.1728155636092992</v>
+        <v>0.06123658848858311</v>
       </c>
       <c r="J68">
         <v>-0.1728155636092992</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="K68">
+        <v>-0.1728155636092992</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="2">
         <v>37165</v>
       </c>
@@ -2525,7 +2726,7 @@
         <v>10.35999965667725</v>
       </c>
       <c r="F69">
-        <v>5.424985885620117</v>
+        <v>5.42498254776001</v>
       </c>
       <c r="G69">
         <v>200</v>
@@ -2534,13 +2735,16 @@
         <v>-0.02723004434182774</v>
       </c>
       <c r="I69">
-        <v>-0.1914146609422637</v>
+        <v>0.06084370099929176</v>
       </c>
       <c r="J69">
         <v>-0.1914146609422637</v>
       </c>
-    </row>
-    <row r="70" spans="1:10">
+      <c r="K69">
+        <v>-0.1914146609422637</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="2">
         <v>37196</v>
       </c>
@@ -2557,7 +2761,7 @@
         <v>10.32999992370605</v>
       </c>
       <c r="F70">
-        <v>5.409275531768799</v>
+        <v>5.409276008605957</v>
       </c>
       <c r="G70">
         <v>1000</v>
@@ -2566,13 +2770,16 @@
         <v>-0.00289572721673359</v>
       </c>
       <c r="I70">
-        <v>-0.1255026519613922</v>
+        <v>0.06038795084120278</v>
       </c>
       <c r="J70">
         <v>-0.1255026519613922</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="K70">
+        <v>-0.1255026519613922</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="2">
         <v>37226</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v>11</v>
       </c>
       <c r="F71">
-        <v>5.798701286315918</v>
+        <v>5.798704624176025</v>
       </c>
       <c r="G71">
         <v>0</v>
@@ -2598,13 +2805,16 @@
         <v>0.06485964000409905</v>
       </c>
       <c r="I71">
-        <v>-0.1372549019607843</v>
+        <v>0.06050020676349319</v>
       </c>
       <c r="J71">
         <v>-0.1372549019607843</v>
       </c>
-    </row>
-    <row r="72" spans="1:10">
+      <c r="K71">
+        <v>-0.1372549019607843</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="2">
         <v>37257</v>
       </c>
@@ -2630,13 +2840,16 @@
         <v>-0.03272724151611328</v>
       </c>
       <c r="I72">
-        <v>-0.1687499855645003</v>
+        <v>0.06017058951121716</v>
       </c>
       <c r="J72">
         <v>-0.1687499855645003</v>
       </c>
-    </row>
-    <row r="73" spans="1:10">
+      <c r="K72">
+        <v>-0.1687499855645003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="2">
         <v>37288</v>
       </c>
@@ -2653,7 +2866,7 @@
         <v>10.55000019073486</v>
       </c>
       <c r="F73">
-        <v>5.561483383178711</v>
+        <v>5.561482429504395</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -2662,13 +2875,16 @@
         <v>-0.008458660684571462</v>
       </c>
       <c r="I73">
-        <v>-0.172549004648246</v>
+        <v>0.05974318691142937</v>
       </c>
       <c r="J73">
         <v>-0.172549004648246</v>
       </c>
-    </row>
-    <row r="74" spans="1:10">
+      <c r="K73">
+        <v>-0.172549004648246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="2">
         <v>37316</v>
       </c>
@@ -2685,7 +2901,7 @@
         <v>11.02000045776367</v>
       </c>
       <c r="F74">
-        <v>5.809247016906738</v>
+        <v>5.809245109558105</v>
       </c>
       <c r="G74">
         <v>3600</v>
@@ -2694,13 +2910,16 @@
         <v>0.04454978753854122</v>
       </c>
       <c r="I74">
-        <v>-0.02907488216871079</v>
+        <v>0.05958244938210079</v>
       </c>
       <c r="J74">
         <v>-0.02907488216871079</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="K74">
+        <v>-0.02907488216871079</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="2">
         <v>37347</v>
       </c>
@@ -2717,7 +2936,7 @@
         <v>11.40999984741211</v>
       </c>
       <c r="F75">
-        <v>6.014835834503174</v>
+        <v>6.014838218688965</v>
       </c>
       <c r="G75">
         <v>1000</v>
@@ -2726,13 +2945,16 @@
         <v>0.03539014278113584</v>
       </c>
       <c r="I75">
-        <v>-0.02060083939714685</v>
+        <v>0.05932977276362912</v>
       </c>
       <c r="J75">
         <v>-0.02060083939714685</v>
       </c>
-    </row>
-    <row r="76" spans="1:10">
+      <c r="K75">
+        <v>-0.02060083939714685</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="2">
         <v>37377</v>
       </c>
@@ -2749,7 +2971,7 @@
         <v>11.80000019073486</v>
       </c>
       <c r="F76">
-        <v>6.220424652099609</v>
+        <v>6.2204270362854</v>
       </c>
       <c r="G76">
         <v>4500</v>
@@ -2758,13 +2980,16 @@
         <v>0.03418057392973672</v>
       </c>
       <c r="I76">
-        <v>0.07959742555058336</v>
+        <v>0.05906857144009402</v>
       </c>
       <c r="J76">
         <v>0.07959742555058336</v>
       </c>
-    </row>
-    <row r="77" spans="1:10">
+      <c r="K76">
+        <v>0.07959742555058336</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="2">
         <v>37408</v>
       </c>
@@ -2781,7 +3006,7 @@
         <v>11.85000038146973</v>
       </c>
       <c r="F77">
-        <v>6.246786594390869</v>
+        <v>6.246785640716553</v>
       </c>
       <c r="G77">
         <v>8200</v>
@@ -2790,13 +3015,16 @@
         <v>0.004237304231073047</v>
       </c>
       <c r="I77">
-        <v>0.0723982060566517</v>
+        <v>0.05867135024380292</v>
       </c>
       <c r="J77">
         <v>0.0723982060566517</v>
       </c>
-    </row>
-    <row r="78" spans="1:10">
+      <c r="K77">
+        <v>0.0723982060566517</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="2">
         <v>37438</v>
       </c>
@@ -2813,7 +3041,7 @@
         <v>10.25</v>
       </c>
       <c r="F78">
-        <v>5.403336048126221</v>
+        <v>5.403337478637695</v>
       </c>
       <c r="G78">
         <v>6200</v>
@@ -2822,13 +3050,16 @@
         <v>-0.1350211248914139</v>
       </c>
       <c r="I78">
-        <v>-0.1276595744680851</v>
+        <v>0.0602713290360172</v>
       </c>
       <c r="J78">
         <v>-0.1276595744680851</v>
       </c>
-    </row>
-    <row r="79" spans="1:10">
+      <c r="K78">
+        <v>-0.1276595744680851</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="2">
         <v>37469</v>
       </c>
@@ -2845,7 +3076,7 @@
         <v>10.27999973297119</v>
       </c>
       <c r="F79">
-        <v>5.419149875640869</v>
+        <v>5.419151306152344</v>
       </c>
       <c r="G79">
         <v>13000</v>
@@ -2854,13 +3085,16 @@
         <v>0.002926803216701579</v>
       </c>
       <c r="I79">
-        <v>-0.1221178736564777</v>
+        <v>0.05987705213731014</v>
       </c>
       <c r="J79">
         <v>-0.1221178736564777</v>
       </c>
-    </row>
-    <row r="80" spans="1:10">
+      <c r="K79">
+        <v>-0.1221178736564777</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="2">
         <v>37500</v>
       </c>
@@ -2886,13 +3120,16 @@
         <v>-0.1624513735090605</v>
       </c>
       <c r="I80">
-        <v>-0.1915492990538297</v>
+        <v>0.06217536883835759</v>
       </c>
       <c r="J80">
         <v>-0.1915492990538297</v>
       </c>
-    </row>
-    <row r="81" spans="1:10">
+      <c r="K80">
+        <v>-0.1915492990538297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="2">
         <v>37530</v>
       </c>
@@ -2918,13 +3155,16 @@
         <v>0.1080139770336164</v>
       </c>
       <c r="I81">
-        <v>-0.0791505523164483</v>
+        <v>0.06306538832161533</v>
       </c>
       <c r="J81">
         <v>-0.0791505523164483</v>
       </c>
-    </row>
-    <row r="82" spans="1:10">
+      <c r="K81">
+        <v>-0.0791505523164483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="2">
         <v>37561</v>
       </c>
@@ -2941,7 +3181,7 @@
         <v>9.699999809265137</v>
       </c>
       <c r="F82">
-        <v>5.113401889801025</v>
+        <v>5.113400936126709</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2950,13 +3190,16 @@
         <v>0.01677147254212685</v>
       </c>
       <c r="I82">
-        <v>-0.06098742682419067</v>
+        <v>0.06270532347495011</v>
       </c>
       <c r="J82">
         <v>-0.06098742682419067</v>
       </c>
-    </row>
-    <row r="83" spans="1:10">
+      <c r="K82">
+        <v>-0.06098742682419067</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="2">
         <v>37591</v>
       </c>
@@ -2973,7 +3216,7 @@
         <v>9.869999885559082</v>
       </c>
       <c r="F83">
-        <v>5.265480041503906</v>
+        <v>5.265481948852539</v>
       </c>
       <c r="G83">
         <v>100</v>
@@ -2982,13 +3225,16 @@
         <v>0.01752578140584782</v>
       </c>
       <c r="I83">
-        <v>-0.1027272831309926</v>
+        <v>0.06235429256623821</v>
       </c>
       <c r="J83">
         <v>-0.1027272831309926</v>
       </c>
-    </row>
-    <row r="84" spans="1:10">
+      <c r="K83">
+        <v>-0.1027272831309926</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="2">
         <v>37622</v>
       </c>
@@ -3005,7 +3251,7 @@
         <v>9.420000076293945</v>
       </c>
       <c r="F84">
-        <v>5.025411605834961</v>
+        <v>5.025413513183594</v>
       </c>
       <c r="G84">
         <v>1000</v>
@@ -3014,13 +3260,16 @@
         <v>-0.04559268637110492</v>
       </c>
       <c r="I84">
-        <v>-0.1146616755322224</v>
+        <v>0.06214778042222176</v>
       </c>
       <c r="J84">
         <v>-0.1146616755322224</v>
       </c>
-    </row>
-    <row r="85" spans="1:10">
+      <c r="K84">
+        <v>-0.1146616755322224</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="2">
         <v>37653</v>
       </c>
@@ -3037,7 +3286,7 @@
         <v>8.399999618530273</v>
       </c>
       <c r="F85">
-        <v>4.481259822845459</v>
+        <v>4.481260776519775</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -3046,13 +3295,16 @@
         <v>-0.1082803024949618</v>
       </c>
       <c r="I85">
-        <v>-0.2037915197473404</v>
+        <v>0.06283207468794405</v>
       </c>
       <c r="J85">
         <v>-0.2037915197473404</v>
       </c>
-    </row>
-    <row r="86" spans="1:10">
+      <c r="K85">
+        <v>-0.2037915197473404</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="2">
         <v>37681</v>
       </c>
@@ -3078,13 +3330,16 @@
         <v>0.0154762048029311</v>
       </c>
       <c r="I86">
-        <v>-0.2259528694518571</v>
+        <v>0.06249092441328782</v>
       </c>
       <c r="J86">
         <v>-0.2259528694518571</v>
       </c>
-    </row>
-    <row r="87" spans="1:10">
+      <c r="K86">
+        <v>-0.2259528694518571</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="2">
         <v>37712</v>
       </c>
@@ -3101,7 +3356,7 @@
         <v>9.939999580383301</v>
       </c>
       <c r="F87">
-        <v>5.302823543548584</v>
+        <v>5.302824020385742</v>
       </c>
       <c r="G87">
         <v>3400</v>
@@ -3110,13 +3365,16 @@
         <v>0.1652989321865985</v>
       </c>
       <c r="I87">
-        <v>-0.1288343809541959</v>
+        <v>0.06478711271901978</v>
       </c>
       <c r="J87">
         <v>-0.1288343809541959</v>
       </c>
-    </row>
-    <row r="88" spans="1:10">
+      <c r="K87">
+        <v>-0.1288343809541959</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="2">
         <v>37742</v>
       </c>
@@ -3133,7 +3391,7 @@
         <v>11.10999965667725</v>
       </c>
       <c r="F88">
-        <v>5.927000522613525</v>
+        <v>5.926999568939209</v>
       </c>
       <c r="G88">
         <v>1400</v>
@@ -3142,13 +3400,16 @@
         <v>0.1177062500689592</v>
       </c>
       <c r="I88">
-        <v>-0.05847462058512443</v>
+        <v>0.06569399455542654</v>
       </c>
       <c r="J88">
         <v>-0.05847462058512443</v>
       </c>
-    </row>
-    <row r="89" spans="1:10">
+      <c r="K88">
+        <v>-0.05847462058512443</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="2">
         <v>37773</v>
       </c>
@@ -3165,7 +3426,7 @@
         <v>10.98999977111816</v>
       </c>
       <c r="F89">
-        <v>5.862983226776123</v>
+        <v>5.862980365753174</v>
       </c>
       <c r="G89">
         <v>1700</v>
@@ -3174,13 +3435,16 @@
         <v>-0.01080107014107423</v>
       </c>
       <c r="I89">
-        <v>-0.07257388883264315</v>
+        <v>0.06531939882839681</v>
       </c>
       <c r="J89">
         <v>-0.07257388883264315</v>
       </c>
-    </row>
-    <row r="90" spans="1:10">
+      <c r="K89">
+        <v>-0.07257388883264315</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="2">
         <v>37803</v>
       </c>
@@ -3197,7 +3461,7 @@
         <v>11.26000022888184</v>
       </c>
       <c r="F90">
-        <v>6.007022380828857</v>
+        <v>6.007023811340332</v>
       </c>
       <c r="G90">
         <v>800</v>
@@ -3206,13 +3470,16 @@
         <v>0.02456783106340321</v>
       </c>
       <c r="I90">
-        <v>0.09853660769578898</v>
+        <v>0.06500056075053175</v>
       </c>
       <c r="J90">
         <v>0.09853660769578898</v>
       </c>
-    </row>
-    <row r="91" spans="1:10">
+      <c r="K90">
+        <v>0.09853660769578898</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="2">
         <v>37834</v>
       </c>
@@ -3229,7 +3496,7 @@
         <v>11.11999988555908</v>
       </c>
       <c r="F91">
-        <v>5.932332038879395</v>
+        <v>5.93233585357666</v>
       </c>
       <c r="G91">
         <v>4600</v>
@@ -3238,13 +3505,16 @@
         <v>-0.01243342277770598</v>
       </c>
       <c r="I91">
-        <v>0.08171207922250678</v>
+        <v>0.06464191706403261</v>
       </c>
       <c r="J91">
         <v>0.08171207922250678</v>
       </c>
-    </row>
-    <row r="92" spans="1:10">
+      <c r="K91">
+        <v>0.08171207922250678</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="2">
         <v>37865</v>
       </c>
@@ -3261,7 +3531,7 @@
         <v>11.71000003814697</v>
       </c>
       <c r="F92">
-        <v>6.247089862823486</v>
+        <v>6.247089385986328</v>
       </c>
       <c r="G92">
         <v>400</v>
@@ -3270,13 +3540,16 @@
         <v>0.05305756822480645</v>
       </c>
       <c r="I92">
-        <v>0.3600465162696733</v>
+        <v>0.06452930171052002</v>
       </c>
       <c r="J92">
         <v>0.3600465162696733</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
+      <c r="K92">
+        <v>0.3600465162696733</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="2">
         <v>37895</v>
       </c>
@@ -3293,7 +3566,7 @@
         <v>12.48999977111816</v>
       </c>
       <c r="F93">
-        <v>6.663206577301025</v>
+        <v>6.663207530975342</v>
       </c>
       <c r="G93">
         <v>11900</v>
@@ -3302,13 +3575,16 @@
         <v>0.06660971224852541</v>
       </c>
       <c r="I93">
-        <v>0.3092242999015835</v>
+        <v>0.06455251674271292</v>
       </c>
       <c r="J93">
         <v>0.3092242999015835</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
+      <c r="K93">
+        <v>0.3092242999015835</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="2">
         <v>37926</v>
       </c>
@@ -3325,7 +3601,7 @@
         <v>12.86999988555908</v>
       </c>
       <c r="F94">
-        <v>6.865930080413818</v>
+        <v>6.865928173065186</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3334,13 +3610,16 @@
         <v>0.03042434919171333</v>
       </c>
       <c r="I94">
-        <v>0.326804138002772</v>
+        <v>0.06427317257117739</v>
       </c>
       <c r="J94">
         <v>0.326804138002772</v>
       </c>
-    </row>
-    <row r="95" spans="1:10">
+      <c r="K94">
+        <v>0.326804138002772</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="2">
         <v>37956</v>
       </c>
@@ -3357,7 +3636,7 @@
         <v>12.94999980926514</v>
       </c>
       <c r="F95">
-        <v>7.531066417694092</v>
+        <v>7.531063079833984</v>
       </c>
       <c r="G95">
         <v>700</v>
@@ -3366,13 +3645,16 @@
         <v>0.006216000343233885</v>
       </c>
       <c r="I95">
-        <v>0.3120567334770126</v>
+        <v>0.06392545088761965</v>
       </c>
       <c r="J95">
         <v>0.3120567334770126</v>
       </c>
-    </row>
-    <row r="96" spans="1:10">
+      <c r="K95">
+        <v>0.3120567334770126</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="2">
         <v>37987</v>
       </c>
@@ -3389,7 +3671,7 @@
         <v>13.92000007629395</v>
       </c>
       <c r="F96">
-        <v>8.095168113708496</v>
+        <v>8.095169067382812</v>
       </c>
       <c r="G96">
         <v>7600</v>
@@ -3398,13 +3680,16 @@
         <v>0.07490349662668083</v>
       </c>
       <c r="I96">
-        <v>0.4777070025004084</v>
+        <v>0.06403888786764725</v>
       </c>
       <c r="J96">
         <v>0.4777070025004084</v>
       </c>
-    </row>
-    <row r="97" spans="1:10">
+      <c r="K96">
+        <v>0.4777070025004084</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="2">
         <v>38018</v>
       </c>
@@ -3421,7 +3706,7 @@
         <v>14.19999980926514</v>
       </c>
       <c r="F97">
-        <v>8.258000373840332</v>
+        <v>8.258004188537598</v>
       </c>
       <c r="G97">
         <v>41000</v>
@@ -3430,13 +3715,16 @@
         <v>0.02011492323538389</v>
       </c>
       <c r="I97">
-        <v>0.6904762445393628</v>
+        <v>0.06372577196791041</v>
       </c>
       <c r="J97">
         <v>0.6904762445393628</v>
       </c>
-    </row>
-    <row r="98" spans="1:10">
+      <c r="K97">
+        <v>0.6904762445393628</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="2">
         <v>38047</v>
       </c>
@@ -3453,7 +3741,7 @@
         <v>13.47999954223633</v>
       </c>
       <c r="F98">
-        <v>7.839286804199219</v>
+        <v>7.839284896850586</v>
       </c>
       <c r="G98">
         <v>64400</v>
@@ -3462,13 +3750,16 @@
         <v>-0.05070424483801939</v>
       </c>
       <c r="I98">
-        <v>0.5803048023708366</v>
+        <v>0.06361523813246021</v>
       </c>
       <c r="J98">
         <v>0.5803048023708366</v>
       </c>
-    </row>
-    <row r="99" spans="1:10">
+      <c r="K98">
+        <v>0.5803048023708366</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="2">
         <v>38078</v>
       </c>
@@ -3485,7 +3776,7 @@
         <v>13.42000007629395</v>
       </c>
       <c r="F99">
-        <v>7.804393768310547</v>
+        <v>7.804390907287598</v>
       </c>
       <c r="G99">
         <v>279500</v>
@@ -3494,13 +3785,16 @@
         <v>-0.00445099910830038</v>
       </c>
       <c r="I99">
-        <v>0.3501006682916228</v>
+        <v>0.06328565471979439</v>
       </c>
       <c r="J99">
         <v>0.3501006682916228</v>
       </c>
-    </row>
-    <row r="100" spans="1:10">
+      <c r="K99">
+        <v>0.3501006682916228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="2">
         <v>38108</v>
       </c>
@@ -3517,7 +3811,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="F100">
-        <v>8.031196594238281</v>
+        <v>8.031198501586914</v>
       </c>
       <c r="G100">
         <v>7500</v>
@@ -3526,13 +3820,16 @@
         <v>0.02906112824929696</v>
       </c>
       <c r="I100">
-        <v>0.243024378611634</v>
+        <v>0.0630216723299817</v>
       </c>
       <c r="J100">
         <v>0.243024378611634</v>
       </c>
-    </row>
-    <row r="101" spans="1:10">
+      <c r="K100">
+        <v>0.243024378611634</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="2">
         <v>38139</v>
       </c>
@@ -3558,13 +3855,16 @@
         <v>0.04272260542986639</v>
       </c>
       <c r="I101">
-        <v>0.3102820671910864</v>
+        <v>0.06283644080375486</v>
       </c>
       <c r="J101">
         <v>0.3102820671910864</v>
       </c>
-    </row>
-    <row r="102" spans="1:10">
+      <c r="K101">
+        <v>0.3102820671910864</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="2">
         <v>38169</v>
       </c>
@@ -3581,7 +3881,7 @@
         <v>14.13000011444092</v>
       </c>
       <c r="F102">
-        <v>8.217293739318848</v>
+        <v>8.217291831970215</v>
       </c>
       <c r="G102">
         <v>12600</v>
@@ -3590,13 +3890,16 @@
         <v>-0.01874996605846524</v>
       </c>
       <c r="I102">
-        <v>0.2548845317247461</v>
+        <v>0.06255223100293437</v>
       </c>
       <c r="J102">
         <v>0.2548845317247461</v>
       </c>
-    </row>
-    <row r="103" spans="1:10">
+      <c r="K102">
+        <v>0.2548845317247461</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="2">
         <v>38200</v>
       </c>
@@ -3613,7 +3916,7 @@
         <v>14.90999984741211</v>
       </c>
       <c r="F103">
-        <v>8.670901298522949</v>
+        <v>8.670902252197266</v>
       </c>
       <c r="G103">
         <v>17200</v>
@@ -3622,13 +3925,16 @@
         <v>0.05520167916870911</v>
       </c>
       <c r="I103">
-        <v>0.3408273382066205</v>
+        <v>0.06246636742739169</v>
       </c>
       <c r="J103">
         <v>0.3408273382066205</v>
       </c>
-    </row>
-    <row r="104" spans="1:10">
+      <c r="K103">
+        <v>0.3408273382066205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="2">
         <v>38231</v>
       </c>
@@ -3654,13 +3960,16 @@
         <v>0.0757881341166724</v>
       </c>
       <c r="I104">
-        <v>0.3697695015606135</v>
+        <v>0.06258219383727746</v>
       </c>
       <c r="J104">
         <v>0.3697695015606135</v>
       </c>
-    </row>
-    <row r="105" spans="1:10">
+      <c r="K104">
+        <v>0.3697695015606135</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="2">
         <v>38261</v>
       </c>
@@ -3677,7 +3986,7 @@
         <v>17.13999938964844</v>
       </c>
       <c r="F105">
-        <v>9.967756271362305</v>
+        <v>9.967753410339355</v>
       </c>
       <c r="G105">
         <v>50300</v>
@@ -3686,13 +3995,16 @@
         <v>0.06857845457204759</v>
       </c>
       <c r="I105">
-        <v>0.3722978145510394</v>
+        <v>0.06260998894691298</v>
       </c>
       <c r="J105">
         <v>0.3722978145510394</v>
       </c>
-    </row>
-    <row r="106" spans="1:10">
+      <c r="K105">
+        <v>0.3722978145510394</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="2">
         <v>38292</v>
       </c>
@@ -3709,7 +4021,7 @@
         <v>17.94000053405762</v>
       </c>
       <c r="F106">
-        <v>10.43299674987793</v>
+        <v>10.43299579620361</v>
       </c>
       <c r="G106">
         <v>152100</v>
@@ -3718,13 +4030,16 @@
         <v>0.04667451417135604</v>
       </c>
       <c r="I106">
-        <v>0.393939447830717</v>
+        <v>0.06244871947445965</v>
       </c>
       <c r="J106">
         <v>0.393939447830717</v>
       </c>
-    </row>
-    <row r="107" spans="1:10">
+      <c r="K106">
+        <v>0.393939447830717</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="2">
         <v>38322</v>
       </c>
@@ -3741,7 +4056,7 @@
         <v>18.55999946594238</v>
       </c>
       <c r="F107">
-        <v>10.96087455749512</v>
+        <v>10.96087646484375</v>
       </c>
       <c r="G107">
         <v>43200</v>
@@ -3750,13 +4065,16 @@
         <v>0.03455958268829185</v>
       </c>
       <c r="I107">
-        <v>0.4332046130737042</v>
+        <v>0.06221948707970389</v>
       </c>
       <c r="J107">
         <v>0.4332046130737042</v>
       </c>
-    </row>
-    <row r="108" spans="1:10">
+      <c r="K107">
+        <v>0.4332046130737042</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="2">
         <v>38353</v>
       </c>
@@ -3773,7 +4091,7 @@
         <v>18.13999938964844</v>
       </c>
       <c r="F108">
-        <v>10.71283912658691</v>
+        <v>10.71283721923828</v>
       </c>
       <c r="G108">
         <v>35300</v>
@@ -3782,13 +4100,16 @@
         <v>-0.02262931510664346</v>
       </c>
       <c r="I108">
-        <v>0.3031608685506575</v>
+        <v>0.06197749202680913</v>
       </c>
       <c r="J108">
         <v>0.3031608685506575</v>
       </c>
-    </row>
-    <row r="109" spans="1:10">
+      <c r="K108">
+        <v>0.3031608685506575</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="2">
         <v>38384</v>
       </c>
@@ -3805,7 +4126,7 @@
         <v>19.03000068664551</v>
       </c>
       <c r="F109">
-        <v>11.23843955993652</v>
+        <v>11.23844146728516</v>
       </c>
       <c r="G109">
         <v>40400</v>
@@ -3814,13 +4135,16 @@
         <v>0.04906291769254123</v>
       </c>
       <c r="I109">
-        <v>0.3401409114265563</v>
+        <v>0.06183814354475561</v>
       </c>
       <c r="J109">
         <v>0.3401409114265563</v>
       </c>
-    </row>
-    <row r="110" spans="1:10">
+      <c r="K109">
+        <v>0.3401409114265563</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="2">
         <v>38412</v>
       </c>
@@ -3837,7 +4161,7 @@
         <v>18.79999923706055</v>
       </c>
       <c r="F110">
-        <v>11.10260963439941</v>
+        <v>11.10261154174805</v>
       </c>
       <c r="G110">
         <v>54400</v>
@@ -3846,13 +4170,16 @@
         <v>-0.01208625545380915</v>
       </c>
       <c r="I110">
-        <v>0.3946587444721554</v>
+        <v>0.06156897749443346</v>
       </c>
       <c r="J110">
         <v>0.3946587444721554</v>
       </c>
-    </row>
-    <row r="111" spans="1:10">
+      <c r="K110">
+        <v>0.3946587444721554</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="2">
         <v>38443</v>
       </c>
@@ -3869,7 +4196,7 @@
         <v>18.20999908447266</v>
       </c>
       <c r="F111">
-        <v>10.75417804718018</v>
+        <v>10.75417518615723</v>
       </c>
       <c r="G111">
         <v>39800</v>
@@ -3878,13 +4205,16 @@
         <v>-0.03138298811336226</v>
       </c>
       <c r="I111">
-        <v>0.3569298793552251</v>
+        <v>0.06137829893145396</v>
       </c>
       <c r="J111">
         <v>0.3569298793552251</v>
       </c>
-    </row>
-    <row r="112" spans="1:10">
+      <c r="K111">
+        <v>0.3569298793552251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="2">
         <v>38473</v>
       </c>
@@ -3901,7 +4231,7 @@
         <v>17.92000007629395</v>
       </c>
       <c r="F112">
-        <v>10.58291244506836</v>
+        <v>10.58291435241699</v>
       </c>
       <c r="G112">
         <v>34500</v>
@@ -3910,13 +4240,16 @@
         <v>-0.01592526209548184</v>
       </c>
       <c r="I112">
-        <v>0.2976103933233132</v>
+        <v>0.06112543384249956</v>
       </c>
       <c r="J112">
         <v>0.2976103933233132</v>
       </c>
-    </row>
-    <row r="113" spans="1:10">
+      <c r="K112">
+        <v>0.2976103933233132</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="2">
         <v>38504</v>
       </c>
@@ -3942,13 +4275,16 @@
         <v>0.001116096968667435</v>
       </c>
       <c r="I113">
-        <v>0.2458334034239822</v>
+        <v>0.06084747160727091</v>
       </c>
       <c r="J113">
         <v>0.2458334034239822</v>
       </c>
-    </row>
-    <row r="114" spans="1:10">
+      <c r="K113">
+        <v>0.2458334034239822</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="2">
         <v>38534</v>
       </c>
@@ -3965,7 +4301,7 @@
         <v>18.75</v>
       </c>
       <c r="F114">
-        <v>11.07308387756348</v>
+        <v>11.07308483123779</v>
       </c>
       <c r="G114">
         <v>10900</v>
@@ -3974,13 +4310,16 @@
         <v>0.04515047055905397</v>
       </c>
       <c r="I114">
-        <v>0.3269638958344681</v>
+        <v>0.06069907875913298</v>
       </c>
       <c r="J114">
         <v>0.3269638958344681</v>
       </c>
-    </row>
-    <row r="115" spans="1:10">
+      <c r="K114">
+        <v>0.3269638958344681</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="2">
         <v>38565</v>
       </c>
@@ -3997,7 +4336,7 @@
         <v>19.04000091552734</v>
       </c>
       <c r="F115">
-        <v>11.24434566497803</v>
+        <v>11.24434661865234</v>
       </c>
       <c r="G115">
         <v>9200</v>
@@ -4006,13 +4345,16 @@
         <v>0.01546671549479162</v>
       </c>
       <c r="I115">
-        <v>0.2769953796365778</v>
+        <v>0.06043695370029976</v>
       </c>
       <c r="J115">
         <v>0.2769953796365778</v>
       </c>
-    </row>
-    <row r="116" spans="1:10">
+      <c r="K115">
+        <v>0.2769953796365778</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="2">
         <v>38596</v>
       </c>
@@ -4029,7 +4371,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="F116">
-        <v>11.29159355163574</v>
+        <v>11.29159259796143</v>
       </c>
       <c r="G116">
         <v>13200</v>
@@ -4038,13 +4380,16 @@
         <v>0.004201676463198689</v>
       </c>
       <c r="I116">
-        <v>0.1920199344081392</v>
+        <v>0.06016893928139129</v>
       </c>
       <c r="J116">
         <v>0.1920199344081392</v>
       </c>
-    </row>
-    <row r="117" spans="1:10">
+      <c r="K116">
+        <v>0.1920199344081392</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="2">
         <v>38626</v>
       </c>
@@ -4061,7 +4406,7 @@
         <v>18.75</v>
       </c>
       <c r="F117">
-        <v>11.07308387756348</v>
+        <v>11.07308483123779</v>
       </c>
       <c r="G117">
         <v>11900</v>
@@ -4070,13 +4415,16 @@
         <v>-0.01935150747871162</v>
       </c>
       <c r="I117">
-        <v>0.093932361008362</v>
+        <v>0.05994470448960616</v>
       </c>
       <c r="J117">
         <v>0.093932361008362</v>
       </c>
-    </row>
-    <row r="118" spans="1:10">
+      <c r="K117">
+        <v>0.093932361008362</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="2">
         <v>38657</v>
       </c>
@@ -4093,7 +4441,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="F118">
-        <v>11.29159355163574</v>
+        <v>11.29159259796143</v>
       </c>
       <c r="G118">
         <v>12300</v>
@@ -4102,13 +4450,16 @@
         <v>0.01973337809244802</v>
       </c>
       <c r="I118">
-        <v>0.06577481995809564</v>
+        <v>0.05970139111089143</v>
       </c>
       <c r="J118">
         <v>0.06577481995809564</v>
       </c>
-    </row>
-    <row r="119" spans="1:10">
+      <c r="K118">
+        <v>0.06577481995809564</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="2">
         <v>38687</v>
       </c>
@@ -4125,7 +4476,7 @@
         <v>19.20999908447266</v>
       </c>
       <c r="F119">
-        <v>11.82619857788086</v>
+        <v>11.82619667053223</v>
       </c>
       <c r="G119">
         <v>11500</v>
@@ -4134,13 +4485,16 @@
         <v>0.004707020987916755</v>
       </c>
       <c r="I119">
-        <v>0.03502153217854476</v>
+        <v>0.05944352436623267</v>
       </c>
       <c r="J119">
         <v>0.03502153217854476</v>
       </c>
-    </row>
-    <row r="120" spans="1:10">
+      <c r="K119">
+        <v>0.03502153217854476</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="2">
         <v>38718</v>
       </c>
@@ -4157,7 +4511,7 @@
         <v>20.5</v>
       </c>
       <c r="F120">
-        <v>12.62035751342773</v>
+        <v>12.62035942077637</v>
       </c>
       <c r="G120">
         <v>29500</v>
@@ -4166,13 +4520,16 @@
         <v>0.06715257558601584</v>
       </c>
       <c r="I120">
-        <v>0.1300992662490548</v>
+        <v>0.05947255375162835</v>
       </c>
       <c r="J120">
         <v>0.1300992662490548</v>
       </c>
-    </row>
-    <row r="121" spans="1:10">
+      <c r="K120">
+        <v>0.1300992662490548</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="2">
         <v>38749</v>
       </c>
@@ -4189,7 +4546,7 @@
         <v>20.6200008392334</v>
       </c>
       <c r="F121">
-        <v>12.69423675537109</v>
+        <v>12.69423294067383</v>
       </c>
       <c r="G121">
         <v>70300</v>
@@ -4198,13 +4555,16 @@
         <v>0.005853699474799967</v>
       </c>
       <c r="I121">
-        <v>0.0835522908679498</v>
+        <v>0.05922011461693204</v>
       </c>
       <c r="J121">
         <v>0.0835522908679498</v>
       </c>
-    </row>
-    <row r="122" spans="1:10">
+      <c r="K121">
+        <v>0.0835522908679498</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="2">
         <v>38777</v>
       </c>
@@ -4221,7 +4581,7 @@
         <v>21.17000007629395</v>
       </c>
       <c r="F122">
-        <v>13.03282928466797</v>
+        <v>13.03282833099365</v>
       </c>
       <c r="G122">
         <v>16100</v>
@@ -4230,13 +4590,16 @@
         <v>0.0266730947951308</v>
       </c>
       <c r="I122">
-        <v>0.1260638795432183</v>
+        <v>0.05900493178876503</v>
       </c>
       <c r="J122">
         <v>0.1260638795432183</v>
       </c>
-    </row>
-    <row r="123" spans="1:10">
+      <c r="K122">
+        <v>0.1260638795432183</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="2">
         <v>38808</v>
       </c>
@@ -4253,7 +4616,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="F123">
-        <v>13.77158069610596</v>
+        <v>13.77158451080322</v>
       </c>
       <c r="G123">
         <v>29100</v>
@@ -4262,13 +4625,16 @@
         <v>0.05668402260816285</v>
       </c>
       <c r="I123">
-        <v>0.2284460166891442</v>
+        <v>0.05917597988932546</v>
       </c>
       <c r="J123">
         <v>0.2284460166891442</v>
       </c>
-    </row>
-    <row r="124" spans="1:10">
+      <c r="K123">
+        <v>0.2284460166891442</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="2">
         <v>38838</v>
       </c>
@@ -4285,7 +4651,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="F124">
-        <v>13.30986022949219</v>
+        <v>13.30986213684082</v>
       </c>
       <c r="G124">
         <v>40100</v>
@@ -4294,13 +4660,16 @@
         <v>-0.03352704389195282</v>
       </c>
       <c r="I124">
-        <v>0.206473255981406</v>
+        <v>0.05927126961138621</v>
       </c>
       <c r="J124">
         <v>0.206473255981406</v>
       </c>
-    </row>
-    <row r="125" spans="1:10">
+      <c r="K124">
+        <v>0.206473255981406</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="2">
         <v>38869</v>
       </c>
@@ -4317,7 +4686,7 @@
         <v>21.53000068664551</v>
       </c>
       <c r="F125">
-        <v>13.25445175170898</v>
+        <v>13.25445556640625</v>
       </c>
       <c r="G125">
         <v>27500</v>
@@ -4326,13 +4695,16 @@
         <v>-0.004162819107045079</v>
       </c>
       <c r="I125">
-        <v>0.2001114852684964</v>
+        <v>0.05926701198343202</v>
       </c>
       <c r="J125">
         <v>0.2001114852684964</v>
       </c>
-    </row>
-    <row r="126" spans="1:10">
+      <c r="K125">
+        <v>0.2001114852684964</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="2">
         <v>38899</v>
       </c>
@@ -4349,7 +4721,7 @@
         <v>22</v>
       </c>
       <c r="F126">
-        <v>13.54379844665527</v>
+        <v>13.54379749298096</v>
       </c>
       <c r="G126">
         <v>25400</v>
@@ -4358,13 +4730,16 @@
         <v>0.02182997205597026</v>
       </c>
       <c r="I126">
-        <v>0.1733333333333333</v>
+        <v>0.05928249283261924</v>
       </c>
       <c r="J126">
         <v>0.1733333333333333</v>
       </c>
-    </row>
-    <row r="127" spans="1:10">
+      <c r="K126">
+        <v>0.1733333333333333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="2">
         <v>38930</v>
       </c>
@@ -4381,7 +4756,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F127">
-        <v>14.10401916503906</v>
+        <v>14.10402297973633</v>
       </c>
       <c r="G127">
         <v>48500</v>
@@ -4390,13 +4765,16 @@
         <v>0.04136362942782323</v>
       </c>
       <c r="I127">
-        <v>0.2032562366490611</v>
+        <v>0.05931485407823955</v>
       </c>
       <c r="J127">
         <v>0.2032562366490611</v>
       </c>
-    </row>
-    <row r="128" spans="1:10">
+      <c r="K127">
+        <v>0.2032562366490611</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="2">
         <v>38961</v>
       </c>
@@ -4413,7 +4791,7 @@
         <v>23.75</v>
       </c>
       <c r="F128">
-        <v>14.62114810943604</v>
+        <v>14.62114524841309</v>
       </c>
       <c r="G128">
         <v>57600</v>
@@ -4422,13 +4800,16 @@
         <v>0.03666521860246874</v>
       </c>
       <c r="I128">
-        <v>0.242154757193632</v>
+        <v>0.0593836390009919</v>
       </c>
       <c r="J128">
         <v>0.242154757193632</v>
       </c>
-    </row>
-    <row r="129" spans="1:10">
+      <c r="K128">
+        <v>0.242154757193632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="2">
         <v>38991</v>
       </c>
@@ -4445,7 +4826,7 @@
         <v>24.15999984741211</v>
       </c>
       <c r="F129">
-        <v>14.87355518341064</v>
+        <v>14.87355709075928</v>
       </c>
       <c r="G129">
         <v>92800</v>
@@ -4454,13 +4835,16 @@
         <v>0.01726315146998347</v>
       </c>
       <c r="I129">
-        <v>0.2885333251953126</v>
+        <v>0.05939270985731342</v>
       </c>
       <c r="J129">
         <v>0.2885333251953126</v>
       </c>
-    </row>
-    <row r="130" spans="1:10">
+      <c r="K129">
+        <v>0.2885333251953126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="2">
         <v>39022</v>
       </c>
@@ -4477,7 +4861,7 @@
         <v>24.94000053405762</v>
       </c>
       <c r="F130">
-        <v>15.35374069213867</v>
+        <v>15.35374355316162</v>
       </c>
       <c r="G130">
         <v>51400</v>
@@ -4486,13 +4870,16 @@
         <v>0.03228479683658025</v>
       </c>
       <c r="I130">
-        <v>0.3043932761175321</v>
+        <v>0.05937387819101495</v>
       </c>
       <c r="J130">
         <v>0.3043932761175321</v>
       </c>
-    </row>
-    <row r="131" spans="1:10">
+      <c r="K130">
+        <v>0.3043932761175321</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="2">
         <v>39052</v>
       </c>
@@ -4509,7 +4896,7 @@
         <v>25.61000061035156</v>
       </c>
       <c r="F131">
-        <v>16.03697395324707</v>
+        <v>16.03697967529297</v>
       </c>
       <c r="G131">
         <v>55700</v>
@@ -4518,13 +4905,16 @@
         <v>0.02686447722320628</v>
       </c>
       <c r="I131">
-        <v>0.333159907907127</v>
+        <v>0.05938321040610264</v>
       </c>
       <c r="J131">
         <v>0.333159907907127</v>
       </c>
-    </row>
-    <row r="132" spans="1:10">
+      <c r="K131">
+        <v>0.333159907907127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="2">
         <v>39083</v>
       </c>
@@ -4541,7 +4931,7 @@
         <v>26.05999946594238</v>
       </c>
       <c r="F132">
-        <v>16.31876373291016</v>
+        <v>16.31876564025879</v>
       </c>
       <c r="G132">
         <v>61300</v>
@@ -4550,13 +4940,16 @@
         <v>0.01757121612128865</v>
       </c>
       <c r="I132">
-        <v>0.2712194861435309</v>
+        <v>0.05937879922723711</v>
       </c>
       <c r="J132">
         <v>0.2712194861435309</v>
       </c>
-    </row>
-    <row r="133" spans="1:10">
+      <c r="K132">
+        <v>0.2712194861435309</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="2">
         <v>39114</v>
       </c>
@@ -4573,7 +4966,7 @@
         <v>25.47999954223633</v>
       </c>
       <c r="F133">
-        <v>15.95557308197021</v>
+        <v>15.95556926727295</v>
       </c>
       <c r="G133">
         <v>176600</v>
@@ -4582,13 +4975,16 @@
         <v>-0.02225632907107511</v>
       </c>
       <c r="I133">
-        <v>0.2356934289622277</v>
+        <v>0.0594279601629752</v>
       </c>
       <c r="J133">
         <v>0.2356934289622277</v>
       </c>
-    </row>
-    <row r="134" spans="1:10">
+      <c r="K133">
+        <v>0.2356934289622277</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="2">
         <v>39142</v>
       </c>
@@ -4605,7 +5001,7 @@
         <v>26.6299991607666</v>
       </c>
       <c r="F134">
-        <v>16.67569923400879</v>
+        <v>16.67569541931152</v>
       </c>
       <c r="G134">
         <v>44200</v>
@@ -4614,13 +5010,16 @@
         <v>0.04513342383009089</v>
       </c>
       <c r="I134">
-        <v>0.2579120956445691</v>
+        <v>0.05952979846224837</v>
       </c>
       <c r="J134">
         <v>0.2579120956445691</v>
       </c>
-    </row>
-    <row r="135" spans="1:10">
+      <c r="K134">
+        <v>0.2579120956445691</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="2">
         <v>39173</v>
       </c>
@@ -4637,7 +5036,7 @@
         <v>27.80999946594238</v>
       </c>
       <c r="F135">
-        <v>17.41461753845215</v>
+        <v>17.41461563110352</v>
       </c>
       <c r="G135">
         <v>117700</v>
@@ -4646,13 +5045,16 @@
         <v>0.0443109403816373</v>
       </c>
       <c r="I135">
-        <v>0.2431827636397803</v>
+        <v>0.05963183290306097</v>
       </c>
       <c r="J135">
         <v>0.2431827636397803</v>
       </c>
-    </row>
-    <row r="136" spans="1:10">
+      <c r="K135">
+        <v>0.2431827636397803</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="2">
         <v>39203</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>28.06999969482422</v>
       </c>
       <c r="F136">
-        <v>17.57743072509766</v>
+        <v>17.57742881774902</v>
       </c>
       <c r="G136">
         <v>70800</v>
@@ -4678,13 +5080,16 @@
         <v>0.00934916338996139</v>
       </c>
       <c r="I136">
-        <v>0.2983348106021408</v>
+        <v>0.05953991604850727</v>
       </c>
       <c r="J136">
         <v>0.2983348106021408</v>
       </c>
-    </row>
-    <row r="137" spans="1:10">
+      <c r="K136">
+        <v>0.2983348106021408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="2">
         <v>39234</v>
       </c>
@@ -4701,7 +5106,7 @@
         <v>27.71999931335449</v>
       </c>
       <c r="F137">
-        <v>17.3582592010498</v>
+        <v>17.35825729370117</v>
       </c>
       <c r="G137">
         <v>47900</v>
@@ -4710,13 +5115,16 @@
         <v>-0.01246884165567919</v>
       </c>
       <c r="I137">
-        <v>0.2875057328980244</v>
+        <v>0.05949521068168282</v>
       </c>
       <c r="J137">
         <v>0.2875057328980244</v>
       </c>
-    </row>
-    <row r="138" spans="1:10">
+      <c r="K137">
+        <v>0.2875057328980244</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="2">
         <v>39264</v>
       </c>
@@ -4733,7 +5141,7 @@
         <v>26.40999984741211</v>
       </c>
       <c r="F138">
-        <v>16.53794097900391</v>
+        <v>16.53793716430664</v>
       </c>
       <c r="G138">
         <v>199000</v>
@@ -4742,13 +5150,16 @@
         <v>-0.04725827916277303</v>
       </c>
       <c r="I138">
-        <v>0.2004545385187322</v>
+        <v>0.05966347585876735</v>
       </c>
       <c r="J138">
         <v>0.2004545385187322</v>
       </c>
-    </row>
-    <row r="139" spans="1:10">
+      <c r="K138">
+        <v>0.2004545385187322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="2">
         <v>39295</v>
       </c>
@@ -4765,7 +5176,7 @@
         <v>25.89999961853027</v>
       </c>
       <c r="F139">
-        <v>16.21857261657715</v>
+        <v>16.21857070922852</v>
       </c>
       <c r="G139">
         <v>94300</v>
@@ -4774,13 +5185,16 @@
         <v>-0.01931087587385238</v>
       </c>
       <c r="I139">
-        <v>0.130510684898844</v>
+        <v>0.05813561828053077</v>
       </c>
       <c r="J139">
         <v>0.130510684898844</v>
       </c>
-    </row>
-    <row r="140" spans="1:10">
+      <c r="K139">
+        <v>0.130510684898844</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="2">
         <v>39326</v>
       </c>
@@ -4806,13 +5220,16 @@
         <v>0.0270270568822184</v>
       </c>
       <c r="I140">
-        <v>0.1200000160618833</v>
+        <v>0.05766120195220341</v>
       </c>
       <c r="J140">
         <v>0.1200000160618833</v>
       </c>
-    </row>
-    <row r="141" spans="1:10">
+      <c r="K140">
+        <v>0.1200000160618833</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="2">
         <v>39356</v>
       </c>
@@ -4829,7 +5246,7 @@
         <v>27.51000022888184</v>
       </c>
       <c r="F141">
-        <v>17.22675323486328</v>
+        <v>17.22675704956055</v>
       </c>
       <c r="G141">
         <v>56300</v>
@@ -4838,13 +5255,16 @@
         <v>0.03421052008879055</v>
       </c>
       <c r="I141">
-        <v>0.1386589570623926</v>
+        <v>0.05764541581984458</v>
       </c>
       <c r="J141">
         <v>0.1386589570623926</v>
       </c>
-    </row>
-    <row r="142" spans="1:10">
+      <c r="K141">
+        <v>0.1386589570623926</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="2">
         <v>39387</v>
       </c>
@@ -4861,7 +5281,7 @@
         <v>25.68000030517578</v>
       </c>
       <c r="F142">
-        <v>16.080810546875</v>
+        <v>16.08080863952637</v>
       </c>
       <c r="G142">
         <v>82900</v>
@@ -4870,13 +5290,16 @@
         <v>-0.06652126166777705</v>
       </c>
       <c r="I142">
-        <v>0.02967120109350563</v>
+        <v>0.05802510548124692</v>
       </c>
       <c r="J142">
         <v>0.02967120109350563</v>
       </c>
-    </row>
-    <row r="143" spans="1:10">
+      <c r="K142">
+        <v>0.02967120109350563</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="2">
         <v>39417</v>
       </c>
@@ -4893,7 +5316,7 @@
         <v>24.39999961853027</v>
       </c>
       <c r="F143">
-        <v>15.74514865875244</v>
+        <v>15.74515247344971</v>
       </c>
       <c r="G143">
         <v>174200</v>
@@ -4902,13 +5325,16 @@
         <v>-0.04984426290631794</v>
       </c>
       <c r="I143">
-        <v>-0.04724720667644988</v>
+        <v>0.05824171755639568</v>
       </c>
       <c r="J143">
         <v>-0.04724720667644988</v>
       </c>
-    </row>
-    <row r="144" spans="1:10">
+      <c r="K143">
+        <v>-0.04724720667644988</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="2">
         <v>39448</v>
       </c>
@@ -4925,7 +5351,7 @@
         <v>22.53000068664551</v>
       </c>
       <c r="F144">
-        <v>14.53845024108887</v>
+        <v>14.53845405578613</v>
       </c>
       <c r="G144">
         <v>72000</v>
@@ -4934,13 +5360,16 @@
         <v>-0.07663930168525979</v>
       </c>
       <c r="I144">
-        <v>-0.1354565944604184</v>
+        <v>0.05866827228170735</v>
       </c>
       <c r="J144">
         <v>-0.1354565944604184</v>
       </c>
-    </row>
-    <row r="145" spans="1:10">
+      <c r="K144">
+        <v>-0.1354565944604184</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="2">
         <v>39479</v>
       </c>
@@ -4957,7 +5386,7 @@
         <v>22.60000038146973</v>
       </c>
       <c r="F145">
-        <v>14.58361911773682</v>
+        <v>14.58362197875977</v>
       </c>
       <c r="G145">
         <v>29500</v>
@@ -4966,13 +5395,16 @@
         <v>0.003106954846464394</v>
       </c>
       <c r="I145">
-        <v>-0.1130297964092439</v>
+        <v>0.05850733927549102</v>
       </c>
       <c r="J145">
         <v>-0.1130297964092439</v>
       </c>
-    </row>
-    <row r="146" spans="1:10">
+      <c r="K145">
+        <v>-0.1130297964092439</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="2">
         <v>39508</v>
       </c>
@@ -4989,7 +5421,7 @@
         <v>23.70000076293945</v>
       </c>
       <c r="F146">
-        <v>15.29344272613525</v>
+        <v>15.29344940185547</v>
       </c>
       <c r="G146">
         <v>70400</v>
@@ -4998,13 +5430,16 @@
         <v>0.04867258242931904</v>
       </c>
       <c r="I146">
-        <v>-0.1100262294466705</v>
+        <v>0.05823174928320009</v>
       </c>
       <c r="J146">
         <v>-0.1100262294466705</v>
       </c>
-    </row>
-    <row r="147" spans="1:10">
+      <c r="K146">
+        <v>-0.1100262294466705</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="2">
         <v>39539</v>
       </c>
@@ -5030,13 +5465,16 @@
         <v>0.04345986270631363</v>
       </c>
       <c r="I147">
-        <v>-0.1107515276107066</v>
+        <v>0.05813180231835521</v>
       </c>
       <c r="J147">
         <v>-0.1107515276107066</v>
       </c>
-    </row>
-    <row r="148" spans="1:10">
+      <c r="K147">
+        <v>-0.1107515276107066</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="2">
         <v>39569</v>
       </c>
@@ -5053,7 +5491,7 @@
         <v>23.8700008392334</v>
       </c>
       <c r="F148">
-        <v>15.40314197540283</v>
+        <v>15.40314769744873</v>
       </c>
       <c r="G148">
         <v>32600</v>
@@ -5062,13 +5500,16 @@
         <v>-0.03477552442061871</v>
       </c>
       <c r="I148">
-        <v>-0.1496258960189889</v>
+        <v>0.05803964338149265</v>
       </c>
       <c r="J148">
         <v>-0.1496258960189889</v>
       </c>
-    </row>
-    <row r="149" spans="1:10">
+      <c r="K148">
+        <v>-0.1496258960189889</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
       <c r="A149" s="2">
         <v>39600</v>
       </c>
@@ -5085,7 +5526,7 @@
         <v>18.95999908447266</v>
       </c>
       <c r="F149">
-        <v>12.87097835540771</v>
+        <v>12.87097930908203</v>
       </c>
       <c r="G149">
         <v>66800</v>
@@ -5094,13 +5535,16 @@
         <v>-0.2056975945593821</v>
       </c>
       <c r="I149">
-        <v>-0.3160173321022265</v>
+        <v>0.06100805828703687</v>
       </c>
       <c r="J149">
         <v>-0.3160173321022265</v>
       </c>
-    </row>
-    <row r="150" spans="1:10">
+      <c r="K149">
+        <v>-0.3160173321022265</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
       <c r="A150" s="2">
         <v>39630</v>
       </c>
@@ -5126,13 +5570,16 @@
         <v>-0.07489442180976813</v>
       </c>
       <c r="I150">
-        <v>-0.3358575911826038</v>
+        <v>0.06115654392058346</v>
       </c>
       <c r="J150">
         <v>-0.3358575911826038</v>
       </c>
-    </row>
-    <row r="151" spans="1:10">
+      <c r="K150">
+        <v>-0.3358575911826038</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
       <c r="A151" s="2">
         <v>39661</v>
       </c>
@@ -5149,7 +5596,7 @@
         <v>17.51000022888184</v>
       </c>
       <c r="F151">
-        <v>11.88664436340332</v>
+        <v>11.88664817810059</v>
       </c>
       <c r="G151">
         <v>43700</v>
@@ -5158,13 +5605,16 @@
         <v>-0.001710415340910876</v>
       </c>
       <c r="I151">
-        <v>-0.3239382051436701</v>
+        <v>0.05692437910746555</v>
       </c>
       <c r="J151">
         <v>-0.3239382051436701</v>
       </c>
-    </row>
-    <row r="152" spans="1:10">
+      <c r="K151">
+        <v>-0.3239382051436701</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
       <c r="A152" s="2">
         <v>39692</v>
       </c>
@@ -5181,7 +5631,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="F152">
-        <v>9.374903678894043</v>
+        <v>9.374904632568359</v>
       </c>
       <c r="G152">
         <v>154800</v>
@@ -5190,13 +5640,16 @@
         <v>-0.211307810445495</v>
       </c>
       <c r="I152">
-        <v>-0.4808270593395512</v>
+        <v>0.06013982770827908</v>
       </c>
       <c r="J152">
         <v>-0.4808270593395512</v>
       </c>
-    </row>
-    <row r="153" spans="1:10">
+      <c r="K152">
+        <v>-0.4808270593395512</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
       <c r="A153" s="2">
         <v>39722</v>
       </c>
@@ -5213,7 +5666,7 @@
         <v>9.149999618530273</v>
       </c>
       <c r="F153">
-        <v>6.21146821975708</v>
+        <v>6.211466789245605</v>
       </c>
       <c r="G153">
         <v>56700</v>
@@ -5222,13 +5675,16 @@
         <v>-0.3374366878705545</v>
       </c>
       <c r="I153">
-        <v>-0.6673936916611148</v>
+        <v>0.06728640223800908</v>
       </c>
       <c r="J153">
         <v>-0.6673936916611148</v>
       </c>
-    </row>
-    <row r="154" spans="1:10">
+      <c r="K153">
+        <v>-0.6673936916611148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
       <c r="A154" s="2">
         <v>39753</v>
       </c>
@@ -5245,7 +5701,7 @@
         <v>7.940000057220459</v>
       </c>
       <c r="F154">
-        <v>5.390061378479004</v>
+        <v>5.390060901641846</v>
       </c>
       <c r="G154">
         <v>110200</v>
@@ -5254,13 +5710,16 @@
         <v>-0.1322403947273794</v>
       </c>
       <c r="I154">
-        <v>-0.6908099702934911</v>
+        <v>0.06829430611525139</v>
       </c>
       <c r="J154">
         <v>-0.6908099702934911</v>
       </c>
-    </row>
-    <row r="155" spans="1:10">
+      <c r="K154">
+        <v>-0.6908099702934911</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
       <c r="A155" s="2">
         <v>39783</v>
       </c>
@@ -5286,13 +5745,16 @@
         <v>0.09949615608597639</v>
       </c>
       <c r="I155">
-        <v>-0.6422131279212628</v>
+        <v>0.06828363934425828</v>
       </c>
       <c r="J155">
         <v>-0.6422131279212628</v>
       </c>
-    </row>
-    <row r="156" spans="1:10">
+      <c r="K155">
+        <v>-0.6422131279212628</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
       <c r="A156" s="2">
         <v>39814</v>
       </c>
@@ -5309,7 +5771,7 @@
         <v>8.170000076293945</v>
       </c>
       <c r="F156">
-        <v>5.645709037780762</v>
+        <v>5.64570951461792</v>
       </c>
       <c r="G156">
         <v>49600</v>
@@ -5318,13 +5780,16 @@
         <v>-0.064146563036237</v>
       </c>
       <c r="I156">
-        <v>-0.637372400031188</v>
+        <v>0.06844235245048029</v>
       </c>
       <c r="J156">
         <v>-0.637372400031188</v>
       </c>
-    </row>
-    <row r="157" spans="1:10">
+      <c r="K156">
+        <v>-0.637372400031188</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
       <c r="A157" s="2">
         <v>39845</v>
       </c>
@@ -5350,13 +5815,16 @@
         <v>-0.07833535624346177</v>
       </c>
       <c r="I157">
-        <v>-0.6668141556323878</v>
+        <v>0.06866938153561537</v>
       </c>
       <c r="J157">
         <v>-0.6668141556323878</v>
       </c>
-    </row>
-    <row r="158" spans="1:10">
+      <c r="K157">
+        <v>-0.6668141556323878</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
       <c r="A158" s="2">
         <v>39873</v>
       </c>
@@ -5382,13 +5850,16 @@
         <v>0.06507307228452164</v>
       </c>
       <c r="I158">
-        <v>-0.6616033671060114</v>
+        <v>0.06873083410735274</v>
       </c>
       <c r="J158">
         <v>-0.6616033671060114</v>
       </c>
-    </row>
-    <row r="159" spans="1:10">
+      <c r="K158">
+        <v>-0.6616033671060114</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
       <c r="A159" s="2">
         <v>39904</v>
       </c>
@@ -5414,13 +5885,16 @@
         <v>0.1346633244466431</v>
       </c>
       <c r="I159">
-        <v>-0.6320258572618309</v>
+        <v>0.06988802230798977</v>
       </c>
       <c r="J159">
         <v>-0.6320258572618309</v>
       </c>
-    </row>
-    <row r="160" spans="1:10">
+      <c r="K159">
+        <v>-0.6320258572618309</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
       <c r="A160" s="2">
         <v>39934</v>
       </c>
@@ -5437,7 +5911,7 @@
         <v>10.47999954223633</v>
       </c>
       <c r="F160">
-        <v>7.241986751556396</v>
+        <v>7.241987705230713</v>
       </c>
       <c r="G160">
         <v>162000</v>
@@ -5446,13 +5920,16 @@
         <v>0.1516482530678445</v>
       </c>
       <c r="I160">
-        <v>-0.5609552084719198</v>
+        <v>0.07115119542504077</v>
       </c>
       <c r="J160">
         <v>-0.5609552084719198</v>
       </c>
-    </row>
-    <row r="161" spans="1:10">
+      <c r="K160">
+        <v>-0.5609552084719198</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11">
       <c r="A161" s="2">
         <v>39965</v>
       </c>
@@ -5469,7 +5946,7 @@
         <v>10.09000015258789</v>
       </c>
       <c r="F161">
-        <v>7.110125541687012</v>
+        <v>7.110124588012695</v>
       </c>
       <c r="G161">
         <v>149100</v>
@@ -5478,13 +5955,16 @@
         <v>-0.03721368384384638</v>
       </c>
       <c r="I161">
-        <v>-0.4678269704743222</v>
+        <v>0.071122457220862</v>
       </c>
       <c r="J161">
         <v>-0.4678269704743222</v>
       </c>
-    </row>
-    <row r="162" spans="1:10">
+      <c r="K161">
+        <v>-0.4678269704743222</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11">
       <c r="A162" s="2">
         <v>39995</v>
       </c>
@@ -5501,7 +5981,7 @@
         <v>10.97000026702881</v>
       </c>
       <c r="F162">
-        <v>7.730234146118164</v>
+        <v>7.730234622955322</v>
       </c>
       <c r="G162">
         <v>27900</v>
@@ -5510,13 +5990,16 @@
         <v>0.08721507444330556</v>
       </c>
       <c r="I162">
-        <v>-0.3745724233504697</v>
+        <v>0.07154473253163947</v>
       </c>
       <c r="J162">
         <v>-0.3745724233504697</v>
       </c>
-    </row>
-    <row r="163" spans="1:10">
+      <c r="K162">
+        <v>-0.3745724233504697</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11">
       <c r="A163" s="2">
         <v>40026</v>
       </c>
@@ -5533,7 +6016,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F163">
-        <v>8.491276741027832</v>
+        <v>8.491275787353516</v>
       </c>
       <c r="G163">
         <v>48200</v>
@@ -5542,13 +6025,16 @@
         <v>0.09845030970072788</v>
       </c>
       <c r="I163">
-        <v>-0.3118218142076884</v>
+        <v>0.07187211092974964</v>
       </c>
       <c r="J163">
         <v>-0.3118218142076884</v>
       </c>
-    </row>
-    <row r="164" spans="1:10">
+      <c r="K163">
+        <v>-0.3118218142076884</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11">
       <c r="A164" s="2">
         <v>40057</v>
       </c>
@@ -5574,13 +6060,16 @@
         <v>0.07800826269746097</v>
       </c>
       <c r="I164">
-        <v>-0.05937730800744567</v>
+        <v>0.07217519238047394</v>
       </c>
       <c r="J164">
         <v>-0.05937730800744567</v>
       </c>
-    </row>
-    <row r="165" spans="1:10">
+      <c r="K164">
+        <v>-0.05937730800744567</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11">
       <c r="A165" s="2">
         <v>40087</v>
       </c>
@@ -5606,13 +6095,16 @@
         <v>-0.03310233711146948</v>
       </c>
       <c r="I165">
-        <v>0.3726776987160312</v>
+        <v>0.07222655384626478</v>
       </c>
       <c r="J165">
         <v>0.3726776987160312</v>
       </c>
-    </row>
-    <row r="166" spans="1:10">
+      <c r="K165">
+        <v>0.3726776987160312</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11">
       <c r="A166" s="2">
         <v>40118</v>
       </c>
@@ -5629,7 +6121,7 @@
         <v>13.1899995803833</v>
       </c>
       <c r="F166">
-        <v>9.294602394104004</v>
+        <v>9.294599533081055</v>
       </c>
       <c r="G166">
         <v>113200</v>
@@ -5638,13 +6130,16 @@
         <v>0.05015916717507785</v>
       </c>
       <c r="I166">
-        <v>0.6612090031899445</v>
+        <v>0.07233816686022385</v>
       </c>
       <c r="J166">
         <v>0.6612090031899445</v>
       </c>
-    </row>
-    <row r="167" spans="1:10">
+      <c r="K166">
+        <v>0.6612090031899445</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11">
       <c r="A167" s="2">
         <v>40148</v>
       </c>
@@ -5670,13 +6165,16 @@
         <v>-0.03260040676126919</v>
       </c>
       <c r="I167">
-        <v>0.4616266778879072</v>
+        <v>0.07219208560092623</v>
       </c>
       <c r="J167">
         <v>0.4616266778879072</v>
       </c>
-    </row>
-    <row r="168" spans="1:10">
+      <c r="K167">
+        <v>0.4616266778879072</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11">
       <c r="A168" s="2">
         <v>40179</v>
       </c>
@@ -5702,13 +6200,16 @@
         <v>-0.01567396596219828</v>
       </c>
       <c r="I168">
-        <v>0.5373317383509908</v>
+        <v>0.07004300478669047</v>
       </c>
       <c r="J168">
         <v>0.5373317383509908</v>
       </c>
-    </row>
-    <row r="169" spans="1:10">
+      <c r="K168">
+        <v>0.5373317383509908</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11">
       <c r="A169" s="2">
         <v>40210</v>
       </c>
@@ -5725,7 +6226,7 @@
         <v>12.55000019073486</v>
       </c>
       <c r="F169">
-        <v>8.87404727935791</v>
+        <v>8.874046325683594</v>
       </c>
       <c r="G169">
         <v>59500</v>
@@ -5734,13 +6235,16 @@
         <v>-0.0007961965404250648</v>
       </c>
       <c r="I169">
-        <v>0.6666666455583379</v>
+        <v>0.07001582312476388</v>
       </c>
       <c r="J169">
         <v>0.6666666455583379</v>
       </c>
-    </row>
-    <row r="170" spans="1:10">
+      <c r="K169">
+        <v>0.6666666455583379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11">
       <c r="A170" s="2">
         <v>40238</v>
       </c>
@@ -5757,7 +6261,7 @@
         <v>13.02000045776367</v>
       </c>
       <c r="F170">
-        <v>9.20638370513916</v>
+        <v>9.206381797790527</v>
       </c>
       <c r="G170">
         <v>176900</v>
@@ -5766,13 +6270,16 @@
         <v>0.03745021991121478</v>
       </c>
       <c r="I170">
-        <v>0.623441360924089</v>
+        <v>0.07008838250529403</v>
       </c>
       <c r="J170">
         <v>0.623441360924089</v>
       </c>
-    </row>
-    <row r="171" spans="1:10">
+      <c r="K170">
+        <v>0.623441360924089</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11">
       <c r="A171" s="2">
         <v>40269</v>
       </c>
@@ -5798,13 +6305,16 @@
         <v>-0.04838710386260059</v>
       </c>
       <c r="I171">
-        <v>0.3615384421908854</v>
+        <v>0.07011583456540031</v>
       </c>
       <c r="J171">
         <v>0.3615384421908854</v>
       </c>
-    </row>
-    <row r="172" spans="1:10">
+      <c r="K171">
+        <v>0.3615384421908854</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11">
       <c r="A172" s="2">
         <v>40299</v>
       </c>
@@ -5821,7 +6331,7 @@
         <v>11.26000022888184</v>
       </c>
       <c r="F172">
-        <v>7.961896419525146</v>
+        <v>7.961893558502197</v>
       </c>
       <c r="G172">
         <v>200000</v>
@@ -5830,13 +6340,16 @@
         <v>-0.09120258943736836</v>
       </c>
       <c r="I172">
-        <v>0.07442754968661602</v>
+        <v>0.07039114103513154</v>
       </c>
       <c r="J172">
         <v>0.07442754968661602</v>
       </c>
-    </row>
-    <row r="173" spans="1:10">
+      <c r="K172">
+        <v>0.07442754968661602</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11">
       <c r="A173" s="2">
         <v>40330</v>
       </c>
@@ -5853,7 +6366,7 @@
         <v>10.84000015258789</v>
       </c>
       <c r="F173">
-        <v>7.766417980194092</v>
+        <v>7.766416549682617</v>
       </c>
       <c r="G173">
         <v>29400</v>
@@ -5862,13 +6375,16 @@
         <v>-0.03730018363735443</v>
       </c>
       <c r="I173">
-        <v>0.07433101968860134</v>
+        <v>0.07043414726937866</v>
       </c>
       <c r="J173">
         <v>0.07433101968860134</v>
       </c>
-    </row>
-    <row r="174" spans="1:10">
+      <c r="K173">
+        <v>0.07433101968860134</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11">
       <c r="A174" s="2">
         <v>40360</v>
       </c>
@@ -5885,7 +6401,7 @@
         <v>12.22000026702881</v>
       </c>
       <c r="F174">
-        <v>8.755132675170898</v>
+        <v>8.755128860473633</v>
       </c>
       <c r="G174">
         <v>45700</v>
@@ -5894,13 +6410,16 @@
         <v>0.1273062818280002</v>
       </c>
       <c r="I174">
-        <v>0.1139471257586906</v>
+        <v>0.071280162705624</v>
       </c>
       <c r="J174">
         <v>0.1139471257586906</v>
       </c>
-    </row>
-    <row r="175" spans="1:10">
+      <c r="K174">
+        <v>0.1139471257586906</v>
+      </c>
+    </row>
+    <row r="175" spans="1:11">
       <c r="A175" s="2">
         <v>40391</v>
       </c>
@@ -5926,13 +6445,16 @@
         <v>-0.04337157733748342</v>
       </c>
       <c r="I175">
-        <v>-0.02987556885089215</v>
+        <v>0.07119148617305182</v>
       </c>
       <c r="J175">
         <v>-0.02987556885089215</v>
       </c>
-    </row>
-    <row r="176" spans="1:10">
+      <c r="K175">
+        <v>-0.02987556885089215</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11">
       <c r="A176" s="2">
         <v>40422</v>
       </c>
@@ -5958,13 +6480,16 @@
         <v>0.1360137048470071</v>
       </c>
       <c r="I176">
-        <v>0.02232486273770462</v>
+        <v>0.07218356166125327</v>
       </c>
       <c r="J176">
         <v>0.02232486273770462</v>
       </c>
-    </row>
-    <row r="177" spans="1:10">
+      <c r="K176">
+        <v>0.02232486273770462</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11">
       <c r="A177" s="2">
         <v>40452</v>
       </c>
@@ -5990,13 +6515,16 @@
         <v>0.05496991796605388</v>
       </c>
       <c r="I177">
-        <v>0.1154458408297878</v>
+        <v>0.0723350470818037</v>
       </c>
       <c r="J177">
         <v>0.1154458408297878</v>
       </c>
-    </row>
-    <row r="178" spans="1:10">
+      <c r="K177">
+        <v>0.1154458408297878</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
       <c r="A178" s="2">
         <v>40483</v>
       </c>
@@ -6013,7 +6541,7 @@
         <v>12.36999988555908</v>
       </c>
       <c r="F178">
-        <v>8.862603187561035</v>
+        <v>8.862602233886719</v>
       </c>
       <c r="G178">
         <v>153700</v>
@@ -6022,13 +6550,16 @@
         <v>-0.1170592659907219</v>
       </c>
       <c r="I178">
-        <v>-0.06216828816611608</v>
+        <v>0.07279099646808082</v>
       </c>
       <c r="J178">
         <v>-0.06216828816611608</v>
       </c>
-    </row>
-    <row r="179" spans="1:10">
+      <c r="K178">
+        <v>-0.06216828816611608</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11">
       <c r="A179" s="2">
         <v>40513</v>
       </c>
@@ -6045,7 +6576,7 @@
         <v>13.13000011444092</v>
       </c>
       <c r="F179">
-        <v>9.474105834960938</v>
+        <v>9.474106788635254</v>
       </c>
       <c r="G179">
         <v>75300</v>
@@ -6054,13 +6585,16 @@
         <v>0.06143898430986017</v>
       </c>
       <c r="I179">
-        <v>0.02899685571490829</v>
+        <v>0.07265165220833715</v>
       </c>
       <c r="J179">
         <v>0.02899685571490829</v>
       </c>
-    </row>
-    <row r="180" spans="1:10">
+      <c r="K179">
+        <v>0.02899685571490829</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11">
       <c r="A180" s="2">
         <v>40544</v>
       </c>
@@ -6086,13 +6620,16 @@
         <v>0.02132518892084678</v>
       </c>
       <c r="I180">
-        <v>0.06767511141702265</v>
+        <v>0.07267075740736054</v>
       </c>
       <c r="J180">
         <v>0.06767511141702265</v>
       </c>
-    </row>
-    <row r="181" spans="1:10">
+      <c r="K180">
+        <v>0.06767511141702265</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11">
       <c r="A181" s="2">
         <v>40575</v>
       </c>
@@ -6118,13 +6655,16 @@
         <v>0.02609995417242827</v>
       </c>
       <c r="I181">
-        <v>0.09641434420377659</v>
+        <v>0.07269770585819221</v>
       </c>
       <c r="J181">
         <v>0.09641434420377659</v>
       </c>
-    </row>
-    <row r="182" spans="1:10">
+      <c r="K181">
+        <v>0.09641434420377659</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11">
       <c r="A182" s="2">
         <v>40603</v>
       </c>
@@ -6141,7 +6681,7 @@
         <v>14.10999965667725</v>
       </c>
       <c r="F182">
-        <v>10.18123626708984</v>
+        <v>10.18123531341553</v>
       </c>
       <c r="G182">
         <v>65900</v>
@@ -6150,13 +6690,16 @@
         <v>0.02543600450389327</v>
       </c>
       <c r="I182">
-        <v>0.08371729344015666</v>
+        <v>0.07197182552042244</v>
       </c>
       <c r="J182">
         <v>0.08371729344015666</v>
       </c>
-    </row>
-    <row r="183" spans="1:10">
+      <c r="K182">
+        <v>0.08371729344015666</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
       <c r="A183" s="2">
         <v>40634</v>
       </c>
@@ -6173,7 +6716,7 @@
         <v>15.60000038146973</v>
       </c>
       <c r="F183">
-        <v>11.25636386871338</v>
+        <v>11.2563648223877</v>
       </c>
       <c r="G183">
         <v>58000</v>
@@ -6182,13 +6725,16 @@
         <v>0.105598919989156</v>
       </c>
       <c r="I183">
-        <v>0.2590798990475343</v>
+        <v>0.07253444612080412</v>
       </c>
       <c r="J183">
         <v>0.2590798990475343</v>
       </c>
-    </row>
-    <row r="184" spans="1:10">
+      <c r="K183">
+        <v>0.2590798990475343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11">
       <c r="A184" s="2">
         <v>40664</v>
       </c>
@@ -6205,7 +6751,7 @@
         <v>14.94999980926514</v>
       </c>
       <c r="F184">
-        <v>10.78734588623047</v>
+        <v>10.78734874725342</v>
       </c>
       <c r="G184">
         <v>44900</v>
@@ -6214,13 +6760,16 @@
         <v>-0.04166670232756442</v>
       </c>
       <c r="I184">
-        <v>0.3277086594473126</v>
+        <v>0.07240121615780334</v>
       </c>
       <c r="J184">
         <v>0.3277086594473126</v>
       </c>
-    </row>
-    <row r="185" spans="1:10">
+      <c r="K184">
+        <v>0.3277086594473126</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
       <c r="A185" s="2">
         <v>40695</v>
       </c>
@@ -6246,13 +6795,16 @@
         <v>-0.05618730189329557</v>
       </c>
       <c r="I185">
-        <v>0.3016604666106661</v>
+        <v>0.07261709174297537</v>
       </c>
       <c r="J185">
         <v>0.3016604666106661</v>
       </c>
-    </row>
-    <row r="186" spans="1:10">
+      <c r="K185">
+        <v>0.3016604666106661</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
       <c r="A186" s="2">
         <v>40725</v>
       </c>
@@ -6278,13 +6830,16 @@
         <v>-0.05527992572289497</v>
       </c>
       <c r="I186">
-        <v>0.09083466713762456</v>
+        <v>0.07262148654552004</v>
       </c>
       <c r="J186">
         <v>0.09083466713762456</v>
       </c>
-    </row>
-    <row r="187" spans="1:10">
+      <c r="K186">
+        <v>0.09083466713762456</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11">
       <c r="A187" s="2">
         <v>40756</v>
       </c>
@@ -6301,7 +6856,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="F187">
-        <v>9.220043182373047</v>
+        <v>9.220040321350098</v>
       </c>
       <c r="G187">
         <v>15600</v>
@@ -6310,13 +6865,16 @@
         <v>-0.05776440423829177</v>
       </c>
       <c r="I187">
-        <v>0.07442265786675684</v>
+        <v>0.07283640815648855</v>
       </c>
       <c r="J187">
         <v>0.07442265786675684</v>
       </c>
-    </row>
-    <row r="188" spans="1:10">
+      <c r="K187">
+        <v>0.07442265786675684</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11">
       <c r="A188" s="2">
         <v>40787</v>
       </c>
@@ -6333,7 +6891,7 @@
         <v>11</v>
       </c>
       <c r="F188">
-        <v>8.07487678527832</v>
+        <v>8.074877738952637</v>
       </c>
       <c r="G188">
         <v>8300</v>
@@ -6342,13 +6900,16 @@
         <v>-0.1242038509155008</v>
       </c>
       <c r="I188">
-        <v>-0.1716867303325673</v>
+        <v>0.07326506270260709</v>
       </c>
       <c r="J188">
         <v>-0.1716867303325673</v>
       </c>
-    </row>
-    <row r="189" spans="1:10">
+      <c r="K188">
+        <v>-0.1716867303325673</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11">
       <c r="A189" s="2">
         <v>40817</v>
       </c>
@@ -6365,7 +6926,7 @@
         <v>11.60999965667725</v>
       </c>
       <c r="F189">
-        <v>8.522665023803711</v>
+        <v>8.522666931152344</v>
       </c>
       <c r="G189">
         <v>5800</v>
@@ -6374,13 +6935,16 @@
         <v>0.05545451424338599</v>
       </c>
       <c r="I189">
-        <v>-0.1713062478940544</v>
+        <v>0.07336591290761663</v>
       </c>
       <c r="J189">
         <v>-0.1713062478940544</v>
       </c>
-    </row>
-    <row r="190" spans="1:10">
+      <c r="K189">
+        <v>-0.1713062478940544</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11">
       <c r="A190" s="2">
         <v>40848</v>
       </c>
@@ -6406,13 +6970,16 @@
         <v>-0.03789832845776564</v>
       </c>
       <c r="I190">
-        <v>-0.09700887796013924</v>
+        <v>0.0734623377599322</v>
       </c>
       <c r="J190">
         <v>-0.09700887796013924</v>
       </c>
-    </row>
-    <row r="191" spans="1:10">
+      <c r="K190">
+        <v>-0.09700887796013924</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
       <c r="A191" s="2">
         <v>40878</v>
       </c>
@@ -6438,13 +7005,16 @@
         <v>-0.05192479138267747</v>
       </c>
       <c r="I191">
-        <v>-0.1934501096507555</v>
+        <v>0.07341649855973163</v>
       </c>
       <c r="J191">
         <v>-0.1934501096507555</v>
       </c>
-    </row>
-    <row r="192" spans="1:10">
+      <c r="K191">
+        <v>-0.1934501096507555</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11">
       <c r="A192" s="2">
         <v>40909</v>
       </c>
@@ -6461,7 +7031,7 @@
         <v>11.18000030517578</v>
       </c>
       <c r="F192">
-        <v>8.46883487701416</v>
+        <v>8.468833923339844</v>
       </c>
       <c r="G192">
         <v>12900</v>
@@ -6470,13 +7040,16 @@
         <v>0.05571295033869395</v>
       </c>
       <c r="I192">
-        <v>-0.1662937783453203</v>
+        <v>0.07350323986516752</v>
       </c>
       <c r="J192">
         <v>-0.1662937783453203</v>
       </c>
-    </row>
-    <row r="193" spans="1:10">
+      <c r="K192">
+        <v>-0.1662937783453203</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11">
       <c r="A193" s="2">
         <v>40940</v>
       </c>
@@ -6502,13 +7075,16 @@
         <v>0.0644006523882803</v>
       </c>
       <c r="I193">
-        <v>-0.1351744607131238</v>
+        <v>0.07370603808996709</v>
       </c>
       <c r="J193">
         <v>-0.1351744607131238</v>
       </c>
-    </row>
-    <row r="194" spans="1:10">
+      <c r="K193">
+        <v>-0.1351744607131238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11">
       <c r="A194" s="2">
         <v>40969</v>
       </c>
@@ -6534,13 +7110,16 @@
         <v>0.03697483598003348</v>
       </c>
       <c r="I194">
-        <v>-0.1254429161698627</v>
+        <v>0.07367416382257283</v>
       </c>
       <c r="J194">
         <v>-0.1254429161698627</v>
       </c>
-    </row>
-    <row r="195" spans="1:10">
+      <c r="K194">
+        <v>-0.1254429161698627</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11">
       <c r="A195" s="2">
         <v>41000</v>
       </c>
@@ -6557,7 +7136,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="F195">
-        <v>9.135433197021484</v>
+        <v>9.135432243347168</v>
       </c>
       <c r="G195">
         <v>58000</v>
@@ -6566,13 +7145,16 @@
         <v>-0.02269041568143504</v>
       </c>
       <c r="I195">
-        <v>-0.2269230689287658</v>
+        <v>0.07365587545730658</v>
       </c>
       <c r="J195">
         <v>-0.2269230689287658</v>
       </c>
-    </row>
-    <row r="196" spans="1:10">
+      <c r="K195">
+        <v>-0.2269230689287658</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11">
       <c r="A196" s="2">
         <v>41030</v>
       </c>
@@ -6589,7 +7171,7 @@
         <v>10.9399995803833</v>
       </c>
       <c r="F196">
-        <v>8.287034034729004</v>
+        <v>8.287035942077637</v>
       </c>
       <c r="G196">
         <v>48500</v>
@@ -6598,13 +7180,16 @@
         <v>-0.09286905474825802</v>
       </c>
       <c r="I196">
-        <v>-0.268227443481081</v>
+        <v>0.07412060499922787</v>
       </c>
       <c r="J196">
         <v>-0.268227443481081</v>
       </c>
-    </row>
-    <row r="197" spans="1:10">
+      <c r="K196">
+        <v>-0.268227443481081</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11">
       <c r="A197" s="2">
         <v>41061</v>
       </c>
@@ -6621,7 +7206,7 @@
         <v>11.52000045776367</v>
       </c>
       <c r="F197">
-        <v>9.007063865661621</v>
+        <v>9.007062911987305</v>
       </c>
       <c r="G197">
         <v>69100</v>
@@ -6630,13 +7215,16 @@
         <v>0.05301653561489905</v>
       </c>
       <c r="I197">
-        <v>-0.1835577081455075</v>
+        <v>0.07426499794163989</v>
       </c>
       <c r="J197">
         <v>-0.1835577081455075</v>
       </c>
-    </row>
-    <row r="198" spans="1:10">
+      <c r="K197">
+        <v>-0.1835577081455075</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11">
       <c r="A198" s="2">
         <v>41091</v>
       </c>
@@ -6653,7 +7241,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="F198">
-        <v>8.944513320922852</v>
+        <v>8.944512367248535</v>
       </c>
       <c r="G198">
         <v>121000</v>
@@ -6662,13 +7250,16 @@
         <v>-0.006944520329984494</v>
       </c>
       <c r="I198">
-        <v>-0.1417854729287417</v>
+        <v>0.07318159223731646</v>
       </c>
       <c r="J198">
         <v>-0.1417854729287417</v>
       </c>
-    </row>
-    <row r="199" spans="1:10">
+      <c r="K198">
+        <v>-0.1417854729287417</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11">
       <c r="A199" s="2">
         <v>41122</v>
       </c>
@@ -6685,7 +7276,7 @@
         <v>11.97000026702881</v>
       </c>
       <c r="F199">
-        <v>9.358898162841797</v>
+        <v>9.35890007019043</v>
       </c>
       <c r="G199">
         <v>90800</v>
@@ -6694,13 +7285,16 @@
         <v>0.0463287330494595</v>
       </c>
       <c r="I199">
-        <v>-0.0469745328723401</v>
+        <v>0.0732846060026907</v>
       </c>
       <c r="J199">
         <v>-0.0469745328723401</v>
       </c>
-    </row>
-    <row r="200" spans="1:10">
+      <c r="K199">
+        <v>-0.0469745328723401</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11">
       <c r="A200" s="2">
         <v>41153</v>
       </c>
@@ -6717,7 +7311,7 @@
         <v>12.57999992370605</v>
       </c>
       <c r="F200">
-        <v>9.835838317871094</v>
+        <v>9.835836410522461</v>
       </c>
       <c r="G200">
         <v>26700</v>
@@ -6726,13 +7320,16 @@
         <v>0.05096070535248698</v>
       </c>
       <c r="I200">
-        <v>0.1436363567005505</v>
+        <v>0.0717823525016805</v>
       </c>
       <c r="J200">
         <v>0.1436363567005505</v>
       </c>
-    </row>
-    <row r="201" spans="1:10">
+      <c r="K200">
+        <v>0.1436363567005505</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11">
       <c r="A201" s="2">
         <v>41183</v>
       </c>
@@ -6749,7 +7346,7 @@
         <v>12.69999980926514</v>
       </c>
       <c r="F201">
-        <v>9.929659843444824</v>
+        <v>9.929660797119141</v>
       </c>
       <c r="G201">
         <v>39100</v>
@@ -6758,13 +7355,16 @@
         <v>0.009538941676219936</v>
       </c>
       <c r="I201">
-        <v>0.093884598175763</v>
+        <v>0.07116543269948047</v>
       </c>
       <c r="J201">
         <v>0.093884598175763</v>
       </c>
-    </row>
-    <row r="202" spans="1:10">
+      <c r="K201">
+        <v>0.093884598175763</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11">
       <c r="A202" s="2">
         <v>41214</v>
       </c>
@@ -6781,7 +7381,7 @@
         <v>13.07999992370605</v>
       </c>
       <c r="F202">
-        <v>10.22676658630371</v>
+        <v>10.22676944732666</v>
       </c>
       <c r="G202">
         <v>76600</v>
@@ -6790,13 +7390,16 @@
         <v>0.029921269302988</v>
       </c>
       <c r="I202">
-        <v>0.1709937183855259</v>
+        <v>0.07119370190376807</v>
       </c>
       <c r="J202">
         <v>0.1709937183855259</v>
       </c>
-    </row>
-    <row r="203" spans="1:10">
+      <c r="K202">
+        <v>0.1709937183855259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11">
       <c r="A203" s="2">
         <v>41244</v>
       </c>
@@ -6813,7 +7416,7 @@
         <v>13.85000038146973</v>
       </c>
       <c r="F203">
-        <v>10.84562587738037</v>
+        <v>10.84562301635742</v>
       </c>
       <c r="G203">
         <v>130100</v>
@@ -6822,13 +7425,16 @@
         <v>0.0588685368696471</v>
       </c>
       <c r="I203">
-        <v>0.3078375998026011</v>
+        <v>0.07135374466942024</v>
       </c>
       <c r="J203">
         <v>0.3078375998026011</v>
       </c>
-    </row>
-    <row r="204" spans="1:10">
+      <c r="K203">
+        <v>0.3078375998026011</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11">
       <c r="A204" s="2">
         <v>41275</v>
       </c>
@@ -6854,13 +7460,16 @@
         <v>0.03682305134733865</v>
       </c>
       <c r="I204">
-        <v>0.2844364279694416</v>
+        <v>0.07125404685779414</v>
       </c>
       <c r="J204">
         <v>0.2844364279694416</v>
       </c>
-    </row>
-    <row r="205" spans="1:10">
+      <c r="K204">
+        <v>0.2844364279694416</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11">
       <c r="A205" s="2">
         <v>41306</v>
       </c>
@@ -6877,7 +7486,7 @@
         <v>14.22000026702881</v>
       </c>
       <c r="F205">
-        <v>11.13536357879639</v>
+        <v>11.13536262512207</v>
       </c>
       <c r="G205">
         <v>106700</v>
@@ -6886,13 +7495,16 @@
         <v>-0.009749261350667227</v>
       </c>
       <c r="I205">
-        <v>0.1949580439385821</v>
+        <v>0.07048706667222263</v>
       </c>
       <c r="J205">
         <v>0.1949580439385821</v>
       </c>
-    </row>
-    <row r="206" spans="1:10">
+      <c r="K205">
+        <v>0.1949580439385821</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11">
       <c r="A206" s="2">
         <v>41334</v>
       </c>
@@ -6909,7 +7521,7 @@
         <v>14.18000030517578</v>
       </c>
       <c r="F206">
-        <v>11.10404014587402</v>
+        <v>11.10403919219971</v>
       </c>
       <c r="G206">
         <v>157800</v>
@@ -6918,13 +7530,16 @@
         <v>-0.00281293678634964</v>
       </c>
       <c r="I206">
-        <v>0.1491086004729112</v>
+        <v>0.07048845401659565</v>
       </c>
       <c r="J206">
         <v>0.1491086004729112</v>
       </c>
-    </row>
-    <row r="207" spans="1:10">
+      <c r="K206">
+        <v>0.1491086004729112</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11">
       <c r="A207" s="2">
         <v>41365</v>
       </c>
@@ -6941,7 +7556,7 @@
         <v>14.64999961853027</v>
       </c>
       <c r="F207">
-        <v>11.47208595275879</v>
+        <v>11.47208690643311</v>
       </c>
       <c r="G207">
         <v>60900</v>
@@ -6950,13 +7565,16 @@
         <v>0.03314522589840418</v>
       </c>
       <c r="I207">
-        <v>0.2147594617576216</v>
+        <v>0.06900961433537589</v>
       </c>
       <c r="J207">
         <v>0.2147594617576216</v>
       </c>
-    </row>
-    <row r="208" spans="1:10">
+      <c r="K207">
+        <v>0.2147594617576216</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11">
       <c r="A208" s="2">
         <v>41395</v>
       </c>
@@ -6973,7 +7591,7 @@
         <v>14.53999996185303</v>
       </c>
       <c r="F208">
-        <v>11.38594913482666</v>
+        <v>11.38594627380371</v>
       </c>
       <c r="G208">
         <v>26400</v>
@@ -6982,13 +7600,16 @@
         <v>-0.007508509183721146</v>
       </c>
       <c r="I208">
-        <v>0.3290676891729456</v>
+        <v>0.06824559907048434</v>
       </c>
       <c r="J208">
         <v>0.3290676891729456</v>
       </c>
-    </row>
-    <row r="209" spans="1:10">
+      <c r="K208">
+        <v>0.3290676891729456</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11">
       <c r="A209" s="2">
         <v>41426</v>
       </c>
@@ -7005,7 +7626,7 @@
         <v>13.61999988555908</v>
       </c>
       <c r="F209">
-        <v>10.95831394195557</v>
+        <v>10.95831489562988</v>
       </c>
       <c r="G209">
         <v>274400</v>
@@ -7014,13 +7635,16 @@
         <v>-0.06327373306104855</v>
       </c>
       <c r="I209">
-        <v>0.1822916097525116</v>
+        <v>0.06851363623657289</v>
       </c>
       <c r="J209">
         <v>0.1822916097525116</v>
       </c>
-    </row>
-    <row r="210" spans="1:10">
+      <c r="K209">
+        <v>0.1822916097525116</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11">
       <c r="A210" s="2">
         <v>41456</v>
       </c>
@@ -7037,7 +7661,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="F210">
-        <v>11.71461486816406</v>
+        <v>11.71461391448975</v>
       </c>
       <c r="G210">
         <v>200500</v>
@@ -7046,13 +7670,16 @@
         <v>0.0690161925077748</v>
       </c>
       <c r="I210">
-        <v>0.2727273560904153</v>
+        <v>0.06874384053450271</v>
       </c>
       <c r="J210">
         <v>0.2727273560904153</v>
       </c>
-    </row>
-    <row r="211" spans="1:10">
+      <c r="K210">
+        <v>0.2727273560904153</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11">
       <c r="A211" s="2">
         <v>41487</v>
       </c>
@@ -7069,7 +7696,7 @@
         <v>14.36999988555908</v>
       </c>
       <c r="F211">
-        <v>11.56174468994141</v>
+        <v>11.56174564361572</v>
       </c>
       <c r="G211">
         <v>49500</v>
@@ -7078,13 +7705,16 @@
         <v>-0.013049486853148</v>
       </c>
       <c r="I211">
-        <v>0.2005012167912008</v>
+        <v>0.06874515232384769</v>
       </c>
       <c r="J211">
         <v>0.2005012167912008</v>
       </c>
-    </row>
-    <row r="212" spans="1:10">
+      <c r="K211">
+        <v>0.2005012167912008</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11">
       <c r="A212" s="2">
         <v>41518</v>
       </c>
@@ -7101,7 +7731,7 @@
         <v>15.39000034332275</v>
       </c>
       <c r="F212">
-        <v>12.38241291046143</v>
+        <v>12.38241100311279</v>
       </c>
       <c r="G212">
         <v>75100</v>
@@ -7110,13 +7740,16 @@
         <v>0.07098124327674538</v>
       </c>
       <c r="I212">
-        <v>0.2233704639633158</v>
+        <v>0.06887051478291241</v>
       </c>
       <c r="J212">
         <v>0.2233704639633158</v>
       </c>
-    </row>
-    <row r="213" spans="1:10">
+      <c r="K212">
+        <v>0.2233704639633158</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11">
       <c r="A213" s="2">
         <v>41548</v>
       </c>
@@ -7133,7 +7766,7 @@
         <v>16.09000015258789</v>
       </c>
       <c r="F213">
-        <v>12.9456148147583</v>
+        <v>12.94561576843262</v>
       </c>
       <c r="G213">
         <v>28000</v>
@@ -7142,13 +7775,16 @@
         <v>0.04548406716370512</v>
       </c>
       <c r="I213">
-        <v>0.2669291649004293</v>
+        <v>0.06873812508358874</v>
       </c>
       <c r="J213">
         <v>0.2669291649004293</v>
       </c>
-    </row>
-    <row r="214" spans="1:10">
+      <c r="K213">
+        <v>0.2669291649004293</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11">
       <c r="A214" s="2">
         <v>41579</v>
       </c>
@@ -7165,7 +7801,7 @@
         <v>16.10000038146973</v>
       </c>
       <c r="F214">
-        <v>12.95366096496582</v>
+        <v>12.9536600112915</v>
       </c>
       <c r="G214">
         <v>30600</v>
@@ -7174,13 +7810,16 @@
         <v>0.0006215182589808244</v>
       </c>
       <c r="I214">
-        <v>0.2308868864968612</v>
+        <v>0.06869803973410914</v>
       </c>
       <c r="J214">
         <v>0.2308868864968612</v>
       </c>
-    </row>
-    <row r="215" spans="1:10">
+      <c r="K214">
+        <v>0.2308868864968612</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11">
       <c r="A215" s="2">
         <v>41609</v>
       </c>
@@ -7197,7 +7836,7 @@
         <v>16.38999938964844</v>
       </c>
       <c r="F215">
-        <v>13.51376724243164</v>
+        <v>13.51377010345459</v>
       </c>
       <c r="G215">
         <v>44200</v>
@@ -7206,13 +7845,16 @@
         <v>0.01801236032966091</v>
       </c>
       <c r="I215">
-        <v>0.1833934251422145</v>
+        <v>0.06870909933086511</v>
       </c>
       <c r="J215">
         <v>0.1833934251422145</v>
       </c>
-    </row>
-    <row r="216" spans="1:10">
+      <c r="K215">
+        <v>0.1833934251422145</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11">
       <c r="A216" s="2">
         <v>41640</v>
       </c>
@@ -7229,7 +7871,7 @@
         <v>15.77999973297119</v>
       </c>
       <c r="F216">
-        <v>13.01081466674805</v>
+        <v>13.01081562042236</v>
       </c>
       <c r="G216">
         <v>40900</v>
@@ -7238,13 +7880,16 @@
         <v>-0.03721779618018217</v>
       </c>
       <c r="I216">
-        <v>0.0988858015490035</v>
+        <v>0.06850568683514986</v>
       </c>
       <c r="J216">
         <v>0.0988858015490035</v>
       </c>
-    </row>
-    <row r="217" spans="1:10">
+      <c r="K216">
+        <v>0.0988858015490035</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
       <c r="A217" s="2">
         <v>41671</v>
       </c>
@@ -7261,7 +7906,7 @@
         <v>17.15999984741211</v>
       </c>
       <c r="F217">
-        <v>14.14864158630371</v>
+        <v>14.14864444732666</v>
       </c>
       <c r="G217">
         <v>57500</v>
@@ -7270,13 +7915,16 @@
         <v>0.08745248021503493</v>
       </c>
       <c r="I217">
-        <v>0.206751021460958</v>
+        <v>0.06891695395752533</v>
       </c>
       <c r="J217">
         <v>0.206751021460958</v>
       </c>
-    </row>
-    <row r="218" spans="1:10">
+      <c r="K217">
+        <v>0.206751021460958</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11">
       <c r="A218" s="2">
         <v>41699</v>
       </c>
@@ -7293,7 +7941,7 @@
         <v>17.36000061035156</v>
       </c>
       <c r="F218">
-        <v>14.31354522705078</v>
+        <v>14.31354427337646</v>
       </c>
       <c r="G218">
         <v>42800</v>
@@ -7302,13 +7950,16 @@
         <v>0.01165505621899032</v>
       </c>
       <c r="I218">
-        <v>0.2242595371464882</v>
+        <v>0.06873491178572347</v>
       </c>
       <c r="J218">
         <v>0.2242595371464882</v>
       </c>
-    </row>
-    <row r="219" spans="1:10">
+      <c r="K218">
+        <v>0.2242595371464882</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11">
       <c r="A219" s="2">
         <v>41730</v>
       </c>
@@ -7325,7 +7976,7 @@
         <v>17.59000015258789</v>
       </c>
       <c r="F219">
-        <v>14.50318336486816</v>
+        <v>14.5031852722168</v>
       </c>
       <c r="G219">
         <v>146000</v>
@@ -7334,13 +7985,16 @@
         <v>0.01324882109158354</v>
       </c>
       <c r="I219">
-        <v>0.2006826355366531</v>
+        <v>0.06873422032186192</v>
       </c>
       <c r="J219">
         <v>0.2006826355366531</v>
       </c>
-    </row>
-    <row r="220" spans="1:10">
+      <c r="K219">
+        <v>0.2006826355366531</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11">
       <c r="A220" s="2">
         <v>41760</v>
       </c>
@@ -7357,7 +8011,7 @@
         <v>17.65999984741211</v>
       </c>
       <c r="F220">
-        <v>14.56089973449707</v>
+        <v>14.56089878082275</v>
       </c>
       <c r="G220">
         <v>45500</v>
@@ -7366,13 +8020,16 @@
         <v>0.003979516442125686</v>
       </c>
       <c r="I220">
-        <v>0.2145804603675845</v>
+        <v>0.06869792660453797</v>
       </c>
       <c r="J220">
         <v>0.2145804603675845</v>
       </c>
-    </row>
-    <row r="221" spans="1:10">
+      <c r="K220">
+        <v>0.2145804603675845</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11">
       <c r="A221" s="2">
         <v>41791</v>
       </c>
@@ -7389,7 +8046,7 @@
         <v>17.20000076293945</v>
       </c>
       <c r="F221">
-        <v>14.36781120300293</v>
+        <v>14.36781215667725</v>
       </c>
       <c r="G221">
         <v>94700</v>
@@ -7398,13 +8055,16 @@
         <v>-0.02604751350210599</v>
       </c>
       <c r="I221">
-        <v>0.2628488184626308</v>
+        <v>0.0686639253368168</v>
       </c>
       <c r="J221">
         <v>0.2628488184626308</v>
       </c>
-    </row>
-    <row r="222" spans="1:10">
+      <c r="K221">
+        <v>0.2628488184626308</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11">
       <c r="A222" s="2">
         <v>41821</v>
       </c>
@@ -7430,13 +8090,16 @@
         <v>-0.02674424252424712</v>
       </c>
       <c r="I222">
-        <v>0.1497252258704849</v>
+        <v>0.06869006624535787</v>
       </c>
       <c r="J222">
         <v>0.1497252258704849</v>
       </c>
-    </row>
-    <row r="223" spans="1:10">
+      <c r="K222">
+        <v>0.1497252258704849</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11">
       <c r="A223" s="2">
         <v>41852</v>
       </c>
@@ -7453,7 +8116,7 @@
         <v>17.01000022888184</v>
       </c>
       <c r="F223">
-        <v>14.20909786224365</v>
+        <v>14.20909690856934</v>
       </c>
       <c r="G223">
         <v>209700</v>
@@ -7462,13 +8125,16 @@
         <v>0.01612905982409329</v>
       </c>
       <c r="I223">
-        <v>0.1837161005113008</v>
+        <v>0.06853748665466464</v>
       </c>
       <c r="J223">
         <v>0.1837161005113008</v>
       </c>
-    </row>
-    <row r="224" spans="1:10">
+      <c r="K223">
+        <v>0.1837161005113008</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11">
       <c r="A224" s="2">
         <v>41883</v>
       </c>
@@ -7485,7 +8151,7 @@
         <v>16.31999969482422</v>
       </c>
       <c r="F224">
-        <v>13.63271522521973</v>
+        <v>13.63271427154541</v>
       </c>
       <c r="G224">
         <v>54900</v>
@@ -7494,13 +8160,16 @@
         <v>-0.04056440474856915</v>
       </c>
       <c r="I224">
-        <v>0.06042880641682125</v>
+        <v>0.06833062074995654</v>
       </c>
       <c r="J224">
         <v>0.06042880641682125</v>
       </c>
-    </row>
-    <row r="225" spans="1:10">
+      <c r="K224">
+        <v>0.06042880641682125</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11">
       <c r="A225" s="2">
         <v>41913</v>
       </c>
@@ -7517,7 +8186,7 @@
         <v>16.06999969482422</v>
       </c>
       <c r="F225">
-        <v>13.42387962341309</v>
+        <v>13.42387866973877</v>
       </c>
       <c r="G225">
         <v>120300</v>
@@ -7526,13 +8195,16 @@
         <v>-0.01531862773743098</v>
       </c>
       <c r="I225">
-        <v>-0.001243036517961427</v>
+        <v>0.06807911479226179</v>
       </c>
       <c r="J225">
         <v>-0.001243036517961427</v>
       </c>
-    </row>
-    <row r="226" spans="1:10">
+      <c r="K225">
+        <v>-0.001243036517961427</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11">
       <c r="A226" s="2">
         <v>41944</v>
       </c>
@@ -7549,7 +8221,7 @@
         <v>16.67000007629395</v>
       </c>
       <c r="F226">
-        <v>13.92508411407471</v>
+        <v>13.92508220672607</v>
       </c>
       <c r="G226">
         <v>38200</v>
@@ -7558,13 +8230,16 @@
         <v>0.03733667659390028</v>
       </c>
       <c r="I226">
-        <v>0.03540370691420969</v>
+        <v>0.06803288444046292</v>
       </c>
       <c r="J226">
         <v>0.03540370691420969</v>
       </c>
-    </row>
-    <row r="227" spans="1:10">
+      <c r="K226">
+        <v>0.03540370691420969</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11">
       <c r="A227" s="2">
         <v>41974</v>
       </c>
@@ -7590,13 +8265,16 @@
         <v>-0.02819431980824449</v>
       </c>
       <c r="I227">
-        <v>-0.01159235105456946</v>
+        <v>0.06802069215844662</v>
       </c>
       <c r="J227">
         <v>-0.01159235105456946</v>
       </c>
-    </row>
-    <row r="228" spans="1:10">
+      <c r="K227">
+        <v>-0.01159235105456946</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11">
       <c r="A228" s="2">
         <v>42005</v>
       </c>
@@ -7613,7 +8291,7 @@
         <v>16.53000068664551</v>
       </c>
       <c r="F228">
-        <v>13.87122821807861</v>
+        <v>13.87122631072998</v>
       </c>
       <c r="G228">
         <v>177300</v>
@@ -7622,13 +8300,16 @@
         <v>0.02037036470152476</v>
       </c>
       <c r="I228">
-        <v>0.04752857835017843</v>
+        <v>0.06800657605690487</v>
       </c>
       <c r="J228">
         <v>0.04752857835017843</v>
       </c>
-    </row>
-    <row r="229" spans="1:10">
+      <c r="K228">
+        <v>0.04752857835017843</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11">
       <c r="A229" s="2">
         <v>42036</v>
       </c>
@@ -7645,7 +8326,7 @@
         <v>17.35000038146973</v>
       </c>
       <c r="F229">
-        <v>14.55933380126953</v>
+        <v>14.55933475494385</v>
       </c>
       <c r="G229">
         <v>25900</v>
@@ -7654,13 +8335,16 @@
         <v>0.04960675503702139</v>
       </c>
       <c r="I229">
-        <v>0.01107229229295537</v>
+        <v>0.06800977645423679</v>
       </c>
       <c r="J229">
         <v>0.01107229229295537</v>
       </c>
-    </row>
-    <row r="230" spans="1:10">
+      <c r="K229">
+        <v>0.01107229229295537</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11">
       <c r="A230" s="2">
         <v>42064</v>
       </c>
@@ -7677,7 +8361,7 @@
         <v>16.88999938964844</v>
       </c>
       <c r="F230">
-        <v>14.17332172393799</v>
+        <v>14.17332077026367</v>
       </c>
       <c r="G230">
         <v>85000</v>
@@ -7686,13 +8370,16 @@
         <v>-0.02651302488226936</v>
       </c>
       <c r="I230">
-        <v>-0.02707380208401999</v>
+        <v>0.0680471127559209</v>
       </c>
       <c r="J230">
         <v>-0.02707380208401999</v>
       </c>
-    </row>
-    <row r="231" spans="1:10">
+      <c r="K230">
+        <v>-0.02707380208401999</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11">
       <c r="A231" s="2">
         <v>42095</v>
       </c>
@@ -7709,7 +8396,7 @@
         <v>17.45000076293945</v>
       </c>
       <c r="F231">
-        <v>14.64325046539307</v>
+        <v>14.64324855804443</v>
       </c>
       <c r="G231">
         <v>80800</v>
@@ -7718,13 +8405,16 @@
         <v>0.03315579594598628</v>
       </c>
       <c r="I231">
-        <v>-0.007959032884251593</v>
+        <v>0.06803935331568811</v>
       </c>
       <c r="J231">
         <v>-0.007959032884251593</v>
       </c>
-    </row>
-    <row r="232" spans="1:10">
+      <c r="K231">
+        <v>-0.007959032884251593</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11">
       <c r="A232" s="2">
         <v>42125</v>
       </c>
@@ -7741,7 +8431,7 @@
         <v>17.81999969482422</v>
       </c>
       <c r="F232">
-        <v>14.9537353515625</v>
+        <v>14.95373725891113</v>
       </c>
       <c r="G232">
         <v>54000</v>
@@ -7750,13 +8440,16 @@
         <v>0.0212033762583308</v>
       </c>
       <c r="I232">
-        <v>0.009060014088027035</v>
+        <v>0.06804098361966475</v>
       </c>
       <c r="J232">
         <v>0.009060014088027035</v>
       </c>
-    </row>
-    <row r="233" spans="1:10">
+      <c r="K232">
+        <v>0.009060014088027035</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11">
       <c r="A233" s="2">
         <v>42156</v>
       </c>
@@ -7773,7 +8466,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="F233">
-        <v>14.8109130859375</v>
+        <v>14.81091594696045</v>
       </c>
       <c r="G233">
         <v>214300</v>
@@ -7782,13 +8475,16 @@
         <v>-0.02525246146449267</v>
       </c>
       <c r="I233">
-        <v>0.009883724927515214</v>
+        <v>0.06808785174890308</v>
       </c>
       <c r="J233">
         <v>0.009883724927515214</v>
       </c>
-    </row>
-    <row r="234" spans="1:10">
+      <c r="K233">
+        <v>0.009883724927515214</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11">
       <c r="A234" s="2">
         <v>42186</v>
       </c>
@@ -7805,7 +8501,7 @@
         <v>17.98999977111816</v>
       </c>
       <c r="F234">
-        <v>15.33957290649414</v>
+        <v>15.33957099914551</v>
       </c>
       <c r="G234">
         <v>97200</v>
@@ -7814,13 +8510,16 @@
         <v>0.0356936615963992</v>
       </c>
       <c r="I234">
-        <v>0.07467144666015169</v>
+        <v>0.06804320168295108</v>
       </c>
       <c r="J234">
         <v>0.07467144666015169</v>
       </c>
-    </row>
-    <row r="235" spans="1:10">
+      <c r="K234">
+        <v>0.07467144666015169</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11">
       <c r="A235" s="2">
         <v>42217</v>
       </c>
@@ -7846,13 +8545,16 @@
         <v>-0.0578098399894571</v>
       </c>
       <c r="I235">
-        <v>-0.003527305416522464</v>
+        <v>0.06825108051707983</v>
       </c>
       <c r="J235">
         <v>-0.003527305416522464</v>
       </c>
-    </row>
-    <row r="236" spans="1:10">
+      <c r="K235">
+        <v>-0.003527305416522464</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11">
       <c r="A236" s="2">
         <v>42248</v>
       </c>
@@ -7869,7 +8571,7 @@
         <v>16.46999931335449</v>
       </c>
       <c r="F236">
-        <v>14.04350757598877</v>
+        <v>14.04350566864014</v>
       </c>
       <c r="G236">
         <v>296100</v>
@@ -7878,13 +8580,16 @@
         <v>-0.02831866831737651</v>
       </c>
       <c r="I236">
-        <v>0.009191153268087726</v>
+        <v>0.06830492183672041</v>
       </c>
       <c r="J236">
         <v>0.009191153268087726</v>
       </c>
-    </row>
-    <row r="237" spans="1:10">
+      <c r="K236">
+        <v>0.009191153268087726</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11">
       <c r="A237" s="2">
         <v>42278</v>
       </c>
@@ -7910,13 +8615,16 @@
         <v>0.06314517054557922</v>
       </c>
       <c r="I237">
-        <v>0.08960800008735581</v>
+        <v>0.06851059338615523</v>
       </c>
       <c r="J237">
         <v>0.08960800008735581</v>
       </c>
-    </row>
-    <row r="238" spans="1:10">
+      <c r="K237">
+        <v>0.08960800008735581</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11">
       <c r="A238" s="2">
         <v>42309</v>
       </c>
@@ -7933,7 +8641,7 @@
         <v>17.77000045776367</v>
       </c>
       <c r="F238">
-        <v>15.15198135375977</v>
+        <v>15.15198040008545</v>
       </c>
       <c r="G238">
         <v>72900</v>
@@ -7942,13 +8650,16 @@
         <v>0.01484867078716423</v>
       </c>
       <c r="I238">
-        <v>0.06598682522107557</v>
+        <v>0.06850138635029016</v>
       </c>
       <c r="J238">
         <v>0.06598682522107557</v>
       </c>
-    </row>
-    <row r="239" spans="1:10">
+      <c r="K238">
+        <v>0.06598682522107557</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11">
       <c r="A239" s="2">
         <v>42339</v>
       </c>
@@ -7965,7 +8676,7 @@
         <v>18.05999946594238</v>
       </c>
       <c r="F239">
-        <v>15.47131729125977</v>
+        <v>15.47131824493408</v>
       </c>
       <c r="G239">
         <v>153100</v>
@@ -7974,13 +8685,16 @@
         <v>0.01631958360766461</v>
       </c>
       <c r="I239">
-        <v>0.1148147293460644</v>
+        <v>0.06851357967274485</v>
       </c>
       <c r="J239">
         <v>0.1148147293460644</v>
       </c>
-    </row>
-    <row r="240" spans="1:10">
+      <c r="K239">
+        <v>0.1148147293460644</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11">
       <c r="A240" s="2">
         <v>42370</v>
       </c>
@@ -8006,13 +8720,16 @@
         <v>-0.0498338673944867</v>
       </c>
       <c r="I240">
-        <v>0.03811247033253751</v>
+        <v>0.06841097849474873</v>
       </c>
       <c r="J240">
         <v>0.03811247033253751</v>
       </c>
-    </row>
-    <row r="241" spans="1:10">
+      <c r="K240">
+        <v>0.03811247033253751</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11">
       <c r="A241" s="2">
         <v>42401</v>
       </c>
@@ -8029,7 +8746,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="F241">
-        <v>14.0235595703125</v>
+        <v>14.02356052398682</v>
       </c>
       <c r="G241">
         <v>113400</v>
@@ -8038,13 +8755,16 @@
         <v>-0.04603723864821885</v>
       </c>
       <c r="I241">
-        <v>-0.05648412222993349</v>
+        <v>0.06854408204248159</v>
       </c>
       <c r="J241">
         <v>-0.05648412222993349</v>
       </c>
-    </row>
-    <row r="242" spans="1:10">
+      <c r="K241">
+        <v>-0.05648412222993349</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11">
       <c r="A242" s="2">
         <v>42430</v>
       </c>
@@ -8061,7 +8781,7 @@
         <v>17.65999984741211</v>
       </c>
       <c r="F242">
-        <v>15.12865257263184</v>
+        <v>15.1286506652832</v>
       </c>
       <c r="G242">
         <v>1844500</v>
@@ -8070,13 +8790,16 @@
         <v>0.07880262321593867</v>
       </c>
       <c r="I242">
-        <v>0.04558913472996284</v>
+        <v>0.068875142547036</v>
       </c>
       <c r="J242">
         <v>0.04558913472996284</v>
       </c>
-    </row>
-    <row r="243" spans="1:10">
+      <c r="K242">
+        <v>0.04558913472996284</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11">
       <c r="A243" s="2">
         <v>42461</v>
       </c>
@@ -8093,7 +8816,7 @@
         <v>17.92000007629395</v>
       </c>
       <c r="F243">
-        <v>15.35138607025146</v>
+        <v>15.35138511657715</v>
       </c>
       <c r="G243">
         <v>147300</v>
@@ -8102,13 +8825,16 @@
         <v>0.01472254989401578</v>
       </c>
       <c r="I243">
-        <v>0.0269340568942944</v>
+        <v>0.0686964935241007</v>
       </c>
       <c r="J243">
         <v>0.0269340568942944</v>
       </c>
-    </row>
-    <row r="244" spans="1:10">
+      <c r="K243">
+        <v>0.0269340568942944</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11">
       <c r="A244" s="2">
         <v>42491</v>
       </c>
@@ -8125,7 +8851,7 @@
         <v>18.27000045776367</v>
       </c>
       <c r="F244">
-        <v>15.65121650695801</v>
+        <v>15.65121555328369</v>
       </c>
       <c r="G244">
         <v>105900</v>
@@ -8134,13 +8860,16 @@
         <v>0.01953127120421927</v>
       </c>
       <c r="I244">
-        <v>0.0252525684986491</v>
+        <v>0.06864521334264229</v>
       </c>
       <c r="J244">
         <v>0.0252525684986491</v>
       </c>
-    </row>
-    <row r="245" spans="1:10">
+      <c r="K244">
+        <v>0.0252525684986491</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11">
       <c r="A245" s="2">
         <v>42522</v>
       </c>
@@ -8157,7 +8886,7 @@
         <v>17.70999908447266</v>
       </c>
       <c r="F245">
-        <v>15.2947473526001</v>
+        <v>15.29474925994873</v>
       </c>
       <c r="G245">
         <v>378800</v>
@@ -8166,13 +8895,16 @@
         <v>-0.03065141539463112</v>
       </c>
       <c r="I245">
-        <v>0.01957387615499173</v>
+        <v>0.06870491044276214</v>
       </c>
       <c r="J245">
         <v>0.01957387615499173</v>
       </c>
-    </row>
-    <row r="246" spans="1:10">
+      <c r="K245">
+        <v>0.01957387615499173</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11">
       <c r="A246" s="2">
         <v>42552</v>
       </c>
@@ -8189,7 +8921,7 @@
         <v>18.15999984741211</v>
       </c>
       <c r="F246">
-        <v>15.68337917327881</v>
+        <v>15.68338012695312</v>
       </c>
       <c r="G246">
         <v>216000</v>
@@ -8198,13 +8930,16 @@
         <v>0.02540941762859794</v>
       </c>
       <c r="I246">
-        <v>0.009449698635731529</v>
+        <v>0.06871484981244264</v>
       </c>
       <c r="J246">
         <v>0.009449698635731529</v>
       </c>
-    </row>
-    <row r="247" spans="1:10">
+      <c r="K246">
+        <v>0.009449698635731529</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11">
       <c r="A247" s="2">
         <v>42583</v>
       </c>
@@ -8221,7 +8956,7 @@
         <v>18.17000007629395</v>
       </c>
       <c r="F247">
-        <v>15.6920166015625</v>
+        <v>15.69201564788818</v>
       </c>
       <c r="G247">
         <v>82200</v>
@@ -8230,13 +8965,16 @@
         <v>0.0005506734012039605</v>
       </c>
       <c r="I247">
-        <v>0.07197635743014086</v>
+        <v>0.06861396976289232</v>
       </c>
       <c r="J247">
         <v>0.07197635743014086</v>
       </c>
-    </row>
-    <row r="248" spans="1:10">
+      <c r="K247">
+        <v>0.07197635743014086</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11">
       <c r="A248" s="2">
         <v>42614</v>
       </c>
@@ -8253,7 +8991,7 @@
         <v>18.86000061035156</v>
       </c>
       <c r="F248">
-        <v>16.28791618347168</v>
+        <v>16.28791427612305</v>
       </c>
       <c r="G248">
         <v>243300</v>
@@ -8262,13 +9000,16 @@
         <v>0.03797471277712594</v>
       </c>
       <c r="I248">
-        <v>0.1451124102390926</v>
+        <v>0.06861985928068333</v>
       </c>
       <c r="J248">
         <v>0.1451124102390926</v>
       </c>
-    </row>
-    <row r="249" spans="1:10">
+      <c r="K248">
+        <v>0.1451124102390926</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11">
       <c r="A249" s="2">
         <v>42644</v>
       </c>
@@ -8294,13 +9035,16 @@
         <v>-0.05090142952033516</v>
       </c>
       <c r="I249">
-        <v>0.02227295171619437</v>
+        <v>0.0687627565460238</v>
       </c>
       <c r="J249">
         <v>0.02227295171619437</v>
       </c>
-    </row>
-    <row r="250" spans="1:10">
+      <c r="K249">
+        <v>0.02227295171619437</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11">
       <c r="A250" s="2">
         <v>42675</v>
       </c>
@@ -8326,13 +9070,16 @@
         <v>-0.04301678626666328</v>
       </c>
       <c r="I250">
-        <v>-0.03601582895387345</v>
+        <v>0.06880953748341802</v>
       </c>
       <c r="J250">
         <v>-0.03601582895387345</v>
       </c>
-    </row>
-    <row r="251" spans="1:10">
+      <c r="K250">
+        <v>-0.03601582895387345</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11">
       <c r="A251" s="2">
         <v>42705</v>
       </c>
@@ -8358,13 +9105,16 @@
         <v>0.02218336758507045</v>
       </c>
       <c r="I251">
-        <v>-0.03045400073780391</v>
+        <v>0.06879516512748222</v>
       </c>
       <c r="J251">
         <v>-0.03045400073780391</v>
       </c>
-    </row>
-    <row r="252" spans="1:10">
+      <c r="K251">
+        <v>-0.03045400073780391</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11">
       <c r="A252" s="2">
         <v>42736</v>
       </c>
@@ -8381,7 +9131,7 @@
         <v>17.80999946594238</v>
       </c>
       <c r="F252">
-        <v>15.52420425415039</v>
+        <v>15.52420616149902</v>
       </c>
       <c r="G252">
         <v>76200</v>
@@ -8390,13 +9140,16 @@
         <v>0.01713302302336439</v>
       </c>
       <c r="I252">
-        <v>0.03787876598543782</v>
+        <v>0.06879420233362957</v>
       </c>
       <c r="J252">
         <v>0.03787876598543782</v>
       </c>
-    </row>
-    <row r="253" spans="1:10">
+      <c r="K252">
+        <v>0.03787876598543782</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11">
       <c r="A253" s="2">
         <v>42767</v>
       </c>
@@ -8413,7 +9166,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="F253">
-        <v>15.57650375366211</v>
+        <v>15.57650470733643</v>
       </c>
       <c r="G253">
         <v>52300</v>
@@ -8422,13 +9175,16 @@
         <v>0.00336897108872769</v>
       </c>
       <c r="I253">
-        <v>0.09163102767869158</v>
+        <v>0.06876629640405399</v>
       </c>
       <c r="J253">
         <v>0.09163102767869158</v>
       </c>
-    </row>
-    <row r="254" spans="1:10">
+      <c r="K253">
+        <v>0.09163102767869158</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11">
       <c r="A254" s="2">
         <v>42795</v>
       </c>
@@ -8445,7 +9201,7 @@
         <v>18.76000022888184</v>
       </c>
       <c r="F254">
-        <v>16.3522777557373</v>
+        <v>16.35227966308594</v>
       </c>
       <c r="G254">
         <v>43700</v>
@@ -8454,13 +9210,16 @@
         <v>0.04980410452440798</v>
       </c>
       <c r="I254">
-        <v>0.06228767785810141</v>
+        <v>0.06879361517796145</v>
       </c>
       <c r="J254">
         <v>0.06228767785810141</v>
       </c>
-    </row>
-    <row r="255" spans="1:10">
+      <c r="K254">
+        <v>0.06228767785810141</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11">
       <c r="A255" s="2">
         <v>42826</v>
       </c>
@@ -8486,13 +9245,16 @@
         <v>0.03624735057992656</v>
       </c>
       <c r="I255">
-        <v>0.08482145375515104</v>
+        <v>0.06875351678650578</v>
       </c>
       <c r="J255">
         <v>0.08482145375515104</v>
       </c>
-    </row>
-    <row r="256" spans="1:10">
+      <c r="K255">
+        <v>0.08482145375515104</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11">
       <c r="A256" s="2">
         <v>42856</v>
       </c>
@@ -8518,13 +9280,16 @@
         <v>0.042695468153509</v>
       </c>
       <c r="I256">
-        <v>0.1094690722435159</v>
+        <v>0.06886076864763029</v>
       </c>
       <c r="J256">
         <v>0.1094690722435159</v>
       </c>
-    </row>
-    <row r="257" spans="1:10">
+      <c r="K256">
+        <v>0.1094690722435159</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11">
       <c r="A257" s="2">
         <v>42887</v>
       </c>
@@ -8550,13 +9315,16 @@
         <v>-0.03354712825945361</v>
       </c>
       <c r="I257">
-        <v>0.1061547806495109</v>
+        <v>0.06891925306070135</v>
       </c>
       <c r="J257">
         <v>0.1061547806495109</v>
       </c>
-    </row>
-    <row r="258" spans="1:10">
+      <c r="K257">
+        <v>0.1061547806495109</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11">
       <c r="A258" s="2">
         <v>42917</v>
       </c>
@@ -8582,13 +9350,16 @@
         <v>0.06125578119410724</v>
       </c>
       <c r="I258">
-        <v>0.1448238485800442</v>
+        <v>0.06901043841153769</v>
       </c>
       <c r="J258">
         <v>0.1448238485800442</v>
       </c>
-    </row>
-    <row r="259" spans="1:10">
+      <c r="K258">
+        <v>0.1448238485800442</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11">
       <c r="A259" s="2">
         <v>42948</v>
       </c>
@@ -8614,13 +9385,16 @@
         <v>-0.008658022955705835</v>
       </c>
       <c r="I259">
-        <v>0.1342873155647941</v>
+        <v>0.06899151826508781</v>
       </c>
       <c r="J259">
         <v>0.1342873155647941</v>
       </c>
-    </row>
-    <row r="260" spans="1:10">
+      <c r="K259">
+        <v>0.1342873155647941</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11">
       <c r="A260" s="2">
         <v>42979</v>
       </c>
@@ -8637,7 +9411,7 @@
         <v>21.18000030517578</v>
       </c>
       <c r="F260">
-        <v>18.78420448303223</v>
+        <v>18.78420829772949</v>
       </c>
       <c r="G260">
         <v>27600</v>
@@ -8646,13 +9420,16 @@
         <v>0.02765646181193859</v>
       </c>
       <c r="I260">
-        <v>0.1230116447372147</v>
+        <v>0.06899356481754178</v>
       </c>
       <c r="J260">
         <v>0.1230116447372147</v>
       </c>
-    </row>
-    <row r="261" spans="1:10">
+      <c r="K260">
+        <v>0.1230116447372147</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11">
       <c r="A261" s="2">
         <v>43009</v>
       </c>
@@ -8669,7 +9446,7 @@
         <v>21.36000061035156</v>
       </c>
       <c r="F261">
-        <v>18.94384384155273</v>
+        <v>18.94384765625</v>
       </c>
       <c r="G261">
         <v>42500</v>
@@ -8678,13 +9455,16 @@
         <v>0.008498597855628676</v>
       </c>
       <c r="I261">
-        <v>0.1932961489138503</v>
+        <v>0.06892835396659383</v>
       </c>
       <c r="J261">
         <v>0.1932961489138503</v>
       </c>
-    </row>
-    <row r="262" spans="1:10">
+      <c r="K261">
+        <v>0.1932961489138503</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11">
       <c r="A262" s="2">
         <v>43040</v>
       </c>
@@ -8710,13 +9490,16 @@
         <v>-0.01310864600396189</v>
       </c>
       <c r="I262">
-        <v>0.2305896647085814</v>
+        <v>0.06866430461860649</v>
       </c>
       <c r="J262">
         <v>0.2305896647085814</v>
       </c>
-    </row>
-    <row r="263" spans="1:10">
+      <c r="K262">
+        <v>0.2305896647085814</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11">
       <c r="A263" s="2">
         <v>43070</v>
       </c>
@@ -8733,7 +9516,7 @@
         <v>21.02000045776367</v>
       </c>
       <c r="F263">
-        <v>18.8797664642334</v>
+        <v>18.87976264953613</v>
       </c>
       <c r="G263">
         <v>50200</v>
@@ -8742,13 +9525,16 @@
         <v>-0.002846274485746481</v>
       </c>
       <c r="I263">
-        <v>0.2004568922330607</v>
+        <v>0.06850640627216649</v>
       </c>
       <c r="J263">
         <v>0.2004568922330607</v>
       </c>
-    </row>
-    <row r="264" spans="1:10">
+      <c r="K263">
+        <v>0.2004568922330607</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11">
       <c r="A264" s="2">
         <v>43101</v>
       </c>
@@ -8765,7 +9551,7 @@
         <v>22.79000091552734</v>
       </c>
       <c r="F264">
-        <v>20.46954727172852</v>
+        <v>20.46954536437988</v>
       </c>
       <c r="G264">
         <v>23700</v>
@@ -8774,13 +9560,16 @@
         <v>0.08420553849749934</v>
       </c>
       <c r="I264">
-        <v>0.2796182818033259</v>
+        <v>0.06854273538223826</v>
       </c>
       <c r="J264">
         <v>0.2796182818033259</v>
       </c>
-    </row>
-    <row r="265" spans="1:10">
+      <c r="K264">
+        <v>0.2796182818033259</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11">
       <c r="A265" s="2">
         <v>43132</v>
       </c>
@@ -8806,13 +9595,16 @@
         <v>-0.0421237803096014</v>
       </c>
       <c r="I265">
-        <v>0.2216003860379525</v>
+        <v>0.06866424428064012</v>
       </c>
       <c r="J265">
         <v>0.2216003860379525</v>
       </c>
-    </row>
-    <row r="266" spans="1:10">
+      <c r="K265">
+        <v>0.2216003860379525</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11">
       <c r="A266" s="2">
         <v>43160</v>
       </c>
@@ -8829,7 +9621,7 @@
         <v>21.35000038146973</v>
       </c>
       <c r="F266">
-        <v>19.1761646270752</v>
+        <v>19.17616271972656</v>
       </c>
       <c r="G266">
         <v>51100</v>
@@ -8838,13 +9630,16 @@
         <v>-0.02198806889206983</v>
       </c>
       <c r="I266">
-        <v>0.1380597079418193</v>
+        <v>0.06856557168703274</v>
       </c>
       <c r="J266">
         <v>0.1380597079418193</v>
       </c>
-    </row>
-    <row r="267" spans="1:10">
+      <c r="K266">
+        <v>0.1380597079418193</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11">
       <c r="A267" s="2">
         <v>43191</v>
       </c>
@@ -8861,7 +9656,7 @@
         <v>20.80999946594238</v>
       </c>
       <c r="F267">
-        <v>18.69114303588867</v>
+        <v>18.69114685058594</v>
       </c>
       <c r="G267">
         <v>68400</v>
@@ -8870,13 +9665,16 @@
         <v>-0.02529278247676403</v>
       </c>
       <c r="I267">
-        <v>0.07047319414856057</v>
+        <v>0.06850045392539388</v>
       </c>
       <c r="J267">
         <v>0.07047319414856057</v>
       </c>
-    </row>
-    <row r="268" spans="1:10">
+      <c r="K267">
+        <v>0.07047319414856057</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11">
       <c r="A268" s="2">
         <v>43221</v>
       </c>
@@ -8902,13 +9700,16 @@
         <v>-0.03075441643791776</v>
       </c>
       <c r="I268">
-        <v>-0.004933417819999342</v>
+        <v>0.06848375166891235</v>
       </c>
       <c r="J268">
         <v>-0.004933417819999342</v>
       </c>
-    </row>
-    <row r="269" spans="1:10">
+      <c r="K268">
+        <v>-0.004933417819999342</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11">
       <c r="A269" s="2">
         <v>43252</v>
       </c>
@@ -8925,7 +9726,7 @@
         <v>19.68000030517578</v>
       </c>
       <c r="F269">
-        <v>17.99501991271973</v>
+        <v>17.99502182006836</v>
       </c>
       <c r="G269">
         <v>15000</v>
@@ -8934,13 +9735,16 @@
         <v>-0.02429349376622303</v>
       </c>
       <c r="I269">
-        <v>0.004594188457726966</v>
+        <v>0.06583120427574039</v>
       </c>
       <c r="J269">
         <v>0.004594188457726966</v>
       </c>
-    </row>
-    <row r="270" spans="1:10">
+      <c r="K269">
+        <v>0.004594188457726966</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11">
       <c r="A270" s="2">
         <v>43282</v>
       </c>
@@ -8966,13 +9770,16 @@
         <v>0.03607718869221399</v>
       </c>
       <c r="I270">
-        <v>-0.01924009178759389</v>
+        <v>0.06551186061016659</v>
       </c>
       <c r="J270">
         <v>-0.01924009178759389</v>
       </c>
-    </row>
-    <row r="271" spans="1:10">
+      <c r="K270">
+        <v>-0.01924009178759389</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11">
       <c r="A271" s="2">
         <v>43313</v>
       </c>
@@ -8989,7 +9796,7 @@
         <v>19.55999946594238</v>
       </c>
       <c r="F271">
-        <v>17.88529586791992</v>
+        <v>17.88529396057129</v>
       </c>
       <c r="G271">
         <v>20400</v>
@@ -8998,13 +9805,16 @@
         <v>-0.04070622602016494</v>
       </c>
       <c r="I271">
-        <v>-0.05094619666735023</v>
+        <v>0.06563473974995251</v>
       </c>
       <c r="J271">
         <v>-0.05094619666735023</v>
       </c>
-    </row>
-    <row r="272" spans="1:10">
+      <c r="K271">
+        <v>-0.05094619666735023</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11">
       <c r="A272" s="2">
         <v>43344</v>
       </c>
@@ -9030,13 +9840,16 @@
         <v>-0.01993861964707611</v>
       </c>
       <c r="I272">
-        <v>-0.09490085929746894</v>
+        <v>0.0626348735145236</v>
       </c>
       <c r="J272">
         <v>-0.09490085929746894</v>
       </c>
-    </row>
-    <row r="273" spans="1:10">
+      <c r="K272">
+        <v>-0.09490085929746894</v>
+      </c>
+    </row>
+    <row r="273" spans="1:11">
       <c r="A273" s="2">
         <v>43374</v>
       </c>
@@ -9053,7 +9866,7 @@
         <v>17.42000007629395</v>
       </c>
       <c r="F273">
-        <v>15.92852020263672</v>
+        <v>15.92851734161377</v>
       </c>
       <c r="G273">
         <v>23900</v>
@@ -9062,13 +9875,16 @@
         <v>-0.09128847120684624</v>
       </c>
       <c r="I273">
-        <v>-0.1844569485708816</v>
+        <v>0.05488323046029759</v>
       </c>
       <c r="J273">
         <v>-0.1844569485708816</v>
       </c>
-    </row>
-    <row r="274" spans="1:10">
+      <c r="K273">
+        <v>-0.1844569485708816</v>
+      </c>
+    </row>
+    <row r="274" spans="1:11">
       <c r="A274" s="2">
         <v>43405</v>
       </c>
@@ -9094,13 +9910,16 @@
         <v>0.01607351810672775</v>
       </c>
       <c r="I274">
-        <v>-0.1603415167457157</v>
+        <v>0.05337355616527336</v>
       </c>
       <c r="J274">
         <v>-0.1603415167457157</v>
       </c>
-    </row>
-    <row r="275" spans="1:10">
+      <c r="K274">
+        <v>-0.1603415167457157</v>
+      </c>
+    </row>
+    <row r="275" spans="1:11">
       <c r="A275" s="2">
         <v>43435</v>
       </c>
@@ -9126,13 +9945,16 @@
         <v>-0.07683618936328829</v>
       </c>
       <c r="I275">
-        <v>-0.2226451095745451</v>
+        <v>0.05326336531041147</v>
       </c>
       <c r="J275">
         <v>-0.2226451095745451</v>
       </c>
-    </row>
-    <row r="276" spans="1:10">
+      <c r="K275">
+        <v>-0.2226451095745451</v>
+      </c>
+    </row>
+    <row r="276" spans="1:11">
       <c r="A276" s="2">
         <v>43466</v>
       </c>
@@ -9158,13 +9980,16 @@
         <v>0.08200735251374303</v>
       </c>
       <c r="I276">
-        <v>-0.2242211674010949</v>
+        <v>0.05330234581999709</v>
       </c>
       <c r="J276">
         <v>-0.2242211674010949</v>
       </c>
-    </row>
-    <row r="277" spans="1:10">
+      <c r="K276">
+        <v>-0.2242211674010949</v>
+      </c>
+    </row>
+    <row r="277" spans="1:11">
       <c r="A277" s="2">
         <v>43497</v>
       </c>
@@ -9181,7 +10006,7 @@
         <v>17.98999977111816</v>
       </c>
       <c r="F277">
-        <v>16.54511070251465</v>
+        <v>16.54511260986328</v>
       </c>
       <c r="G277">
         <v>14000</v>
@@ -9190,13 +10015,16 @@
         <v>0.01753390614205097</v>
       </c>
       <c r="I277">
-        <v>-0.1759047258821969</v>
+        <v>0.05271496791636494</v>
       </c>
       <c r="J277">
         <v>-0.1759047258821969</v>
       </c>
-    </row>
-    <row r="278" spans="1:10">
+      <c r="K277">
+        <v>-0.1759047258821969</v>
+      </c>
+    </row>
+    <row r="278" spans="1:11">
       <c r="A278" s="2">
         <v>43525</v>
       </c>
@@ -9222,13 +10050,16 @@
         <v>0.02279043094099076</v>
       </c>
       <c r="I278">
-        <v>-0.1381733353737943</v>
+        <v>0.05247540634210833</v>
       </c>
       <c r="J278">
         <v>-0.1381733353737943</v>
       </c>
-    </row>
-    <row r="279" spans="1:10">
+      <c r="K278">
+        <v>-0.1381733353737943</v>
+      </c>
+    </row>
+    <row r="279" spans="1:11">
       <c r="A279" s="2">
         <v>43556</v>
       </c>
@@ -9245,7 +10076,7 @@
         <v>19.11000061035156</v>
       </c>
       <c r="F279">
-        <v>17.57516098022461</v>
+        <v>17.57515907287598</v>
       </c>
       <c r="G279">
         <v>45800</v>
@@ -9254,13 +10085,16 @@
         <v>0.03858701122505792</v>
       </c>
       <c r="I279">
-        <v>-0.08169144157706665</v>
+        <v>0.05124977714399817</v>
       </c>
       <c r="J279">
         <v>-0.08169144157706665</v>
       </c>
-    </row>
-    <row r="280" spans="1:10">
+      <c r="K279">
+        <v>-0.08169144157706665</v>
+      </c>
+    </row>
+    <row r="280" spans="1:11">
       <c r="A280" s="2">
         <v>43586</v>
       </c>
@@ -9277,7 +10111,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="F280">
-        <v>16.43475151062012</v>
+        <v>16.43475341796875</v>
       </c>
       <c r="G280">
         <v>13200</v>
@@ -9286,13 +10120,16 @@
         <v>-0.06488747940941864</v>
       </c>
       <c r="I280">
-        <v>-0.11403070046409</v>
+        <v>0.04992651709633467</v>
       </c>
       <c r="J280">
         <v>-0.11403070046409</v>
       </c>
-    </row>
-    <row r="281" spans="1:10">
+      <c r="K280">
+        <v>-0.11403070046409</v>
+      </c>
+    </row>
+    <row r="281" spans="1:11">
       <c r="A281" s="2">
         <v>43617</v>
       </c>
@@ -9309,7 +10146,7 @@
         <v>18.32999992370605</v>
       </c>
       <c r="F281">
-        <v>17.18809127807617</v>
+        <v>17.18808937072754</v>
       </c>
       <c r="G281">
         <v>36400</v>
@@ -9318,13 +10155,16 @@
         <v>0.02574141370283178</v>
       </c>
       <c r="I281">
-        <v>-0.06859757929549826</v>
+        <v>0.04980251226048923</v>
       </c>
       <c r="J281">
         <v>-0.06859757929549826</v>
       </c>
-    </row>
-    <row r="282" spans="1:10">
+      <c r="K281">
+        <v>-0.06859757929549826</v>
+      </c>
+    </row>
+    <row r="282" spans="1:11">
       <c r="A282" s="2">
         <v>43647</v>
       </c>
@@ -9350,13 +10190,16 @@
         <v>0.03273324517005327</v>
       </c>
       <c r="I282">
-        <v>-0.07160368455988608</v>
+        <v>0.04930371787709432</v>
       </c>
       <c r="J282">
         <v>-0.07160368455988608</v>
       </c>
-    </row>
-    <row r="283" spans="1:10">
+      <c r="K282">
+        <v>-0.07160368455988608</v>
+      </c>
+    </row>
+    <row r="283" spans="1:11">
       <c r="A283" s="2">
         <v>43678</v>
       </c>
@@ -9373,7 +10216,7 @@
         <v>18.51000022888184</v>
       </c>
       <c r="F283">
-        <v>17.35687446594238</v>
+        <v>17.35687637329102</v>
       </c>
       <c r="G283">
         <v>7400</v>
@@ -9382,13 +10225,16 @@
         <v>-0.02218700842699461</v>
       </c>
       <c r="I283">
-        <v>-0.05368094405568835</v>
+        <v>0.04862308106089476</v>
       </c>
       <c r="J283">
         <v>-0.05368094405568835</v>
       </c>
-    </row>
-    <row r="284" spans="1:10">
+      <c r="K283">
+        <v>-0.05368094405568835</v>
+      </c>
+    </row>
+    <row r="284" spans="1:11">
       <c r="A284" s="2">
         <v>43709</v>
       </c>
@@ -9405,7 +10251,7 @@
         <v>18.8799991607666</v>
       </c>
       <c r="F284">
-        <v>17.70382499694824</v>
+        <v>17.70382690429688</v>
       </c>
       <c r="G284">
         <v>11000</v>
@@ -9414,13 +10260,16 @@
         <v>0.01998913707777494</v>
       </c>
       <c r="I284">
-        <v>-0.01512785155832974</v>
+        <v>0.04817494953637806</v>
       </c>
       <c r="J284">
         <v>-0.01512785155832974</v>
       </c>
-    </row>
-    <row r="285" spans="1:10">
+      <c r="K284">
+        <v>-0.01512785155832974</v>
+      </c>
+    </row>
+    <row r="285" spans="1:11">
       <c r="A285" s="2">
         <v>43739</v>
       </c>
@@ -9446,13 +10295,16 @@
         <v>0.01271195387368085</v>
       </c>
       <c r="I285">
-        <v>0.09758902155533877</v>
+        <v>0.04805766931699079</v>
       </c>
       <c r="J285">
         <v>0.09758902155533877</v>
       </c>
-    </row>
-    <row r="286" spans="1:10">
+      <c r="K285">
+        <v>0.09758902155533877</v>
+      </c>
+    </row>
+    <row r="286" spans="1:11">
       <c r="A286" s="2">
         <v>43770</v>
       </c>
@@ -9469,7 +10321,7 @@
         <v>19.48999977111816</v>
       </c>
       <c r="F286">
-        <v>18.27582359313965</v>
+        <v>18.27582168579102</v>
       </c>
       <c r="G286">
         <v>10400</v>
@@ -9478,13 +10330,16 @@
         <v>0.01935140772198829</v>
       </c>
       <c r="I286">
-        <v>0.1011298831086289</v>
+        <v>0.04789454028030216</v>
       </c>
       <c r="J286">
         <v>0.1011298831086289</v>
       </c>
-    </row>
-    <row r="287" spans="1:10">
+      <c r="K286">
+        <v>0.1011298831086289</v>
+      </c>
+    </row>
+    <row r="287" spans="1:11">
       <c r="A287" s="2">
         <v>43800</v>
       </c>
@@ -9501,7 +10356,7 @@
         <v>19.96999931335449</v>
       </c>
       <c r="F287">
-        <v>18.92299461364746</v>
+        <v>18.92299270629883</v>
       </c>
       <c r="G287">
         <v>14400</v>
@@ -9510,13 +10365,16 @@
         <v>0.02462799116845704</v>
       </c>
       <c r="I287">
-        <v>0.2221541693310016</v>
+        <v>0.04780789574470541</v>
       </c>
       <c r="J287">
         <v>0.2221541693310016</v>
       </c>
-    </row>
-    <row r="288" spans="1:10">
+      <c r="K287">
+        <v>0.2221541693310016</v>
+      </c>
+    </row>
+    <row r="288" spans="1:11">
       <c r="A288" s="2">
         <v>43831</v>
       </c>
@@ -9533,7 +10391,7 @@
         <v>19.28000068664551</v>
       </c>
       <c r="F288">
-        <v>18.26917457580566</v>
+        <v>18.2691707611084</v>
       </c>
       <c r="G288">
         <v>11500</v>
@@ -9542,13 +10400,16 @@
         <v>-0.03455176016193262</v>
       </c>
       <c r="I288">
-        <v>0.09049775757081457</v>
+        <v>0.04790703311829373</v>
       </c>
       <c r="J288">
         <v>0.09049775757081457</v>
       </c>
-    </row>
-    <row r="289" spans="1:10">
+      <c r="K288">
+        <v>0.09049775757081457</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11">
       <c r="A289" s="2">
         <v>43862</v>
       </c>
@@ -9574,13 +10435,16 @@
         <v>-0.1037344361395859</v>
       </c>
       <c r="I289">
-        <v>-0.03946631981688609</v>
+        <v>0.0489175106810889</v>
       </c>
       <c r="J289">
         <v>-0.03946631981688609</v>
       </c>
-    </row>
-    <row r="290" spans="1:10">
+      <c r="K289">
+        <v>-0.03946631981688609</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11">
       <c r="A290" s="2">
         <v>43891</v>
       </c>
@@ -9597,7 +10461,7 @@
         <v>14.47999954223633</v>
       </c>
       <c r="F290">
-        <v>13.72082901000977</v>
+        <v>13.72082996368408</v>
       </c>
       <c r="G290">
         <v>6500</v>
@@ -9606,13 +10470,16 @@
         <v>-0.1620370968256444</v>
       </c>
       <c r="I290">
-        <v>-0.2130434868241079</v>
+        <v>0.05110699576248422</v>
       </c>
       <c r="J290">
         <v>-0.2130434868241079</v>
       </c>
-    </row>
-    <row r="291" spans="1:10">
+      <c r="K290">
+        <v>-0.2130434868241079</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11">
       <c r="A291" s="2">
         <v>43922</v>
       </c>
@@ -9629,7 +10496,7 @@
         <v>15.5</v>
       </c>
       <c r="F291">
-        <v>14.68735313415527</v>
+        <v>14.68735408782959</v>
       </c>
       <c r="G291">
         <v>13000</v>
@@ -9638,13 +10505,16 @@
         <v>0.07044202279070921</v>
       </c>
       <c r="I291">
-        <v>-0.1889063576688786</v>
+        <v>0.05126961914241385</v>
       </c>
       <c r="J291">
         <v>-0.1889063576688786</v>
       </c>
-    </row>
-    <row r="292" spans="1:10">
+      <c r="K291">
+        <v>-0.1889063576688786</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11">
       <c r="A292" s="2">
         <v>43952</v>
       </c>
@@ -9670,13 +10540,16 @@
         <v>0.04064510714623237</v>
       </c>
       <c r="I292">
-        <v>-0.0973699830302549</v>
+        <v>0.05063872286487208</v>
       </c>
       <c r="J292">
         <v>-0.0973699830302549</v>
       </c>
-    </row>
-    <row r="293" spans="1:10">
+      <c r="K292">
+        <v>-0.0973699830302549</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11">
       <c r="A293" s="2">
         <v>43983</v>
       </c>
@@ -9693,7 +10566,7 @@
         <v>16.53000068664551</v>
       </c>
       <c r="F293">
-        <v>15.8050594329834</v>
+        <v>15.80505752563477</v>
       </c>
       <c r="G293">
         <v>3900</v>
@@ -9702,13 +10575,16 @@
         <v>0.02479860797834643</v>
       </c>
       <c r="I293">
-        <v>-0.09819963145404165</v>
+        <v>0.05052736212621943</v>
       </c>
       <c r="J293">
         <v>-0.09819963145404165</v>
       </c>
-    </row>
-    <row r="294" spans="1:10">
+      <c r="K293">
+        <v>-0.09819963145404165</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11">
       <c r="A294" s="2">
         <v>44013</v>
       </c>
@@ -9734,13 +10610,16 @@
         <v>0.04053236832804452</v>
       </c>
       <c r="I294">
-        <v>-0.0913893034520088</v>
+        <v>0.04936703465664903</v>
       </c>
       <c r="J294">
         <v>-0.0913893034520088</v>
       </c>
-    </row>
-    <row r="295" spans="1:10">
+      <c r="K294">
+        <v>-0.0913893034520088</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11">
       <c r="A295" s="2">
         <v>44044</v>
       </c>
@@ -9757,7 +10636,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="F295">
-        <v>16.8568172454834</v>
+        <v>16.85681533813477</v>
       </c>
       <c r="G295">
         <v>29300</v>
@@ -9766,13 +10645,16 @@
         <v>0.02499990574149624</v>
       </c>
       <c r="I295">
-        <v>-0.04754192637675581</v>
+        <v>0.04920908228211521</v>
       </c>
       <c r="J295">
         <v>-0.04754192637675581</v>
       </c>
-    </row>
-    <row r="296" spans="1:10">
+      <c r="K295">
+        <v>-0.04754192637675581</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11">
       <c r="A296" s="2">
         <v>44075</v>
       </c>
@@ -9789,7 +10671,7 @@
         <v>17.04999923706055</v>
       </c>
       <c r="F296">
-        <v>16.30224990844727</v>
+        <v>16.30225372314453</v>
       </c>
       <c r="G296">
         <v>23800</v>
@@ -9798,13 +10680,16 @@
         <v>-0.03289846575811373</v>
       </c>
       <c r="I296">
-        <v>-0.0969279663692395</v>
+        <v>0.04781599062538792</v>
       </c>
       <c r="J296">
         <v>-0.0969279663692395</v>
       </c>
-    </row>
-    <row r="297" spans="1:10">
+      <c r="K296">
+        <v>-0.0969279663692395</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11">
       <c r="A297" s="2">
         <v>44105</v>
       </c>
@@ -9830,13 +10715,16 @@
         <v>-0.07331373033780764</v>
       </c>
       <c r="I297">
-        <v>-0.1736401936597221</v>
+        <v>0.04808305411207164</v>
       </c>
       <c r="J297">
         <v>-0.1736401936597221</v>
       </c>
-    </row>
-    <row r="298" spans="1:10">
+      <c r="K297">
+        <v>-0.1736401936597221</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11">
       <c r="A298" s="2">
         <v>44136</v>
       </c>
@@ -9862,13 +10750,16 @@
         <v>0.2151899070354666</v>
       </c>
       <c r="I298">
-        <v>-0.01487937463234112</v>
+        <v>0.05065669312458036</v>
       </c>
       <c r="J298">
         <v>-0.01487937463234112</v>
       </c>
-    </row>
-    <row r="299" spans="1:10">
+      <c r="K298">
+        <v>-0.01487937463234112</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11">
       <c r="A299" s="2">
         <v>44166</v>
       </c>
@@ -9885,7 +10776,7 @@
         <v>19.6200008392334</v>
       </c>
       <c r="F299">
-        <v>18.92725372314453</v>
+        <v>18.9272518157959</v>
       </c>
       <c r="G299">
         <v>15700</v>
@@ -9894,13 +10785,16 @@
         <v>0.02187500310440837</v>
       </c>
       <c r="I299">
-        <v>-0.01752621362821183</v>
+        <v>0.05041405650912525</v>
       </c>
       <c r="J299">
         <v>-0.01752621362821183</v>
       </c>
-    </row>
-    <row r="300" spans="1:10">
+      <c r="K299">
+        <v>-0.01752621362821183</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11">
       <c r="A300" s="2">
         <v>44197</v>
       </c>
@@ -9917,7 +10811,7 @@
         <v>19.3700008392334</v>
       </c>
       <c r="F300">
-        <v>18.68608093261719</v>
+        <v>18.68607902526855</v>
       </c>
       <c r="G300">
         <v>16400</v>
@@ -9926,13 +10820,16 @@
         <v>-0.01274209935302772</v>
       </c>
       <c r="I300">
-        <v>0.004668057540590853</v>
+        <v>0.0504150671806025</v>
       </c>
       <c r="J300">
         <v>0.004668057540590853</v>
       </c>
-    </row>
-    <row r="301" spans="1:10">
+      <c r="K300">
+        <v>0.004668057540590853</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11">
       <c r="A301" s="2">
         <v>44228</v>
       </c>
@@ -9958,13 +10855,16 @@
         <v>-0.001548822165497343</v>
       </c>
       <c r="I301">
-        <v>0.1192129273197546</v>
+        <v>0.05037789349441563</v>
       </c>
       <c r="J301">
         <v>0.1192129273197546</v>
       </c>
-    </row>
-    <row r="302" spans="1:10">
+      <c r="K301">
+        <v>0.1192129273197546</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11">
       <c r="A302" s="2">
         <v>44256</v>
       </c>
@@ -9990,13 +10890,16 @@
         <v>0.05274045758614876</v>
       </c>
       <c r="I302">
-        <v>0.4060774346686971</v>
+        <v>0.05053649457838159</v>
       </c>
       <c r="J302">
         <v>0.4060774346686971</v>
       </c>
-    </row>
-    <row r="303" spans="1:10">
+      <c r="K302">
+        <v>0.4060774346686971</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11">
       <c r="A303" s="2">
         <v>44287</v>
       </c>
@@ -10013,7 +10916,7 @@
         <v>21.60000038146973</v>
       </c>
       <c r="F303">
-        <v>20.83734130859375</v>
+        <v>20.83734321594238</v>
       </c>
       <c r="G303">
         <v>213500</v>
@@ -10022,13 +10925,16 @@
         <v>0.06090371974191955</v>
       </c>
       <c r="I303">
-        <v>0.3935484117077244</v>
+        <v>0.04994506296191973</v>
       </c>
       <c r="J303">
         <v>0.3935484117077244</v>
       </c>
-    </row>
-    <row r="304" spans="1:10">
+      <c r="K303">
+        <v>0.3935484117077244</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11">
       <c r="A304" s="2">
         <v>44317</v>
       </c>
@@ -10045,7 +10951,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F304">
-        <v>21.89850234985352</v>
+        <v>21.89850425720215</v>
       </c>
       <c r="G304">
         <v>3900</v>
@@ -10054,13 +10960,16 @@
         <v>0.05092594268717687</v>
       </c>
       <c r="I304">
-        <v>0.4073156815874628</v>
+        <v>0.0499496050563317</v>
       </c>
       <c r="J304">
         <v>0.4073156815874628</v>
       </c>
-    </row>
-    <row r="305" spans="1:10">
+      <c r="K304">
+        <v>0.4073156815874628</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11">
       <c r="A305" s="2">
         <v>44348</v>
       </c>
@@ -10086,13 +10995,16 @@
         <v>-0.02863442749042167</v>
       </c>
       <c r="I305">
-        <v>0.3339381924451228</v>
+        <v>0.04973010197053763</v>
       </c>
       <c r="J305">
         <v>0.3339381924451228</v>
       </c>
-    </row>
-    <row r="306" spans="1:10">
+      <c r="K305">
+        <v>0.3339381924451228</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11">
       <c r="A306" s="2">
         <v>44378</v>
       </c>
@@ -10118,13 +11030,16 @@
         <v>-0.00362811457932366</v>
       </c>
       <c r="I306">
-        <v>0.2773254848158422</v>
+        <v>0.0494269881539512</v>
       </c>
       <c r="J306">
         <v>0.2773254848158422</v>
       </c>
-    </row>
-    <row r="307" spans="1:10">
+      <c r="K306">
+        <v>0.2773254848158422</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11">
       <c r="A307" s="2">
         <v>44409</v>
       </c>
@@ -10150,13 +11065,16 @@
         <v>0.0136550365855872</v>
       </c>
       <c r="I307">
-        <v>0.263187834252586</v>
+        <v>0.04908904872090227</v>
       </c>
       <c r="J307">
         <v>0.263187834252586</v>
       </c>
-    </row>
-    <row r="308" spans="1:10">
+      <c r="K307">
+        <v>0.263187834252586</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11">
       <c r="A308" s="2">
         <v>44440</v>
       </c>
@@ -10182,13 +11100,16 @@
         <v>-0.05253704769844603</v>
       </c>
       <c r="I308">
-        <v>0.2375367346413682</v>
+        <v>0.04791380336434591</v>
       </c>
       <c r="J308">
         <v>0.2375367346413682</v>
       </c>
-    </row>
-    <row r="309" spans="1:10">
+      <c r="K308">
+        <v>0.2375367346413682</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11">
       <c r="A309" s="2">
         <v>44470</v>
       </c>
@@ -10214,13 +11135,16 @@
         <v>0.04170612060933543</v>
       </c>
       <c r="I309">
-        <v>0.3911391947403535</v>
+        <v>0.04781227493937581</v>
       </c>
       <c r="J309">
         <v>0.3911391947403535</v>
       </c>
-    </row>
-    <row r="310" spans="1:10">
+      <c r="K309">
+        <v>0.3911391947403535</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11">
       <c r="A310" s="2">
         <v>44501</v>
       </c>
@@ -10246,42 +11170,83 @@
         <v>-0.0523202749081253</v>
       </c>
       <c r="I310">
-        <v>0.08489578624980498</v>
+        <v>0.04794266516359869</v>
       </c>
       <c r="J310">
         <v>0.08489578624980498</v>
       </c>
-    </row>
-    <row r="311" spans="1:10">
+      <c r="K310">
+        <v>0.08489578624980498</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11">
       <c r="A311" s="2">
         <v>44531</v>
       </c>
       <c r="B311">
-        <v>21.35000038146973</v>
+        <v>21.3700008392334</v>
       </c>
       <c r="C311">
-        <v>21.42000007629395</v>
+        <v>21.45000076293945</v>
       </c>
       <c r="D311">
-        <v>21.35000038146973</v>
+        <v>21.36000061035156</v>
       </c>
       <c r="E311">
-        <v>21.3700008392334</v>
+        <v>21.36000061035156</v>
       </c>
       <c r="F311">
-        <v>21.3700008392334</v>
+        <v>21.36000061035156</v>
       </c>
       <c r="G311">
-        <v>1553</v>
+        <v>15900</v>
       </c>
       <c r="H311">
-        <v>0.02592419191095541</v>
+        <v>0.02544410410882092</v>
       </c>
       <c r="I311">
-        <v>0.08919469547119441</v>
+        <v>0.04767197613427721</v>
       </c>
       <c r="J311">
-        <v>0.08919469547119441</v>
+        <v>0.08868499983133282</v>
+      </c>
+      <c r="K311">
+        <v>0.08868499983133282</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11">
+      <c r="A312" s="2">
+        <v>44562</v>
+      </c>
+      <c r="B312">
+        <v>21.56999969482422</v>
+      </c>
+      <c r="C312">
+        <v>21.6299991607666</v>
+      </c>
+      <c r="D312">
+        <v>21.52000045776367</v>
+      </c>
+      <c r="E312">
+        <v>21.55999946594238</v>
+      </c>
+      <c r="F312">
+        <v>21.55999946594238</v>
+      </c>
+      <c r="G312">
+        <v>86431</v>
+      </c>
+      <c r="H312">
+        <v>0.009363242035390851</v>
+      </c>
+      <c r="I312">
+        <v>0.04746116658288746</v>
+      </c>
+      <c r="J312">
+        <v>0.1130613594127061</v>
+      </c>
+      <c r="K312">
+        <v>0.1130613594127061</v>
       </c>
     </row>
   </sheetData>

--- a/etf_dfs/EWK.xlsx
+++ b/etf_dfs/EWK.xlsx
@@ -508,7 +508,7 @@
         <v>14.6875</v>
       </c>
       <c r="F2" t="n">
-        <v>4.735493659973145</v>
+        <v>4.735493183135986</v>
       </c>
       <c r="G2" t="n">
         <v>100</v>
@@ -535,7 +535,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>4.836249351501465</v>
+        <v>4.836248874664307</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -564,7 +564,7 @@
         <v>15.25</v>
       </c>
       <c r="F4" t="n">
-        <v>4.916852474212646</v>
+        <v>4.916852951049805</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>15.5</v>
       </c>
       <c r="F5" t="n">
-        <v>4.997458934783936</v>
+        <v>4.997458457946777</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
         <v>15.4375</v>
       </c>
       <c r="F6" t="n">
-        <v>4.977305889129639</v>
+        <v>4.977304935455322</v>
       </c>
       <c r="G6" t="n">
         <v>1700</v>
@@ -657,7 +657,7 @@
         <v>15.0625</v>
       </c>
       <c r="F7" t="n">
-        <v>5.078320503234863</v>
+        <v>5.078321933746338</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>15.125</v>
       </c>
       <c r="F8" t="n">
-        <v>5.099392890930176</v>
+        <v>5.099393367767334</v>
       </c>
       <c r="G8" t="n">
         <v>300</v>
@@ -719,7 +719,7 @@
         <v>15.25</v>
       </c>
       <c r="F9" t="n">
-        <v>5.141536712646484</v>
+        <v>5.141536235809326</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>15.625</v>
       </c>
       <c r="F11" t="n">
-        <v>5.272031784057617</v>
+        <v>5.272033214569092</v>
       </c>
       <c r="G11" t="n">
         <v>1400</v>
@@ -812,7 +812,7 @@
         <v>15.9375</v>
       </c>
       <c r="F12" t="n">
-        <v>5.377473831176758</v>
+        <v>5.377472400665283</v>
       </c>
       <c r="G12" t="n">
         <v>2300</v>
@@ -843,7 +843,7 @@
         <v>15.875</v>
       </c>
       <c r="F13" t="n">
-        <v>5.356385707855225</v>
+        <v>5.356387138366699</v>
       </c>
       <c r="G13" t="n">
         <v>400</v>
@@ -874,7 +874,7 @@
         <v>16.125</v>
       </c>
       <c r="F14" t="n">
-        <v>5.440737247467041</v>
+        <v>5.440738677978516</v>
       </c>
       <c r="G14" t="n">
         <v>25200</v>
@@ -909,7 +909,7 @@
         <v>16.1875</v>
       </c>
       <c r="F15" t="n">
-        <v>5.461825847625732</v>
+        <v>5.461825370788574</v>
       </c>
       <c r="G15" t="n">
         <v>1200</v>
@@ -944,7 +944,7 @@
         <v>16.875</v>
       </c>
       <c r="F16" t="n">
-        <v>5.693795680999756</v>
+        <v>5.693795204162598</v>
       </c>
       <c r="G16" t="n">
         <v>1200</v>
@@ -979,7 +979,7 @@
         <v>17.5</v>
       </c>
       <c r="F17" t="n">
-        <v>5.904677391052246</v>
+        <v>5.904675960540771</v>
       </c>
       <c r="G17" t="n">
         <v>27700</v>
@@ -1014,7 +1014,7 @@
         <v>17.9375</v>
       </c>
       <c r="F18" t="n">
-        <v>6.05229377746582</v>
+        <v>6.052295207977295</v>
       </c>
       <c r="G18" t="n">
         <v>700</v>
@@ -1049,7 +1049,7 @@
         <v>15.375</v>
       </c>
       <c r="F19" t="n">
-        <v>5.429316997528076</v>
+        <v>5.42931604385376</v>
       </c>
       <c r="G19" t="n">
         <v>5800</v>
@@ -1084,7 +1084,7 @@
         <v>16.75</v>
       </c>
       <c r="F20" t="n">
-        <v>5.914865970611572</v>
+        <v>5.914865493774414</v>
       </c>
       <c r="G20" t="n">
         <v>240300</v>
@@ -1119,7 +1119,7 @@
         <v>16.3125</v>
       </c>
       <c r="F21" t="n">
-        <v>5.760373115539551</v>
+        <v>5.760371685028076</v>
       </c>
       <c r="G21" t="n">
         <v>4900</v>
@@ -1154,7 +1154,7 @@
         <v>16.375</v>
       </c>
       <c r="F22" t="n">
-        <v>5.782443046569824</v>
+        <v>5.782442569732666</v>
       </c>
       <c r="G22" t="n">
         <v>900</v>
@@ -1189,7 +1189,7 @@
         <v>16.5625</v>
       </c>
       <c r="F23" t="n">
-        <v>5.910636901855469</v>
+        <v>5.91063928604126</v>
       </c>
       <c r="G23" t="n">
         <v>500</v>
@@ -1224,7 +1224,7 @@
         <v>17.0625</v>
       </c>
       <c r="F24" t="n">
-        <v>6.089072704315186</v>
+        <v>6.089072227478027</v>
       </c>
       <c r="G24" t="n">
         <v>1200</v>
@@ -1259,7 +1259,7 @@
         <v>17.9375</v>
       </c>
       <c r="F25" t="n">
-        <v>6.401332378387451</v>
+        <v>6.401333808898926</v>
       </c>
       <c r="G25" t="n">
         <v>8800</v>
@@ -1294,7 +1294,7 @@
         <v>19.375</v>
       </c>
       <c r="F26" t="n">
-        <v>6.914328575134277</v>
+        <v>6.914333343505859</v>
       </c>
       <c r="G26" t="n">
         <v>7100</v>
@@ -1329,7 +1329,7 @@
         <v>20.5</v>
       </c>
       <c r="F27" t="n">
-        <v>7.315809726715088</v>
+        <v>7.315808773040771</v>
       </c>
       <c r="G27" t="n">
         <v>1000</v>
@@ -1364,7 +1364,7 @@
         <v>21.625</v>
       </c>
       <c r="F28" t="n">
-        <v>7.717286109924316</v>
+        <v>7.717283725738525</v>
       </c>
       <c r="G28" t="n">
         <v>19000</v>
@@ -1399,7 +1399,7 @@
         <v>22.3125</v>
       </c>
       <c r="F29" t="n">
-        <v>7.962634086608887</v>
+        <v>7.962635517120361</v>
       </c>
       <c r="G29" t="n">
         <v>32800</v>
@@ -1469,7 +1469,7 @@
         <v>17.875</v>
       </c>
       <c r="F31" t="n">
-        <v>7.574155807495117</v>
+        <v>7.574155330657959</v>
       </c>
       <c r="G31" t="n">
         <v>17900</v>
@@ -1504,7 +1504,7 @@
         <v>18.0625</v>
       </c>
       <c r="F32" t="n">
-        <v>7.653603553771973</v>
+        <v>7.653604030609131</v>
       </c>
       <c r="G32" t="n">
         <v>2300</v>
@@ -1539,7 +1539,7 @@
         <v>19.1875</v>
       </c>
       <c r="F33" t="n">
-        <v>8.130300521850586</v>
+        <v>8.130298614501953</v>
       </c>
       <c r="G33" t="n">
         <v>5500</v>
@@ -1574,7 +1574,7 @@
         <v>19.3125</v>
       </c>
       <c r="F34" t="n">
-        <v>8.183267593383789</v>
+        <v>8.183266639709473</v>
       </c>
       <c r="G34" t="n">
         <v>11400</v>
@@ -1609,7 +1609,7 @@
         <v>21.25</v>
       </c>
       <c r="F35" t="n">
-        <v>9.328520774841309</v>
+        <v>9.328516006469727</v>
       </c>
       <c r="G35" t="n">
         <v>2300</v>
@@ -1644,7 +1644,7 @@
         <v>20.5</v>
       </c>
       <c r="F36" t="n">
-        <v>8.999277114868164</v>
+        <v>8.999275207519531</v>
       </c>
       <c r="G36" t="n">
         <v>1400</v>
@@ -1679,7 +1679,7 @@
         <v>19.5625</v>
       </c>
       <c r="F37" t="n">
-        <v>8.587724685668945</v>
+        <v>8.587723731994629</v>
       </c>
       <c r="G37" t="n">
         <v>2200</v>
@@ -1714,7 +1714,7 @@
         <v>18.25</v>
       </c>
       <c r="F38" t="n">
-        <v>8.01154899597168</v>
+        <v>8.011549949645996</v>
       </c>
       <c r="G38" t="n">
         <v>900</v>
@@ -1819,7 +1819,7 @@
         <v>17.8125</v>
       </c>
       <c r="F41" t="n">
-        <v>7.819493770599365</v>
+        <v>7.819490909576416</v>
       </c>
       <c r="G41" t="n">
         <v>2400</v>
@@ -1854,7 +1854,7 @@
         <v>17.3125</v>
       </c>
       <c r="F42" t="n">
-        <v>7.599997997283936</v>
+        <v>7.599998950958252</v>
       </c>
       <c r="G42" t="n">
         <v>5800</v>
@@ -1889,7 +1889,7 @@
         <v>16.1875</v>
       </c>
       <c r="F43" t="n">
-        <v>8.074112892150879</v>
+        <v>8.074111938476562</v>
       </c>
       <c r="G43" t="n">
         <v>1300</v>
@@ -1924,7 +1924,7 @@
         <v>15.75</v>
       </c>
       <c r="F44" t="n">
-        <v>7.855894565582275</v>
+        <v>7.855891704559326</v>
       </c>
       <c r="G44" t="n">
         <v>1900</v>
@@ -1959,7 +1959,7 @@
         <v>15.5</v>
       </c>
       <c r="F45" t="n">
-        <v>7.731199264526367</v>
+        <v>7.731198310852051</v>
       </c>
       <c r="G45" t="n">
         <v>10400</v>
@@ -2029,7 +2029,7 @@
         <v>16.125</v>
       </c>
       <c r="F47" t="n">
-        <v>8.042938232421875</v>
+        <v>8.042939186096191</v>
       </c>
       <c r="G47" t="n">
         <v>2300</v>
@@ -2099,7 +2099,7 @@
         <v>12.8125</v>
       </c>
       <c r="F49" t="n">
-        <v>6.390708446502686</v>
+        <v>6.390707492828369</v>
       </c>
       <c r="G49" t="n">
         <v>17300</v>
@@ -2134,7 +2134,7 @@
         <v>12.875</v>
       </c>
       <c r="F50" t="n">
-        <v>6.421880722045898</v>
+        <v>6.421883106231689</v>
       </c>
       <c r="G50" t="n">
         <v>100</v>
@@ -2169,7 +2169,7 @@
         <v>12.3125</v>
       </c>
       <c r="F51" t="n">
-        <v>6.141312122344971</v>
+        <v>6.141313076019287</v>
       </c>
       <c r="G51" t="n">
         <v>23500</v>
@@ -2239,7 +2239,7 @@
         <v>13.5</v>
       </c>
       <c r="F53" t="n">
-        <v>6.733622074127197</v>
+        <v>6.733621597290039</v>
       </c>
       <c r="G53" t="n">
         <v>1700</v>
@@ -2274,7 +2274,7 @@
         <v>14.0625</v>
       </c>
       <c r="F54" t="n">
-        <v>7.014190673828125</v>
+        <v>7.014189720153809</v>
       </c>
       <c r="G54" t="n">
         <v>5800</v>
@@ -2309,7 +2309,7 @@
         <v>13.25</v>
       </c>
       <c r="F55" t="n">
-        <v>6.782857418060303</v>
+        <v>6.782858848571777</v>
       </c>
       <c r="G55" t="n">
         <v>2100</v>
@@ -2344,7 +2344,7 @@
         <v>12.875</v>
       </c>
       <c r="F56" t="n">
-        <v>6.590888500213623</v>
+        <v>6.590890407562256</v>
       </c>
       <c r="G56" t="n">
         <v>5600</v>
@@ -2379,7 +2379,7 @@
         <v>12.8125</v>
       </c>
       <c r="F57" t="n">
-        <v>6.558896541595459</v>
+        <v>6.558896064758301</v>
       </c>
       <c r="G57" t="n">
         <v>5900</v>
@@ -2414,7 +2414,7 @@
         <v>11.8125</v>
       </c>
       <c r="F58" t="n">
-        <v>6.046981334686279</v>
+        <v>6.046983242034912</v>
       </c>
       <c r="G58" t="n">
         <v>3000</v>
@@ -2449,7 +2449,7 @@
         <v>12.75</v>
       </c>
       <c r="F59" t="n">
-        <v>6.54633617401123</v>
+        <v>6.546337604522705</v>
       </c>
       <c r="G59" t="n">
         <v>8900</v>
@@ -2484,7 +2484,7 @@
         <v>12.80000019073486</v>
       </c>
       <c r="F60" t="n">
-        <v>6.572010040283203</v>
+        <v>6.572010517120361</v>
       </c>
       <c r="G60" t="n">
         <v>4000</v>
@@ -2519,7 +2519,7 @@
         <v>12.75</v>
       </c>
       <c r="F61" t="n">
-        <v>6.54633617401123</v>
+        <v>6.546337604522705</v>
       </c>
       <c r="G61" t="n">
         <v>5400</v>
@@ -2554,7 +2554,7 @@
         <v>11.35000038146973</v>
       </c>
       <c r="F62" t="n">
-        <v>5.827526092529297</v>
+        <v>5.827524662017822</v>
       </c>
       <c r="G62" t="n">
         <v>1000</v>
@@ -2589,7 +2589,7 @@
         <v>11.64999961853027</v>
       </c>
       <c r="F63" t="n">
-        <v>5.981555461883545</v>
+        <v>5.981554985046387</v>
       </c>
       <c r="G63" t="n">
         <v>1300</v>
@@ -2624,7 +2624,7 @@
         <v>10.93000030517578</v>
       </c>
       <c r="F64" t="n">
-        <v>5.611881256103516</v>
+        <v>5.611879825592041</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2659,7 +2659,7 @@
         <v>11.05000019073486</v>
       </c>
       <c r="F65" t="n">
-        <v>5.673494815826416</v>
+        <v>5.6734938621521</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>11.75</v>
       </c>
       <c r="F66" t="n">
-        <v>6.032900333404541</v>
+        <v>6.032900810241699</v>
       </c>
       <c r="G66" t="n">
         <v>200</v>
@@ -2729,7 +2729,7 @@
         <v>11.71000003814697</v>
       </c>
       <c r="F67" t="n">
-        <v>6.131909847259521</v>
+        <v>6.131908893585205</v>
       </c>
       <c r="G67" t="n">
         <v>1500</v>
@@ -2764,7 +2764,7 @@
         <v>10.64999961853027</v>
       </c>
       <c r="F68" t="n">
-        <v>5.576842308044434</v>
+        <v>5.576840877532959</v>
       </c>
       <c r="G68" t="n">
         <v>4000</v>
@@ -2834,7 +2834,7 @@
         <v>10.32999992370605</v>
       </c>
       <c r="F70" t="n">
-        <v>5.409276962280273</v>
+        <v>5.409276008605957</v>
       </c>
       <c r="G70" t="n">
         <v>1000</v>
@@ -2869,7 +2869,7 @@
         <v>11</v>
       </c>
       <c r="F71" t="n">
-        <v>5.798703193664551</v>
+        <v>5.798703670501709</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2904,7 +2904,7 @@
         <v>10.64000034332275</v>
       </c>
       <c r="F72" t="n">
-        <v>5.608927249908447</v>
+        <v>5.608927726745605</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>10.55000019073486</v>
       </c>
       <c r="F73" t="n">
-        <v>5.561483383178711</v>
+        <v>5.561483860015869</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>11.02000045776367</v>
       </c>
       <c r="F74" t="n">
-        <v>5.809246063232422</v>
+        <v>5.80924654006958</v>
       </c>
       <c r="G74" t="n">
         <v>3600</v>
@@ -3009,7 +3009,7 @@
         <v>11.40999984741211</v>
       </c>
       <c r="F75" t="n">
-        <v>6.014838218688965</v>
+        <v>6.014834880828857</v>
       </c>
       <c r="G75" t="n">
         <v>1000</v>
@@ -3044,7 +3044,7 @@
         <v>11.80000019073486</v>
       </c>
       <c r="F76" t="n">
-        <v>6.220427513122559</v>
+        <v>6.220426559448242</v>
       </c>
       <c r="G76" t="n">
         <v>4500</v>
@@ -3079,7 +3079,7 @@
         <v>11.85000038146973</v>
       </c>
       <c r="F77" t="n">
-        <v>6.246786117553711</v>
+        <v>6.246785640716553</v>
       </c>
       <c r="G77" t="n">
         <v>8200</v>
@@ -3114,7 +3114,7 @@
         <v>10.25</v>
       </c>
       <c r="F78" t="n">
-        <v>5.403337955474854</v>
+        <v>5.403335571289062</v>
       </c>
       <c r="G78" t="n">
         <v>6200</v>
@@ -3149,7 +3149,7 @@
         <v>10.27999973297119</v>
       </c>
       <c r="F79" t="n">
-        <v>5.419150829315186</v>
+        <v>5.419153690338135</v>
       </c>
       <c r="G79" t="n">
         <v>13000</v>
@@ -3184,7 +3184,7 @@
         <v>8.609999656677246</v>
       </c>
       <c r="F80" t="n">
-        <v>4.538803100585938</v>
+        <v>4.538803577423096</v>
       </c>
       <c r="G80" t="n">
         <v>280400</v>
@@ -3219,7 +3219,7 @@
         <v>9.539999961853027</v>
       </c>
       <c r="F81" t="n">
-        <v>5.029057502746582</v>
+        <v>5.029057025909424</v>
       </c>
       <c r="G81" t="n">
         <v>100</v>
@@ -3254,7 +3254,7 @@
         <v>9.699999809265137</v>
       </c>
       <c r="F82" t="n">
-        <v>5.113402366638184</v>
+        <v>5.113400936126709</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3289,7 +3289,7 @@
         <v>9.869999885559082</v>
       </c>
       <c r="F83" t="n">
-        <v>5.26547908782959</v>
+        <v>5.265480041503906</v>
       </c>
       <c r="G83" t="n">
         <v>100</v>
@@ -3359,7 +3359,7 @@
         <v>8.399999618530273</v>
       </c>
       <c r="F85" t="n">
-        <v>4.481259346008301</v>
+        <v>4.481258869171143</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>8.529999732971191</v>
       </c>
       <c r="F86" t="n">
-        <v>4.550612926483154</v>
+        <v>4.550612449645996</v>
       </c>
       <c r="G86" t="n">
         <v>400</v>
@@ -3464,7 +3464,7 @@
         <v>11.10999965667725</v>
       </c>
       <c r="F88" t="n">
-        <v>5.926999092102051</v>
+        <v>5.927000045776367</v>
       </c>
       <c r="G88" t="n">
         <v>1400</v>
@@ -3499,7 +3499,7 @@
         <v>10.98999977111816</v>
       </c>
       <c r="F89" t="n">
-        <v>5.862982749938965</v>
+        <v>5.862981796264648</v>
       </c>
       <c r="G89" t="n">
         <v>1700</v>
@@ -3534,7 +3534,7 @@
         <v>11.26000022888184</v>
       </c>
       <c r="F90" t="n">
-        <v>6.007023334503174</v>
+        <v>6.007021903991699</v>
       </c>
       <c r="G90" t="n">
         <v>800</v>
@@ -3569,7 +3569,7 @@
         <v>11.11999988555908</v>
       </c>
       <c r="F91" t="n">
-        <v>5.93233585357666</v>
+        <v>5.932334423065186</v>
       </c>
       <c r="G91" t="n">
         <v>4600</v>
@@ -3604,7 +3604,7 @@
         <v>11.71000003814697</v>
       </c>
       <c r="F92" t="n">
-        <v>6.247090816497803</v>
+        <v>6.24708890914917</v>
       </c>
       <c r="G92" t="n">
         <v>400</v>
@@ -3674,7 +3674,7 @@
         <v>12.86999988555908</v>
       </c>
       <c r="F94" t="n">
-        <v>6.865931510925293</v>
+        <v>6.865929126739502</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>12.94999980926514</v>
       </c>
       <c r="F95" t="n">
-        <v>7.531062602996826</v>
+        <v>7.531064510345459</v>
       </c>
       <c r="G95" t="n">
         <v>700</v>
@@ -3744,7 +3744,7 @@
         <v>13.92000007629395</v>
       </c>
       <c r="F96" t="n">
-        <v>8.09516716003418</v>
+        <v>8.095168113708496</v>
       </c>
       <c r="G96" t="n">
         <v>7600</v>
@@ -3779,7 +3779,7 @@
         <v>14.19999980926514</v>
       </c>
       <c r="F97" t="n">
-        <v>8.258003234863281</v>
+        <v>8.258002281188965</v>
       </c>
       <c r="G97" t="n">
         <v>41000</v>
@@ -3814,7 +3814,7 @@
         <v>13.47999954223633</v>
       </c>
       <c r="F98" t="n">
-        <v>7.839284896850586</v>
+        <v>7.839286327362061</v>
       </c>
       <c r="G98" t="n">
         <v>64400</v>
@@ -3849,7 +3849,7 @@
         <v>13.42000007629395</v>
       </c>
       <c r="F99" t="n">
-        <v>7.804392337799072</v>
+        <v>7.804394245147705</v>
       </c>
       <c r="G99" t="n">
         <v>279500</v>
@@ -3884,7 +3884,7 @@
         <v>13.8100004196167</v>
       </c>
       <c r="F100" t="n">
-        <v>8.031195640563965</v>
+        <v>8.031197547912598</v>
       </c>
       <c r="G100" t="n">
         <v>7500</v>
@@ -3919,7 +3919,7 @@
         <v>14.39999961853027</v>
       </c>
       <c r="F101" t="n">
-        <v>8.374311447143555</v>
+        <v>8.374309539794922</v>
       </c>
       <c r="G101" t="n">
         <v>23800</v>
@@ -3954,7 +3954,7 @@
         <v>14.13000011444092</v>
       </c>
       <c r="F102" t="n">
-        <v>8.217291831970215</v>
+        <v>8.217293739318848</v>
       </c>
       <c r="G102" t="n">
         <v>12600</v>
@@ -3989,7 +3989,7 @@
         <v>14.90999984741211</v>
       </c>
       <c r="F103" t="n">
-        <v>8.670903205871582</v>
+        <v>8.670901298522949</v>
       </c>
       <c r="G103" t="n">
         <v>17200</v>
@@ -4024,7 +4024,7 @@
         <v>16.04000091552734</v>
       </c>
       <c r="F104" t="n">
-        <v>9.328051567077637</v>
+        <v>9.32805347442627</v>
       </c>
       <c r="G104" t="n">
         <v>27800</v>
@@ -4094,7 +4094,7 @@
         <v>17.94000053405762</v>
       </c>
       <c r="F106" t="n">
-        <v>10.43299674987793</v>
+        <v>10.43299770355225</v>
       </c>
       <c r="G106" t="n">
         <v>152100</v>
@@ -4164,7 +4164,7 @@
         <v>18.13999938964844</v>
       </c>
       <c r="F108" t="n">
-        <v>10.71284008026123</v>
+        <v>10.71283626556396</v>
       </c>
       <c r="G108" t="n">
         <v>35300</v>
@@ -4199,7 +4199,7 @@
         <v>19.03000068664551</v>
       </c>
       <c r="F109" t="n">
-        <v>11.23844051361084</v>
+        <v>11.23844146728516</v>
       </c>
       <c r="G109" t="n">
         <v>40400</v>
@@ -4234,7 +4234,7 @@
         <v>18.79999923706055</v>
       </c>
       <c r="F110" t="n">
-        <v>11.10261154174805</v>
+        <v>11.10260963439941</v>
       </c>
       <c r="G110" t="n">
         <v>54400</v>
@@ -4269,7 +4269,7 @@
         <v>18.20999908447266</v>
       </c>
       <c r="F111" t="n">
-        <v>10.75417709350586</v>
+        <v>10.75417613983154</v>
       </c>
       <c r="G111" t="n">
         <v>39800</v>
@@ -4374,7 +4374,7 @@
         <v>18.75</v>
       </c>
       <c r="F114" t="n">
-        <v>11.07308197021484</v>
+        <v>11.07308292388916</v>
       </c>
       <c r="G114" t="n">
         <v>10900</v>
@@ -4479,7 +4479,7 @@
         <v>18.75</v>
       </c>
       <c r="F117" t="n">
-        <v>11.07308197021484</v>
+        <v>11.07308292388916</v>
       </c>
       <c r="G117" t="n">
         <v>11900</v>
@@ -4584,7 +4584,7 @@
         <v>20.5</v>
       </c>
       <c r="F120" t="n">
-        <v>12.62036037445068</v>
+        <v>12.62035751342773</v>
       </c>
       <c r="G120" t="n">
         <v>29500</v>
@@ -4654,7 +4654,7 @@
         <v>21.17000007629395</v>
       </c>
       <c r="F122" t="n">
-        <v>13.0328254699707</v>
+        <v>13.0328311920166</v>
       </c>
       <c r="G122" t="n">
         <v>16100</v>
@@ -4689,7 +4689,7 @@
         <v>22.3700008392334</v>
       </c>
       <c r="F123" t="n">
-        <v>13.77158164978027</v>
+        <v>13.77158069610596</v>
       </c>
       <c r="G123" t="n">
         <v>29100</v>
@@ -4724,7 +4724,7 @@
         <v>21.6200008392334</v>
       </c>
       <c r="F124" t="n">
-        <v>13.3098611831665</v>
+        <v>13.30985927581787</v>
       </c>
       <c r="G124" t="n">
         <v>40100</v>
@@ -4759,7 +4759,7 @@
         <v>21.53000068664551</v>
       </c>
       <c r="F125" t="n">
-        <v>13.25445652008057</v>
+        <v>13.25445461273193</v>
       </c>
       <c r="G125" t="n">
         <v>27500</v>
@@ -4829,7 +4829,7 @@
         <v>22.90999984741211</v>
       </c>
       <c r="F127" t="n">
-        <v>14.10401725769043</v>
+        <v>14.1040210723877</v>
       </c>
       <c r="G127" t="n">
         <v>48500</v>
@@ -4864,7 +4864,7 @@
         <v>23.75</v>
       </c>
       <c r="F128" t="n">
-        <v>14.6211462020874</v>
+        <v>14.62114906311035</v>
       </c>
       <c r="G128" t="n">
         <v>57600</v>
@@ -4899,7 +4899,7 @@
         <v>24.15999984741211</v>
       </c>
       <c r="F129" t="n">
-        <v>14.87355327606201</v>
+        <v>14.87355518341064</v>
       </c>
       <c r="G129" t="n">
         <v>92800</v>
@@ -4934,7 +4934,7 @@
         <v>24.94000053405762</v>
       </c>
       <c r="F130" t="n">
-        <v>15.35374355316162</v>
+        <v>15.35374450683594</v>
       </c>
       <c r="G130" t="n">
         <v>51400</v>
@@ -4969,7 +4969,7 @@
         <v>25.61000061035156</v>
       </c>
       <c r="F131" t="n">
-        <v>16.0369758605957</v>
+        <v>16.03697776794434</v>
       </c>
       <c r="G131" t="n">
         <v>55700</v>
@@ -5039,7 +5039,7 @@
         <v>25.47999954223633</v>
       </c>
       <c r="F133" t="n">
-        <v>15.95556735992432</v>
+        <v>15.95556640625</v>
       </c>
       <c r="G133" t="n">
         <v>176600</v>
@@ -5074,7 +5074,7 @@
         <v>26.6299991607666</v>
       </c>
       <c r="F134" t="n">
-        <v>16.67570114135742</v>
+        <v>16.67569923400879</v>
       </c>
       <c r="G134" t="n">
         <v>44200</v>
@@ -5109,7 +5109,7 @@
         <v>27.80999946594238</v>
       </c>
       <c r="F135" t="n">
-        <v>17.41461181640625</v>
+        <v>17.41460990905762</v>
       </c>
       <c r="G135" t="n">
         <v>117700</v>
@@ -5179,7 +5179,7 @@
         <v>27.71999931335449</v>
       </c>
       <c r="F137" t="n">
-        <v>17.35825729370117</v>
+        <v>17.3582592010498</v>
       </c>
       <c r="G137" t="n">
         <v>47900</v>
@@ -5214,7 +5214,7 @@
         <v>26.40999984741211</v>
       </c>
       <c r="F138" t="n">
-        <v>16.53793144226074</v>
+        <v>16.53793525695801</v>
       </c>
       <c r="G138" t="n">
         <v>199000</v>
@@ -5249,7 +5249,7 @@
         <v>25.89999961853027</v>
       </c>
       <c r="F139" t="n">
-        <v>16.21857070922852</v>
+        <v>16.21857261657715</v>
       </c>
       <c r="G139" t="n">
         <v>94300</v>
@@ -5284,7 +5284,7 @@
         <v>26.60000038146973</v>
       </c>
       <c r="F140" t="n">
-        <v>16.65691566467285</v>
+        <v>16.65691375732422</v>
       </c>
       <c r="G140" t="n">
         <v>100300</v>
@@ -5354,7 +5354,7 @@
         <v>25.68000030517578</v>
       </c>
       <c r="F142" t="n">
-        <v>16.08081245422363</v>
+        <v>16.080810546875</v>
       </c>
       <c r="G142" t="n">
         <v>82900</v>
@@ -5389,7 +5389,7 @@
         <v>24.39999961853027</v>
       </c>
       <c r="F143" t="n">
-        <v>15.74514198303223</v>
+        <v>15.74514675140381</v>
       </c>
       <c r="G143" t="n">
         <v>174200</v>
@@ -5424,7 +5424,7 @@
         <v>22.53000068664551</v>
       </c>
       <c r="F144" t="n">
-        <v>14.53845024108887</v>
+        <v>14.5384521484375</v>
       </c>
       <c r="G144" t="n">
         <v>72000</v>
@@ -5459,7 +5459,7 @@
         <v>22.60000038146973</v>
       </c>
       <c r="F145" t="n">
-        <v>14.58362102508545</v>
+        <v>14.58362293243408</v>
       </c>
       <c r="G145" t="n">
         <v>29500</v>
@@ -5494,7 +5494,7 @@
         <v>23.70000076293945</v>
       </c>
       <c r="F146" t="n">
-        <v>15.29344367980957</v>
+        <v>15.29344463348389</v>
       </c>
       <c r="G146" t="n">
         <v>70400</v>
@@ -5529,7 +5529,7 @@
         <v>24.72999954223633</v>
       </c>
       <c r="F147" t="n">
-        <v>15.95809364318848</v>
+        <v>15.95809841156006</v>
       </c>
       <c r="G147" t="n">
         <v>521900</v>
@@ -5564,7 +5564,7 @@
         <v>23.8700008392334</v>
       </c>
       <c r="F148" t="n">
-        <v>15.40314292907715</v>
+        <v>15.40314197540283</v>
       </c>
       <c r="G148" t="n">
         <v>32600</v>
@@ -5599,7 +5599,7 @@
         <v>18.95999908447266</v>
       </c>
       <c r="F149" t="n">
-        <v>12.87097454071045</v>
+        <v>12.87097644805908</v>
       </c>
       <c r="G149" t="n">
         <v>66800</v>
@@ -5634,7 +5634,7 @@
         <v>17.54000091552734</v>
       </c>
       <c r="F150" t="n">
-        <v>11.90701007843018</v>
+        <v>11.90701198577881</v>
       </c>
       <c r="G150" t="n">
         <v>14800</v>
@@ -5669,7 +5669,7 @@
         <v>17.51000022888184</v>
       </c>
       <c r="F151" t="n">
-        <v>11.88664531707764</v>
+        <v>11.88664436340332</v>
       </c>
       <c r="G151" t="n">
         <v>43700</v>
@@ -5739,7 +5739,7 @@
         <v>9.149999618530273</v>
       </c>
       <c r="F153" t="n">
-        <v>6.211469173431396</v>
+        <v>6.211468696594238</v>
       </c>
       <c r="G153" t="n">
         <v>56700</v>
@@ -5774,7 +5774,7 @@
         <v>7.940000057220459</v>
       </c>
       <c r="F154" t="n">
-        <v>5.390059947967529</v>
+        <v>5.390061855316162</v>
       </c>
       <c r="G154" t="n">
         <v>110200</v>
@@ -5809,7 +5809,7 @@
         <v>8.729999542236328</v>
       </c>
       <c r="F155" t="n">
-        <v>6.032685279846191</v>
+        <v>6.032686233520508</v>
       </c>
       <c r="G155" t="n">
         <v>28100</v>
@@ -5879,7 +5879,7 @@
         <v>7.53000020980835</v>
       </c>
       <c r="F157" t="n">
-        <v>5.203450679779053</v>
+        <v>5.203451156616211</v>
       </c>
       <c r="G157" t="n">
         <v>160300</v>
@@ -5914,7 +5914,7 @@
         <v>8.020000457763672</v>
       </c>
       <c r="F158" t="n">
-        <v>5.542055606842041</v>
+        <v>5.542056083679199</v>
       </c>
       <c r="G158" t="n">
         <v>104300</v>
@@ -5984,7 +5984,7 @@
         <v>10.47999954223633</v>
       </c>
       <c r="F160" t="n">
-        <v>7.241984367370605</v>
+        <v>7.241986274719238</v>
       </c>
       <c r="G160" t="n">
         <v>162000</v>
@@ -6019,7 +6019,7 @@
         <v>10.09000015258789</v>
       </c>
       <c r="F161" t="n">
-        <v>7.110125064849854</v>
+        <v>7.110125541687012</v>
       </c>
       <c r="G161" t="n">
         <v>149100</v>
@@ -6054,7 +6054,7 @@
         <v>10.97000026702881</v>
       </c>
       <c r="F162" t="n">
-        <v>7.730234622955322</v>
+        <v>7.730232715606689</v>
       </c>
       <c r="G162" t="n">
         <v>27900</v>
@@ -6089,7 +6089,7 @@
         <v>12.05000019073486</v>
       </c>
       <c r="F163" t="n">
-        <v>8.491276741027832</v>
+        <v>8.491278648376465</v>
       </c>
       <c r="G163" t="n">
         <v>48200</v>
@@ -6124,7 +6124,7 @@
         <v>12.98999977111816</v>
       </c>
       <c r="F164" t="n">
-        <v>9.153666496276855</v>
+        <v>9.153667449951172</v>
       </c>
       <c r="G164" t="n">
         <v>155000</v>
@@ -6159,7 +6159,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="F165" t="n">
-        <v>8.850661277770996</v>
+        <v>8.85066032409668</v>
       </c>
       <c r="G165" t="n">
         <v>101000</v>
@@ -6264,7 +6264,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="F168" t="n">
-        <v>8.881118774414062</v>
+        <v>8.88111686706543</v>
       </c>
       <c r="G168" t="n">
         <v>99300</v>
@@ -6299,7 +6299,7 @@
         <v>12.55000019073486</v>
       </c>
       <c r="F169" t="n">
-        <v>8.874048233032227</v>
+        <v>8.87404727935791</v>
       </c>
       <c r="G169" t="n">
         <v>59500</v>
@@ -6334,7 +6334,7 @@
         <v>13.02000045776367</v>
       </c>
       <c r="F170" t="n">
-        <v>9.206382751464844</v>
+        <v>9.206381797790527</v>
       </c>
       <c r="G170" t="n">
         <v>176900</v>
@@ -6369,7 +6369,7 @@
         <v>12.39000034332275</v>
       </c>
       <c r="F171" t="n">
-        <v>8.760910034179688</v>
+        <v>8.76091194152832</v>
       </c>
       <c r="G171" t="n">
         <v>45000</v>
@@ -6404,7 +6404,7 @@
         <v>11.26000022888184</v>
       </c>
       <c r="F172" t="n">
-        <v>7.96189546585083</v>
+        <v>7.961897850036621</v>
       </c>
       <c r="G172" t="n">
         <v>200000</v>
@@ -6439,7 +6439,7 @@
         <v>10.84000015258789</v>
       </c>
       <c r="F173" t="n">
-        <v>7.76641845703125</v>
+        <v>7.766417980194092</v>
       </c>
       <c r="G173" t="n">
         <v>29400</v>
@@ -6474,7 +6474,7 @@
         <v>12.22000026702881</v>
       </c>
       <c r="F174" t="n">
-        <v>8.755131721496582</v>
+        <v>8.755132675170898</v>
       </c>
       <c r="G174" t="n">
         <v>45700</v>
@@ -6544,7 +6544,7 @@
         <v>13.27999973297119</v>
       </c>
       <c r="F176" t="n">
-        <v>9.514578819274902</v>
+        <v>9.514580726623535</v>
       </c>
       <c r="G176" t="n">
         <v>90400</v>
@@ -6579,7 +6579,7 @@
         <v>14.01000022888184</v>
       </c>
       <c r="F177" t="n">
-        <v>10.03759479522705</v>
+        <v>10.03759384155273</v>
       </c>
       <c r="G177" t="n">
         <v>53800</v>
@@ -6614,7 +6614,7 @@
         <v>12.36999988555908</v>
       </c>
       <c r="F178" t="n">
-        <v>8.862601280212402</v>
+        <v>8.862602233886719</v>
       </c>
       <c r="G178" t="n">
         <v>153700</v>
@@ -6684,7 +6684,7 @@
         <v>13.40999984741211</v>
       </c>
       <c r="F180" t="n">
-        <v>9.676142692565918</v>
+        <v>9.676143646240234</v>
       </c>
       <c r="G180" t="n">
         <v>801300</v>
@@ -6719,7 +6719,7 @@
         <v>13.76000022888184</v>
       </c>
       <c r="F181" t="n">
-        <v>9.928689956665039</v>
+        <v>9.928692817687988</v>
       </c>
       <c r="G181" t="n">
         <v>151700</v>
@@ -6754,7 +6754,7 @@
         <v>14.10999965667725</v>
       </c>
       <c r="F182" t="n">
-        <v>10.18123531341553</v>
+        <v>10.18123722076416</v>
       </c>
       <c r="G182" t="n">
         <v>65900</v>
@@ -6789,7 +6789,7 @@
         <v>15.60000038146973</v>
       </c>
       <c r="F183" t="n">
-        <v>11.2563648223877</v>
+        <v>11.25636291503906</v>
       </c>
       <c r="G183" t="n">
         <v>58000</v>
@@ -6824,7 +6824,7 @@
         <v>14.94999980926514</v>
       </c>
       <c r="F184" t="n">
-        <v>10.78734874725342</v>
+        <v>10.7873477935791</v>
       </c>
       <c r="G184" t="n">
         <v>44900</v>
@@ -6859,7 +6859,7 @@
         <v>14.10999965667725</v>
       </c>
       <c r="F185" t="n">
-        <v>10.35786533355713</v>
+        <v>10.35786628723145</v>
       </c>
       <c r="G185" t="n">
         <v>34300</v>
@@ -6894,7 +6894,7 @@
         <v>13.32999992370605</v>
       </c>
       <c r="F186" t="n">
-        <v>9.785282135009766</v>
+        <v>9.785284996032715</v>
       </c>
       <c r="G186" t="n">
         <v>353000</v>
@@ -6929,7 +6929,7 @@
         <v>12.5600004196167</v>
       </c>
       <c r="F187" t="n">
-        <v>9.220039367675781</v>
+        <v>9.220040321350098</v>
       </c>
       <c r="G187" t="n">
         <v>15600</v>
@@ -6964,7 +6964,7 @@
         <v>11</v>
       </c>
       <c r="F188" t="n">
-        <v>8.074878692626953</v>
+        <v>8.07487964630127</v>
       </c>
       <c r="G188" t="n">
         <v>8300</v>
@@ -7104,7 +7104,7 @@
         <v>11.18000030517578</v>
       </c>
       <c r="F192" t="n">
-        <v>8.468833923339844</v>
+        <v>8.468835830688477</v>
       </c>
       <c r="G192" t="n">
         <v>12900</v>
@@ -7139,7 +7139,7 @@
         <v>11.89999961853027</v>
       </c>
       <c r="F193" t="n">
-        <v>9.014233589172363</v>
+        <v>9.014232635498047</v>
       </c>
       <c r="G193" t="n">
         <v>102800</v>
@@ -7174,7 +7174,7 @@
         <v>12.34000015258789</v>
       </c>
       <c r="F194" t="n">
-        <v>9.347532272338867</v>
+        <v>9.347531318664551</v>
       </c>
       <c r="G194" t="n">
         <v>51500</v>
@@ -7209,7 +7209,7 @@
         <v>12.0600004196167</v>
       </c>
       <c r="F195" t="n">
-        <v>9.135432243347168</v>
+        <v>9.135435104370117</v>
       </c>
       <c r="G195" t="n">
         <v>58000</v>
@@ -7279,7 +7279,7 @@
         <v>11.52000045776367</v>
       </c>
       <c r="F197" t="n">
-        <v>9.007062911987305</v>
+        <v>9.007063865661621</v>
       </c>
       <c r="G197" t="n">
         <v>69100</v>
@@ -7314,7 +7314,7 @@
         <v>11.4399995803833</v>
       </c>
       <c r="F198" t="n">
-        <v>8.944513320922852</v>
+        <v>8.944512367248535</v>
       </c>
       <c r="G198" t="n">
         <v>121000</v>
@@ -7384,7 +7384,7 @@
         <v>12.57999992370605</v>
       </c>
       <c r="F200" t="n">
-        <v>9.835835456848145</v>
+        <v>9.835836410522461</v>
       </c>
       <c r="G200" t="n">
         <v>26700</v>
@@ -7454,7 +7454,7 @@
         <v>13.07999992370605</v>
       </c>
       <c r="F202" t="n">
-        <v>10.22676753997803</v>
+        <v>10.22676658630371</v>
       </c>
       <c r="G202" t="n">
         <v>76600</v>
@@ -7489,7 +7489,7 @@
         <v>13.85000038146973</v>
       </c>
       <c r="F203" t="n">
-        <v>10.84562587738037</v>
+        <v>10.84562397003174</v>
       </c>
       <c r="G203" t="n">
         <v>130100</v>
@@ -7524,7 +7524,7 @@
         <v>14.35999965667725</v>
       </c>
       <c r="F204" t="n">
-        <v>11.24499416351318</v>
+        <v>11.24499225616455</v>
       </c>
       <c r="G204" t="n">
         <v>182100</v>
@@ -7559,7 +7559,7 @@
         <v>14.22000026702881</v>
       </c>
       <c r="F205" t="n">
-        <v>11.13536262512207</v>
+        <v>11.13536167144775</v>
       </c>
       <c r="G205" t="n">
         <v>106700</v>
@@ -7594,7 +7594,7 @@
         <v>14.18000030517578</v>
       </c>
       <c r="F206" t="n">
-        <v>11.10404109954834</v>
+        <v>11.10403919219971</v>
       </c>
       <c r="G206" t="n">
         <v>157800</v>
@@ -7629,7 +7629,7 @@
         <v>14.64999961853027</v>
       </c>
       <c r="F207" t="n">
-        <v>11.47208690643311</v>
+        <v>11.47208499908447</v>
       </c>
       <c r="G207" t="n">
         <v>60900</v>
@@ -7664,7 +7664,7 @@
         <v>14.53999996185303</v>
       </c>
       <c r="F208" t="n">
-        <v>11.38594913482666</v>
+        <v>11.38594627380371</v>
       </c>
       <c r="G208" t="n">
         <v>26400</v>
@@ -7699,7 +7699,7 @@
         <v>13.61999988555908</v>
       </c>
       <c r="F209" t="n">
-        <v>10.95831298828125</v>
+        <v>10.95831203460693</v>
       </c>
       <c r="G209" t="n">
         <v>274400</v>
@@ -7734,7 +7734,7 @@
         <v>14.5600004196167</v>
       </c>
       <c r="F210" t="n">
-        <v>11.71461296081543</v>
+        <v>11.71461486816406</v>
       </c>
       <c r="G210" t="n">
         <v>200500</v>
@@ -7769,7 +7769,7 @@
         <v>14.36999988555908</v>
       </c>
       <c r="F211" t="n">
-        <v>11.56174564361572</v>
+        <v>11.56174468994141</v>
       </c>
       <c r="G211" t="n">
         <v>49500</v>
@@ -7804,7 +7804,7 @@
         <v>15.39000034332275</v>
       </c>
       <c r="F212" t="n">
-        <v>12.38240909576416</v>
+        <v>12.38241195678711</v>
       </c>
       <c r="G212" t="n">
         <v>75100</v>
@@ -7839,7 +7839,7 @@
         <v>16.09000015258789</v>
       </c>
       <c r="F213" t="n">
-        <v>12.94561386108398</v>
+        <v>12.9456148147583</v>
       </c>
       <c r="G213" t="n">
         <v>28000</v>
@@ -7874,7 +7874,7 @@
         <v>16.10000038146973</v>
       </c>
       <c r="F214" t="n">
-        <v>12.95366191864014</v>
+        <v>12.95366096496582</v>
       </c>
       <c r="G214" t="n">
         <v>30600</v>
@@ -7909,7 +7909,7 @@
         <v>16.38999938964844</v>
       </c>
       <c r="F215" t="n">
-        <v>13.51376914978027</v>
+        <v>13.51376628875732</v>
       </c>
       <c r="G215" t="n">
         <v>44200</v>
@@ -7944,7 +7944,7 @@
         <v>15.77999973297119</v>
       </c>
       <c r="F216" t="n">
-        <v>13.01081657409668</v>
+        <v>13.01081371307373</v>
       </c>
       <c r="G216" t="n">
         <v>40900</v>
@@ -7979,7 +7979,7 @@
         <v>17.15999984741211</v>
       </c>
       <c r="F217" t="n">
-        <v>14.14864158630371</v>
+        <v>14.14864635467529</v>
       </c>
       <c r="G217" t="n">
         <v>57500</v>
@@ -8119,7 +8119,7 @@
         <v>17.20000076293945</v>
       </c>
       <c r="F221" t="n">
-        <v>14.36781215667725</v>
+        <v>14.3678150177002</v>
       </c>
       <c r="G221" t="n">
         <v>94700</v>
@@ -8154,7 +8154,7 @@
         <v>16.73999977111816</v>
       </c>
       <c r="F222" t="n">
-        <v>13.98355579376221</v>
+        <v>13.98355674743652</v>
       </c>
       <c r="G222" t="n">
         <v>198400</v>
@@ -8189,7 +8189,7 @@
         <v>17.01000022888184</v>
       </c>
       <c r="F223" t="n">
-        <v>14.20909881591797</v>
+        <v>14.20909786224365</v>
       </c>
       <c r="G223" t="n">
         <v>209700</v>
@@ -8224,7 +8224,7 @@
         <v>16.31999969482422</v>
       </c>
       <c r="F224" t="n">
-        <v>13.63271427154541</v>
+        <v>13.63271522521973</v>
       </c>
       <c r="G224" t="n">
         <v>54900</v>
@@ -8259,7 +8259,7 @@
         <v>16.06999969482422</v>
       </c>
       <c r="F225" t="n">
-        <v>13.42387866973877</v>
+        <v>13.42388153076172</v>
       </c>
       <c r="G225" t="n">
         <v>120300</v>
@@ -8294,7 +8294,7 @@
         <v>16.67000007629395</v>
       </c>
       <c r="F226" t="n">
-        <v>13.92508316040039</v>
+        <v>13.92508125305176</v>
       </c>
       <c r="G226" t="n">
         <v>38200</v>
@@ -8399,7 +8399,7 @@
         <v>17.35000038146973</v>
       </c>
       <c r="F229" t="n">
-        <v>14.55933380126953</v>
+        <v>14.55933284759521</v>
       </c>
       <c r="G229" t="n">
         <v>25900</v>
@@ -8434,7 +8434,7 @@
         <v>16.88999938964844</v>
       </c>
       <c r="F230" t="n">
-        <v>14.17332077026367</v>
+        <v>14.1733226776123</v>
       </c>
       <c r="G230" t="n">
         <v>85000</v>
@@ -8469,7 +8469,7 @@
         <v>17.45000076293945</v>
       </c>
       <c r="F231" t="n">
-        <v>14.64325046539307</v>
+        <v>14.64324951171875</v>
       </c>
       <c r="G231" t="n">
         <v>80800</v>
@@ -8504,7 +8504,7 @@
         <v>17.81999969482422</v>
       </c>
       <c r="F232" t="n">
-        <v>14.95373725891113</v>
+        <v>14.9537353515625</v>
       </c>
       <c r="G232" t="n">
         <v>54000</v>
@@ -8539,7 +8539,7 @@
         <v>17.3700008392334</v>
       </c>
       <c r="F233" t="n">
-        <v>14.81091213226318</v>
+        <v>14.81091117858887</v>
       </c>
       <c r="G233" t="n">
         <v>214300</v>
@@ -8574,7 +8574,7 @@
         <v>17.98999977111816</v>
       </c>
       <c r="F234" t="n">
-        <v>15.33956909179688</v>
+        <v>15.33957004547119</v>
       </c>
       <c r="G234" t="n">
         <v>97200</v>
@@ -8609,7 +8609,7 @@
         <v>16.95000076293945</v>
       </c>
       <c r="F235" t="n">
-        <v>14.45279026031494</v>
+        <v>14.45279312133789</v>
       </c>
       <c r="G235" t="n">
         <v>84100</v>
@@ -8644,7 +8644,7 @@
         <v>16.46999931335449</v>
       </c>
       <c r="F236" t="n">
-        <v>14.04350757598877</v>
+        <v>14.04350566864014</v>
       </c>
       <c r="G236" t="n">
         <v>296100</v>
@@ -8679,7 +8679,7 @@
         <v>17.51000022888184</v>
       </c>
       <c r="F237" t="n">
-        <v>14.93028831481934</v>
+        <v>14.93028545379639</v>
       </c>
       <c r="G237" t="n">
         <v>108500</v>
@@ -8714,7 +8714,7 @@
         <v>17.77000045776367</v>
       </c>
       <c r="F238" t="n">
-        <v>15.15198230743408</v>
+        <v>15.1519832611084</v>
       </c>
       <c r="G238" t="n">
         <v>72900</v>
@@ -8749,7 +8749,7 @@
         <v>18.05999946594238</v>
       </c>
       <c r="F239" t="n">
-        <v>15.47131824493408</v>
+        <v>15.47132015228271</v>
       </c>
       <c r="G239" t="n">
         <v>153100</v>
@@ -8819,7 +8819,7 @@
         <v>16.3700008392334</v>
       </c>
       <c r="F241" t="n">
-        <v>14.02355861663818</v>
+        <v>14.0235595703125</v>
       </c>
       <c r="G241" t="n">
         <v>113400</v>
@@ -8854,7 +8854,7 @@
         <v>17.65999984741211</v>
       </c>
       <c r="F242" t="n">
-        <v>15.12865161895752</v>
+        <v>15.12865257263184</v>
       </c>
       <c r="G242" t="n">
         <v>1844500</v>
@@ -8889,7 +8889,7 @@
         <v>17.92000007629395</v>
       </c>
       <c r="F243" t="n">
-        <v>15.35138702392578</v>
+        <v>15.35138511657715</v>
       </c>
       <c r="G243" t="n">
         <v>147300</v>
@@ -8924,7 +8924,7 @@
         <v>18.27000045776367</v>
       </c>
       <c r="F244" t="n">
-        <v>15.65121746063232</v>
+        <v>15.65121841430664</v>
       </c>
       <c r="G244" t="n">
         <v>105900</v>
@@ -8959,7 +8959,7 @@
         <v>17.70999908447266</v>
       </c>
       <c r="F245" t="n">
-        <v>15.2947473526001</v>
+        <v>15.29474925994873</v>
       </c>
       <c r="G245" t="n">
         <v>378800</v>
@@ -8994,7 +8994,7 @@
         <v>18.15999984741211</v>
       </c>
       <c r="F246" t="n">
-        <v>15.68337726593018</v>
+        <v>15.68337821960449</v>
       </c>
       <c r="G246" t="n">
         <v>216000</v>
@@ -9064,7 +9064,7 @@
         <v>18.86000061035156</v>
       </c>
       <c r="F248" t="n">
-        <v>16.28791236877441</v>
+        <v>16.28791427612305</v>
       </c>
       <c r="G248" t="n">
         <v>243300</v>
@@ -9099,7 +9099,7 @@
         <v>17.89999961853027</v>
       </c>
       <c r="F249" t="n">
-        <v>15.45883560180664</v>
+        <v>15.45883750915527</v>
       </c>
       <c r="G249" t="n">
         <v>70900</v>
@@ -9134,7 +9134,7 @@
         <v>17.1299991607666</v>
       </c>
       <c r="F250" t="n">
-        <v>14.79384708404541</v>
+        <v>14.79384803771973</v>
       </c>
       <c r="G250" t="n">
         <v>157800</v>
@@ -9239,7 +9239,7 @@
         <v>17.8700008392334</v>
       </c>
       <c r="F253" t="n">
-        <v>15.57650279998779</v>
+        <v>15.57650470733643</v>
       </c>
       <c r="G253" t="n">
         <v>52300</v>
@@ -9274,7 +9274,7 @@
         <v>18.76000022888184</v>
       </c>
       <c r="F254" t="n">
-        <v>16.35227966308594</v>
+        <v>16.3522777557373</v>
       </c>
       <c r="G254" t="n">
         <v>43700</v>
@@ -9309,7 +9309,7 @@
         <v>19.44000053405762</v>
       </c>
       <c r="F255" t="n">
-        <v>16.94500541687012</v>
+        <v>16.94500350952148</v>
       </c>
       <c r="G255" t="n">
         <v>77400</v>
@@ -9344,7 +9344,7 @@
         <v>20.27000045776367</v>
       </c>
       <c r="F256" t="n">
-        <v>17.66847991943359</v>
+        <v>17.66848182678223</v>
       </c>
       <c r="G256" t="n">
         <v>144200</v>
@@ -9379,7 +9379,7 @@
         <v>19.59000015258789</v>
       </c>
       <c r="F257" t="n">
-        <v>17.37405967712402</v>
+        <v>17.37406158447266</v>
       </c>
       <c r="G257" t="n">
         <v>58100</v>
@@ -9414,7 +9414,7 @@
         <v>20.79000091552734</v>
       </c>
       <c r="F258" t="n">
-        <v>18.43832397460938</v>
+        <v>18.43832588195801</v>
       </c>
       <c r="G258" t="n">
         <v>60000</v>
@@ -9484,7 +9484,7 @@
         <v>21.18000030517578</v>
       </c>
       <c r="F260" t="n">
-        <v>18.78420639038086</v>
+        <v>18.78420448303223</v>
       </c>
       <c r="G260" t="n">
         <v>27600</v>
@@ -9519,7 +9519,7 @@
         <v>21.36000061035156</v>
       </c>
       <c r="F261" t="n">
-        <v>18.94384765625</v>
+        <v>18.94384384155273</v>
       </c>
       <c r="G261" t="n">
         <v>42500</v>
@@ -9624,7 +9624,7 @@
         <v>22.79000091552734</v>
       </c>
       <c r="F264" t="n">
-        <v>20.46954536437988</v>
+        <v>20.46954345703125</v>
       </c>
       <c r="G264" t="n">
         <v>23700</v>
@@ -9729,7 +9729,7 @@
         <v>20.80999946594238</v>
       </c>
       <c r="F267" t="n">
-        <v>18.69114303588867</v>
+        <v>18.6911449432373</v>
       </c>
       <c r="G267" t="n">
         <v>68400</v>
@@ -9764,7 +9764,7 @@
         <v>20.17000007629395</v>
       </c>
       <c r="F268" t="n">
-        <v>18.11630630493164</v>
+        <v>18.11631011962891</v>
       </c>
       <c r="G268" t="n">
         <v>146700</v>
@@ -9834,7 +9834,7 @@
         <v>20.38999938964844</v>
       </c>
       <c r="F270" t="n">
-        <v>18.64422988891602</v>
+        <v>18.64423370361328</v>
       </c>
       <c r="G270" t="n">
         <v>18800</v>
@@ -9869,7 +9869,7 @@
         <v>19.55999946594238</v>
       </c>
       <c r="F271" t="n">
-        <v>17.88529396057129</v>
+        <v>17.88529586791992</v>
       </c>
       <c r="G271" t="n">
         <v>20400</v>
@@ -9904,7 +9904,7 @@
         <v>19.17000007629395</v>
       </c>
       <c r="F272" t="n">
-        <v>17.5286865234375</v>
+        <v>17.52869033813477</v>
       </c>
       <c r="G272" t="n">
         <v>8800</v>
@@ -9939,7 +9939,7 @@
         <v>17.42000007629395</v>
       </c>
       <c r="F273" t="n">
-        <v>15.9285192489624</v>
+        <v>15.92852020263672</v>
       </c>
       <c r="G273" t="n">
         <v>23900</v>
@@ -9974,7 +9974,7 @@
         <v>17.70000076293945</v>
       </c>
       <c r="F274" t="n">
-        <v>16.18454742431641</v>
+        <v>16.18454933166504</v>
       </c>
       <c r="G274" t="n">
         <v>7500</v>
@@ -10009,7 +10009,7 @@
         <v>16.34000015258789</v>
       </c>
       <c r="F275" t="n">
-        <v>15.02763366699219</v>
+        <v>15.02763271331787</v>
       </c>
       <c r="G275" t="n">
         <v>47400</v>
@@ -10044,7 +10044,7 @@
         <v>17.68000030517578</v>
       </c>
       <c r="F276" t="n">
-        <v>16.26000785827637</v>
+        <v>16.26001167297363</v>
       </c>
       <c r="G276" t="n">
         <v>10200</v>
@@ -10079,7 +10079,7 @@
         <v>17.98999977111816</v>
       </c>
       <c r="F277" t="n">
-        <v>16.54511070251465</v>
+        <v>16.54511260986328</v>
       </c>
       <c r="G277" t="n">
         <v>14000</v>
@@ -10114,7 +10114,7 @@
         <v>18.39999961853027</v>
       </c>
       <c r="F278" t="n">
-        <v>16.92218399047852</v>
+        <v>16.92218017578125</v>
       </c>
       <c r="G278" t="n">
         <v>13200</v>
@@ -10149,7 +10149,7 @@
         <v>19.11000061035156</v>
       </c>
       <c r="F279" t="n">
-        <v>17.57515907287598</v>
+        <v>17.57515716552734</v>
       </c>
       <c r="G279" t="n">
         <v>45800</v>
@@ -10219,7 +10219,7 @@
         <v>18.32999992370605</v>
       </c>
       <c r="F281" t="n">
-        <v>17.18808937072754</v>
+        <v>17.18808746337891</v>
       </c>
       <c r="G281" t="n">
         <v>36400</v>
@@ -10254,7 +10254,7 @@
         <v>18.93000030517578</v>
       </c>
       <c r="F282" t="n">
-        <v>17.75070953369141</v>
+        <v>17.75071144104004</v>
       </c>
       <c r="G282" t="n">
         <v>106100</v>
@@ -10359,7 +10359,7 @@
         <v>19.1200008392334</v>
       </c>
       <c r="F285" t="n">
-        <v>17.92887496948242</v>
+        <v>17.92887687683105</v>
       </c>
       <c r="G285" t="n">
         <v>12100</v>
@@ -10429,7 +10429,7 @@
         <v>19.96999931335449</v>
       </c>
       <c r="F287" t="n">
-        <v>18.92299652099609</v>
+        <v>18.92299461364746</v>
       </c>
       <c r="G287" t="n">
         <v>14400</v>
@@ -10534,7 +10534,7 @@
         <v>14.47999954223633</v>
       </c>
       <c r="F290" t="n">
-        <v>13.72082996368408</v>
+        <v>13.72082901000977</v>
       </c>
       <c r="G290" t="n">
         <v>6500</v>
@@ -10604,7 +10604,7 @@
         <v>16.1299991607666</v>
       </c>
       <c r="F292" t="n">
-        <v>15.28432273864746</v>
+        <v>15.28432178497314</v>
       </c>
       <c r="G292" t="n">
         <v>5800</v>
@@ -10709,7 +10709,7 @@
         <v>17.6299991607666</v>
       </c>
       <c r="F295" t="n">
-        <v>16.85681533813477</v>
+        <v>16.8568172454834</v>
       </c>
       <c r="G295" t="n">
         <v>29300</v>
@@ -10744,7 +10744,7 @@
         <v>17.04999923706055</v>
       </c>
       <c r="F296" t="n">
-        <v>16.3022518157959</v>
+        <v>16.30225372314453</v>
       </c>
       <c r="G296" t="n">
         <v>23800</v>
@@ -10779,7 +10779,7 @@
         <v>15.80000019073486</v>
       </c>
       <c r="F297" t="n">
-        <v>15.10707378387451</v>
+        <v>15.1070728302002</v>
       </c>
       <c r="G297" t="n">
         <v>4400</v>
@@ -10814,7 +10814,7 @@
         <v>19.20000076293945</v>
       </c>
       <c r="F298" t="n">
-        <v>18.35796356201172</v>
+        <v>18.35796165466309</v>
       </c>
       <c r="G298" t="n">
         <v>16900</v>
@@ -10849,7 +10849,7 @@
         <v>19.6200008392334</v>
       </c>
       <c r="F299" t="n">
-        <v>18.92725372314453</v>
+        <v>18.9272518157959</v>
       </c>
       <c r="G299" t="n">
         <v>15700</v>
@@ -10884,7 +10884,7 @@
         <v>19.3700008392334</v>
       </c>
       <c r="F300" t="n">
-        <v>18.68608093261719</v>
+        <v>18.68607902526855</v>
       </c>
       <c r="G300" t="n">
         <v>16400</v>
@@ -10989,7 +10989,7 @@
         <v>21.60000038146973</v>
       </c>
       <c r="F303" t="n">
-        <v>20.83734130859375</v>
+        <v>20.83734321594238</v>
       </c>
       <c r="G303" t="n">
         <v>213500</v>
@@ -11024,7 +11024,7 @@
         <v>22.70000076293945</v>
       </c>
       <c r="F304" t="n">
-        <v>21.89850234985352</v>
+        <v>21.89850425720215</v>
       </c>
       <c r="G304" t="n">
         <v>3900</v>
@@ -11307,7 +11307,7 @@
         <v>21.76000022888184</v>
       </c>
       <c r="G312" t="n">
-        <v>452</v>
+        <v>993</v>
       </c>
       <c r="H312" t="n">
         <v>0.01872657336612726</v>
